--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Q102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,218 +665,231 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
         <v>43830</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1308000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1302000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1454000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1371000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1503000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1418000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1535000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1445000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1496000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1330000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1411000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1260000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1316000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1309000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1160000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1170000</v>
       </c>
-      <c r="E9" s="3">
-        <v>1247000</v>
-      </c>
       <c r="F9" s="3">
-        <v>1236000</v>
+        <v>1284000</v>
       </c>
       <c r="G9" s="3">
+        <v>1255000</v>
+      </c>
+      <c r="H9" s="3">
         <v>1319000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1216000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1307000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1295000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1269000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1153000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1184000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1106000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1110000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1108000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>148000</v>
+      </c>
+      <c r="E10" s="3">
         <v>132000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
+        <v>170000</v>
+      </c>
+      <c r="G10" s="3">
+        <v>116000</v>
+      </c>
+      <c r="H10" s="3">
+        <v>184000</v>
+      </c>
+      <c r="I10" s="3">
+        <v>202000</v>
+      </c>
+      <c r="J10" s="3">
+        <v>228000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>150000</v>
+      </c>
+      <c r="L10" s="3">
+        <v>227000</v>
+      </c>
+      <c r="M10" s="3">
+        <v>177000</v>
+      </c>
+      <c r="N10" s="3">
+        <v>227000</v>
+      </c>
+      <c r="O10" s="3">
+        <v>154000</v>
+      </c>
+      <c r="P10" s="3">
+        <v>206000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>201000</v>
+      </c>
+      <c r="R10" s="3">
         <v>207000</v>
       </c>
-      <c r="F10" s="3">
-        <v>135000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>184000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>202000</v>
-      </c>
-      <c r="I10" s="3">
-        <v>228000</v>
-      </c>
-      <c r="J10" s="3">
-        <v>150000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>227000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>177000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>227000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>154000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>206000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>201000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>207000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -894,8 +907,9 @@
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -941,8 +955,11 @@
       <c r="Q12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -988,55 +1005,61 @@
       <c r="Q13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-25000</v>
       </c>
-      <c r="E14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
+      <c r="F14" s="3">
+        <v>-37000</v>
       </c>
       <c r="G14" s="3">
+        <v>-19000</v>
+      </c>
+      <c r="H14" s="3">
         <v>-29000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-20000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-14000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-25000</v>
       </c>
       <c r="K14" s="3">
         <v>-25000</v>
       </c>
       <c r="L14" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="M14" s="3">
         <v>-32000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-20000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-17000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-16000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-26000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1082,8 +1105,11 @@
       <c r="Q15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1098,102 +1124,109 @@
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
-    </row>
-    <row r="17" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1247000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1357000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1325000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1386000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1295000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1400000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1361000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1342000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1214000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1260000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1170000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1174000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1166000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>55000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>97000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>46000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>117000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>123000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>135000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>84000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>154000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>116000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>151000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>90000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>142000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>143000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1211,102 +1244,109 @@
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
-    </row>
-    <row r="20" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
-        <v>-20000</v>
+      <c r="D20" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E20" s="3">
         <v>-20000</v>
       </c>
       <c r="F20" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="G20" s="3">
         <v>-28000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-20000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-17000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-14000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-17000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="L20" s="3">
-        <v>-15000</v>
       </c>
       <c r="M20" s="3">
         <v>-15000</v>
       </c>
       <c r="N20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-16000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>129000</v>
       </c>
-      <c r="E21" s="3">
-        <v>170000</v>
-      </c>
       <c r="F21" s="3">
+        <v>172000</v>
+      </c>
+      <c r="G21" s="3">
         <v>107000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>185000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>192000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>214000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>154000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>222000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>181000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>219000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>150000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>198000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>201000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1317,25 +1357,25 @@
         <v>8</v>
       </c>
       <c r="F22" s="3">
-        <v>0</v>
+        <v>2000</v>
       </c>
       <c r="G22" s="3">
         <v>0</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
       <c r="J22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="3">
         <v>1000</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>1000</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1352,102 +1392,111 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>0</v>
+      </c>
+      <c r="E23" s="3">
         <v>35000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>77000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>97000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>106000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>121000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>66000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>133000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>101000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>136000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>74000</v>
-      </c>
-      <c r="O23" s="3">
-        <v>118000</v>
       </c>
       <c r="P23" s="3">
         <v>118000</v>
       </c>
       <c r="Q23" s="3">
+        <v>118000</v>
+      </c>
+      <c r="R23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>11000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>27000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>10000</v>
-      </c>
-      <c r="G24" s="3">
-        <v>25000</v>
       </c>
       <c r="H24" s="3">
         <v>25000</v>
       </c>
       <c r="I24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="J24" s="3">
         <v>14000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>15000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>31000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>38000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>34000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>16000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>30000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>28000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1493,102 +1542,111 @@
       <c r="Q25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>24000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>50000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>8000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>72000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>81000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>107000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>51000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>102000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>63000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>102000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>58000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>88000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>90000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>24000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>50000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>8000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>72000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>81000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>107000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>51000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>102000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>63000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>102000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>58000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>88000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>90000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1634,8 +1692,11 @@
       <c r="Q28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1681,8 +1742,11 @@
       <c r="Q29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1728,8 +1792,11 @@
       <c r="Q30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1775,102 +1842,111 @@
       <c r="Q31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
-        <v>20000</v>
+      <c r="D32" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E32" s="3">
         <v>20000</v>
       </c>
       <c r="F32" s="3">
+        <v>18000</v>
+      </c>
+      <c r="G32" s="3">
         <v>28000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>20000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>17000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>14000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>17000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20000</v>
-      </c>
-      <c r="L32" s="3">
-        <v>15000</v>
       </c>
       <c r="M32" s="3">
         <v>15000</v>
       </c>
       <c r="N32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="O32" s="3">
         <v>16000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>25000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>24000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>50000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>8000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>72000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>81000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>107000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>51000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>102000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>63000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>102000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>58000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>88000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>90000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1916,107 +1992,116 @@
       <c r="Q34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>24000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>50000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>8000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>72000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>81000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>107000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>51000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>102000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>63000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>102000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>58000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>88000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>90000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
         <v>43830</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2034,8 +2119,9 @@
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
-    </row>
-    <row r="40" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2053,55 +2139,59 @@
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
-    </row>
-    <row r="41" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E41" s="3">
         <v>270000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>393000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>226000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>720000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>350000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>363000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>317000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>459000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>618000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>550000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>446000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>703000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>681000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="42" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2147,231 +2237,246 @@
       <c r="Q42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>702000</v>
+      </c>
+      <c r="E43" s="3">
         <v>708000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>729000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>721000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>748000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>716000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>779000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>718000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>742000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>663000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>680000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>626000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>588000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>571000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>765000</v>
+      </c>
+      <c r="E44" s="3">
         <v>782000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>709000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>780000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>804000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>828000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>741000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>735000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>752000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>697000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>636000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>676000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>652000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>647000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E45" s="3">
         <v>11000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>3000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>6000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>21000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>8000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>18000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>26000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>62000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>69000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1744000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1771000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1834000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1740000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2278000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1903000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1904000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1778000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1971000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2004000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1869000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1756000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2005000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1968000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E47" s="3">
         <v>34000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>31000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>33000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>32000</v>
       </c>
       <c r="H47" s="3">
         <v>32000</v>
       </c>
       <c r="I47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="J47" s="3">
         <v>33000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>34000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>38000</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="M47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>26000</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O47" s="3" t="s">
         <v>8</v>
@@ -2379,93 +2484,99 @@
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="Q47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3537000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3887000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3512000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3577000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3456000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3465000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3476000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3407000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3542000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3324000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3139000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3014000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>2884000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2849000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E49" s="3">
         <v>82000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>54000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>57000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>60000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>62000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>63000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>87000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>94000</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="M49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>39000</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O49" s="3" t="s">
         <v>8</v>
@@ -2473,11 +2584,14 @@
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="Q49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2523,8 +2637,11 @@
       <c r="Q50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2570,55 +2687,61 @@
       <c r="Q51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>196000</v>
+      </c>
+      <c r="E52" s="3">
         <v>200000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>192000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>207000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>199000</v>
-      </c>
-      <c r="H52" s="3">
-        <v>194000</v>
       </c>
       <c r="I52" s="3">
         <v>194000</v>
       </c>
       <c r="J52" s="3">
+        <v>194000</v>
+      </c>
+      <c r="K52" s="3">
         <v>161000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>163000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>221000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>174000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>248000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>229000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>228000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2664,55 +2787,61 @@
       <c r="Q53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5588000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5974000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5623000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5614000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6025000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5656000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5670000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5467000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5808000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5549000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5247000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5018000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5118000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5045000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2730,8 +2859,9 @@
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
-    </row>
-    <row r="56" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2749,43 +2879,44 @@
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
-    </row>
-    <row r="57" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>870000</v>
+      </c>
+      <c r="E57" s="3">
         <v>883000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>969000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>838000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>870000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>954000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1009000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>916000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>908000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>828000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>858000</v>
-      </c>
-      <c r="N57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O57" s="3" t="s">
         <v>8</v>
@@ -2793,246 +2924,264 @@
       <c r="P57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="Q57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>217000</v>
+      </c>
+      <c r="E58" s="3">
         <v>211000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>181000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>192000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>641000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>129000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>113000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>104000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>151000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>136000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>133000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>129000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>549000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>546000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>57000</v>
+      </c>
+      <c r="E59" s="3">
         <v>46000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>64000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>52000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>45000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>152000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>51000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>61000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>176000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>52000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>821000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>753000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>807000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1144000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1140000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1214000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1082000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1556000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1235000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1173000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1081000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1116000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1140000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1043000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>950000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1302000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1353000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1930000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1975000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1713000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1762000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1759000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1778000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1818000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1816000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1940000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1831000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1739000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1635000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1483000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1473000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>687000</v>
+      </c>
+      <c r="E62" s="3">
         <v>788000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>748000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>737000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>723000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>728000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>732000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>728000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>784000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>757000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>718000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>806000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>782000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>777000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3078,8 +3227,11 @@
       <c r="Q63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3125,8 +3277,11 @@
       <c r="Q64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3172,55 +3327,61 @@
       <c r="Q65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3761000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3903000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3675000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3581000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4038000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3741000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3723000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3625000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3840000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3728000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3500000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3391000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3567000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3603000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3238,8 +3399,9 @@
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
-    </row>
-    <row r="68" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3285,8 +3447,11 @@
       <c r="Q68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3332,8 +3497,11 @@
       <c r="Q69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3379,8 +3547,11 @@
       <c r="Q70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3426,8 +3597,11 @@
       <c r="Q71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3473,8 +3647,11 @@
       <c r="Q72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3520,8 +3697,11 @@
       <c r="Q73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3567,8 +3747,11 @@
       <c r="Q74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3614,55 +3797,61 @@
       <c r="Q75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3">
+      <c r="D76" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E76" s="3">
         <v>2071000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1948000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2033000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1987000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1915000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1947000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1842000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1968000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1821000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1747000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1627000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1551000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1442000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3708,107 +3897,116 @@
       <c r="Q77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:17" x14ac:dyDescent="0.2">
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
         <v>43830</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>24000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>50000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>8000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>72000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>81000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>107000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>51000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>102000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>63000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>102000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>58000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>88000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>90000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3826,55 +4024,59 @@
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
-    </row>
-    <row r="83" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>97000</v>
+      </c>
+      <c r="E83" s="3">
         <v>94000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>93000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>89000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>88000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>86000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>87000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>88000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>80000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>83000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>76000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>80000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>83000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3920,8 +4122,11 @@
       <c r="Q84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3967,8 +4172,11 @@
       <c r="Q85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4014,8 +4222,11 @@
       <c r="Q86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4061,8 +4272,11 @@
       <c r="Q87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4108,55 +4322,61 @@
       <c r="Q88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-342000</v>
+      </c>
+      <c r="E89" s="3">
         <v>-5000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>306000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>118000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-53000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>102000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>171000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>147000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>79000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>249000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>116000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>62000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>54000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4174,55 +4394,59 @@
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
-    </row>
-    <row r="91" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-112000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
+        <v>188000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-135000</v>
       </c>
-      <c r="F91" s="3">
-        <v>-135000</v>
-      </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-95000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-106000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>228000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-188000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-119000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-88000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>149000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-78000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-45000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4268,8 +4492,11 @@
       <c r="Q92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4315,55 +4542,61 @@
       <c r="Q93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3">
+      <c r="D94" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E94" s="3">
         <v>-273000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-133000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-135000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-95000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-109000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-145000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-188000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-238000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-93000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-208000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-86000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-42000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-37000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4381,8 +4614,9 @@
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
-    </row>
-    <row r="96" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4428,8 +4662,11 @@
       <c r="Q96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4475,8 +4712,11 @@
       <c r="Q97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4522,8 +4762,11 @@
       <c r="Q98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4569,145 +4812,157 @@
       <c r="Q99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:17" x14ac:dyDescent="0.2">
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>147000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>12000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-489000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>531000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>2000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>21000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-71000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>60000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>58000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>51000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-314000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-10000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E101" s="3">
         <v>8000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-18000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>12000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-13000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-30000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>24000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>12000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>27000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-33000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
         <v>-123000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>167000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-494000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>370000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-13000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>46000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-142000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-159000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>68000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>104000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-257000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>22000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-22000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>907000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1308000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1302000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1454000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1371000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1503000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1418000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1535000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1445000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1496000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1330000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1411000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1260000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1316000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1309000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1160000</v>
+        <v>912000</v>
       </c>
       <c r="E9" s="3">
+        <v>1182000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1170000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1284000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1255000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1319000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1216000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1307000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1295000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1269000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1153000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1184000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1106000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1110000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1108000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>148000</v>
+        <v>-5000</v>
       </c>
       <c r="E10" s="3">
+        <v>126000</v>
+      </c>
+      <c r="F10" s="3">
         <v>132000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>170000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>116000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>184000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>202000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>228000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>150000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>227000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>177000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>227000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>154000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>206000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>201000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,58 +1025,64 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-17000</v>
       </c>
       <c r="E14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-25000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-37000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-19000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-29000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-20000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-14000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-25000</v>
       </c>
       <c r="L14" s="3">
         <v>-25000</v>
       </c>
       <c r="M14" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="N14" s="3">
         <v>-32000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-20000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-17000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-26000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1108,8 +1131,11 @@
       <c r="R15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>979000</v>
       </c>
       <c r="E17" s="3">
+        <v>1285000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1247000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1357000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1325000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1386000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1295000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1400000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1361000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1342000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1214000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1260000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1170000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1174000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1166000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>-72000</v>
       </c>
       <c r="E18" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F18" s="3">
         <v>55000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>97000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>46000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>117000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>123000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>135000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>84000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>154000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>116000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>151000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>90000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>142000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>143000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,108 +1278,115 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-24000</v>
       </c>
       <c r="E20" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-20000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-18000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-28000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-17000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-14000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-17000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="M20" s="3">
-        <v>-15000</v>
       </c>
       <c r="N20" s="3">
         <v>-15000</v>
       </c>
       <c r="O20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="P20" s="3">
         <v>-16000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-24000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-25000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>-5000</v>
       </c>
       <c r="E21" s="3">
+        <v>97000</v>
+      </c>
+      <c r="F21" s="3">
         <v>129000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>172000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>107000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>185000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>192000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>214000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>154000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>222000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>181000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>219000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>150000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>198000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>201000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1356,29 +1396,29 @@
       <c r="E22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="3">
         <v>2000</v>
       </c>
-      <c r="G22" s="3">
-        <v>0</v>
-      </c>
       <c r="H22" s="3">
         <v>0</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="L22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3" t="s">
-        <v>8</v>
+      <c r="M22" s="3">
+        <v>1000</v>
       </c>
       <c r="N22" s="3" t="s">
         <v>8</v>
@@ -1395,108 +1435,117 @@
       <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
-        <v>0</v>
+        <v>-96000</v>
       </c>
       <c r="E23" s="3">
+        <v>0</v>
+      </c>
+      <c r="F23" s="3">
         <v>35000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>77000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>18000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>97000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>106000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>121000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>66000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>133000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>101000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>136000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>74000</v>
-      </c>
-      <c r="P23" s="3">
-        <v>118000</v>
       </c>
       <c r="Q23" s="3">
         <v>118000</v>
       </c>
       <c r="R23" s="3">
+        <v>118000</v>
+      </c>
+      <c r="S23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-2000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>11000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>27000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>10000</v>
-      </c>
-      <c r="H24" s="3">
-        <v>25000</v>
       </c>
       <c r="I24" s="3">
         <v>25000</v>
       </c>
       <c r="J24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="K24" s="3">
         <v>14000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>15000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>31000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>38000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>34000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>16000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>30000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>28000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>-73000</v>
       </c>
       <c r="E26" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F26" s="3">
         <v>24000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>50000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>8000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>72000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>81000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>107000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>51000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>102000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>63000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>102000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>58000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>88000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>90000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>-73000</v>
       </c>
       <c r="E27" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F27" s="3">
         <v>24000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>50000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>8000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>72000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>81000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>107000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>51000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>102000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>63000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>102000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>58000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>88000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>90000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,8 +1753,11 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1745,8 +1806,11 @@
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>24000</v>
       </c>
       <c r="E32" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F32" s="3">
         <v>20000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>18000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>28000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>17000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>14000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>17000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
-      </c>
-      <c r="M32" s="3">
-        <v>15000</v>
       </c>
       <c r="N32" s="3">
         <v>15000</v>
       </c>
       <c r="O32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="P32" s="3">
         <v>16000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>24000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>25000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>-73000</v>
       </c>
       <c r="E33" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F33" s="3">
         <v>24000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>50000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>8000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>72000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>81000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>107000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>51000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>102000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>63000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>102000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>58000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>88000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>90000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>-73000</v>
       </c>
       <c r="E35" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F35" s="3">
         <v>24000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>50000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>8000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>72000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>81000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>107000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>51000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>102000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>63000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>102000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>58000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>88000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>90000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E41" s="3">
         <v>268000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>270000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>393000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>226000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>720000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>350000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>363000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>317000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>459000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>618000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>550000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>446000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>703000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>681000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2240,246 +2330,261 @@
       <c r="R42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>575000</v>
+      </c>
+      <c r="E43" s="3">
         <v>702000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>708000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>729000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>721000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>748000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>716000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>779000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>718000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>742000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>663000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>680000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>626000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>588000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>571000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>731000</v>
+      </c>
+      <c r="E44" s="3">
         <v>765000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>782000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>709000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>780000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>804000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>828000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>741000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>735000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>752000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>697000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>636000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>676000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>652000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>647000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E45" s="3">
         <v>9000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>11000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>3000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>6000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>21000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>8000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>18000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>26000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>62000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>69000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1503000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1744000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1771000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1834000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1740000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2278000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1903000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1904000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1778000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1971000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2004000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1869000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1756000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2005000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1968000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>20000</v>
+      </c>
+      <c r="E47" s="3">
         <v>30000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>34000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>31000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>33000</v>
-      </c>
-      <c r="H47" s="3">
-        <v>32000</v>
       </c>
       <c r="I47" s="3">
         <v>32000</v>
       </c>
       <c r="J47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="K47" s="3">
         <v>33000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>34000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>38000</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="N47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>26000</v>
-      </c>
-      <c r="O47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
@@ -2487,99 +2592,105 @@
       <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="R47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3530000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3537000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3887000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3512000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3577000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3456000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3465000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3476000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3407000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3542000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3324000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3139000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3014000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>2884000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>2849000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>109000</v>
+      </c>
+      <c r="E49" s="3">
         <v>81000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>82000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>54000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>57000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>60000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>62000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>63000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>87000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>94000</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="N49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>39000</v>
-      </c>
-      <c r="O49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
@@ -2587,11 +2698,14 @@
       <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="R49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,58 +2807,64 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E52" s="3">
         <v>196000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>200000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>192000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>207000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>199000</v>
-      </c>
-      <c r="I52" s="3">
-        <v>194000</v>
       </c>
       <c r="J52" s="3">
         <v>194000</v>
       </c>
       <c r="K52" s="3">
+        <v>194000</v>
+      </c>
+      <c r="L52" s="3">
         <v>161000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>163000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>221000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>174000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>248000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>229000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>228000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5372000</v>
+      </c>
+      <c r="E54" s="3">
         <v>5588000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5974000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5623000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5614000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6025000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5656000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5670000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5467000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5808000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5549000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5247000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5018000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5118000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5045000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,46 +3010,47 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>675000</v>
+      </c>
+      <c r="E57" s="3">
         <v>870000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>883000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>969000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>838000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>870000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>954000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1009000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>916000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>908000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>828000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>858000</v>
-      </c>
-      <c r="O57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P57" s="3" t="s">
         <v>8</v>
@@ -2927,261 +3058,279 @@
       <c r="Q57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R57" s="3">
+      <c r="R57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>314000</v>
+      </c>
+      <c r="E58" s="3">
         <v>217000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>211000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>181000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>192000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>641000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>129000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>113000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>104000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>151000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>136000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>133000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>129000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>549000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>546000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>44000</v>
+      </c>
+      <c r="E59" s="3">
         <v>57000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>46000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>64000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>52000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>45000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>152000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>51000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>61000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>176000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>52000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>821000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>753000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>807000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1033000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1144000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1140000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1214000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1082000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1556000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1235000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1173000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1081000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1116000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1140000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1043000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>950000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1302000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1353000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1853000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1930000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1975000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1713000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1762000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1759000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1778000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1818000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1816000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1940000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1831000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1739000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1635000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1483000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1473000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>705000</v>
+      </c>
+      <c r="E62" s="3">
         <v>687000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>788000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>748000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>737000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>723000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>728000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>732000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>728000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>784000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>757000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>718000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>806000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>782000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>777000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3591000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3761000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3903000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3675000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3581000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4038000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3741000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3723000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3625000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3840000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3728000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3500000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3391000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3567000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3603000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3550,8 +3718,11 @@
       <c r="R70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,8 +3771,11 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3650,8 +3824,11 @@
       <c r="R72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D76" s="3" t="s">
-        <v>8</v>
+      <c r="D76" s="3">
+        <v>1781000</v>
       </c>
       <c r="E76" s="3">
+        <v>1827000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2071000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1948000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2033000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1987000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1915000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1947000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1842000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1968000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1821000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1747000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1627000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1551000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1442000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>-73000</v>
       </c>
       <c r="E81" s="3">
+        <v>2000</v>
+      </c>
+      <c r="F81" s="3">
         <v>24000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>50000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>8000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>72000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>81000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>107000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>51000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>102000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>63000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>102000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>58000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>88000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>90000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E83" s="3">
         <v>97000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>94000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>93000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>89000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>88000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>86000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>93000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>87000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>88000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>80000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>83000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>76000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>80000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
-        <v>-342000</v>
+        <v>11000</v>
       </c>
       <c r="E89" s="3">
+        <v>74000</v>
+      </c>
+      <c r="F89" s="3">
         <v>-5000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>306000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>118000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-53000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>102000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>171000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>147000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>79000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>249000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>116000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>62000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>54000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-112000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>188000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-135000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-95000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-106000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>228000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-188000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-119000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-88000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>149000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-78000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-45000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-37000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="D94" s="3" t="s">
-        <v>8</v>
+      <c r="D94" s="3">
+        <v>-78000</v>
       </c>
       <c r="E94" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-273000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-133000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-135000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-95000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-109000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-145000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-188000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-238000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-93000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-208000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-86000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-37000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4665,8 +4899,11 @@
       <c r="R96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-7000</v>
+      </c>
+      <c r="E100" s="3">
         <v>4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>147000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>12000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-489000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>531000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>2000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>21000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-71000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>60000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>58000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>51000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-314000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-6000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-6000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>8000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-18000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-13000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-30000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>24000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>27000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-33000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>-78000</v>
       </c>
       <c r="E102" s="3">
+        <v>-2000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-123000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>167000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-494000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>370000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-13000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>46000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-142000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-159000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>68000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>104000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-257000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>22000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-22000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,269 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1163000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1092000</v>
+      </c>
+      <c r="F8" s="3">
         <v>907000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1308000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1302000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1454000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1371000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1503000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1418000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1535000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1445000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1496000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1330000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1411000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1260000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1316000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1309000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>912000</v>
+        <v>1084000</v>
       </c>
       <c r="E9" s="3">
+        <v>961000</v>
+      </c>
+      <c r="F9" s="3">
+        <v>917000</v>
+      </c>
+      <c r="G9" s="3">
         <v>1182000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1170000</v>
       </c>
-      <c r="G9" s="3">
-        <v>1284000</v>
-      </c>
-      <c r="H9" s="3">
-        <v>1255000</v>
-      </c>
       <c r="I9" s="3">
+        <v>1270000</v>
+      </c>
+      <c r="J9" s="3">
+        <v>1256000</v>
+      </c>
+      <c r="K9" s="3">
         <v>1319000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1216000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1307000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1295000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1269000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1153000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1184000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1106000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1110000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1108000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>-5000</v>
+        <v>79000</v>
       </c>
       <c r="E10" s="3">
+        <v>131000</v>
+      </c>
+      <c r="F10" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="G10" s="3">
         <v>126000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>132000</v>
-      </c>
-      <c r="G10" s="3">
-        <v>170000</v>
-      </c>
-      <c r="H10" s="3">
-        <v>116000</v>
       </c>
       <c r="I10" s="3">
         <v>184000</v>
       </c>
       <c r="J10" s="3">
+        <v>115000</v>
+      </c>
+      <c r="K10" s="3">
+        <v>184000</v>
+      </c>
+      <c r="L10" s="3">
         <v>202000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>228000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>150000</v>
-      </c>
-      <c r="M10" s="3">
-        <v>227000</v>
-      </c>
-      <c r="N10" s="3">
-        <v>177000</v>
       </c>
       <c r="O10" s="3">
         <v>227000</v>
       </c>
       <c r="P10" s="3">
+        <v>177000</v>
+      </c>
+      <c r="Q10" s="3">
+        <v>227000</v>
+      </c>
+      <c r="R10" s="3">
         <v>154000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="S10" s="3">
         <v>206000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="T10" s="3">
         <v>201000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +947,10 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +1002,14 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,61 +1061,73 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>-17000</v>
+        <v>-23000</v>
       </c>
       <c r="E14" s="3">
+        <v>49000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-22000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H14" s="3">
         <v>-25000</v>
       </c>
-      <c r="G14" s="3">
-        <v>-37000</v>
-      </c>
-      <c r="H14" s="3">
-        <v>-19000</v>
-      </c>
       <c r="I14" s="3">
-        <v>-29000</v>
+        <v>-23000</v>
       </c>
       <c r="J14" s="3">
         <v>-20000</v>
       </c>
       <c r="K14" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="L14" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="M14" s="3">
         <v>-14000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-25000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-25000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-32000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-20000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-16000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-26000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1134,8 +1179,14 @@
       <c r="S15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T15" s="3">
+        <v>0</v>
+      </c>
+      <c r="U15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1203,128 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1147000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1136000</v>
+      </c>
+      <c r="F17" s="3">
         <v>979000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1285000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1247000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1357000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1325000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1386000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1295000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1400000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1361000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1342000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1214000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1260000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1170000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1174000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1166000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-44000</v>
+      </c>
+      <c r="F18" s="3">
         <v>-72000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>23000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>55000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>97000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>46000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>117000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>123000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>135000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>84000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>154000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>116000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>151000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>90000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>142000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>143000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,114 +1344,128 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-34000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-21000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-24000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-23000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-20000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-18000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-28000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="J20" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="K20" s="3">
-        <v>-14000</v>
       </c>
       <c r="L20" s="3">
         <v>-17000</v>
       </c>
       <c r="M20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="N20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="O20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-15000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-15000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-16000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-24000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-25000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>81000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>37000</v>
+      </c>
+      <c r="F21" s="3">
         <v>-5000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>97000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>129000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>172000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>107000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>185000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>192000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>214000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>154000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>222000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>181000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>219000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>150000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>198000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>201000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1399,32 +1478,32 @@
       <c r="F22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="3">
+      <c r="G22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I22" s="3">
         <v>2000</v>
       </c>
-      <c r="H22" s="3">
-        <v>0</v>
-      </c>
-      <c r="I22" s="3">
-        <v>0</v>
-      </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3">
         <v>1000</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>1000</v>
-      </c>
-      <c r="N22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P22" s="3" t="s">
         <v>8</v>
@@ -1438,114 +1517,132 @@
       <c r="S22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-65000</v>
+      </c>
+      <c r="F23" s="3">
         <v>-96000</v>
       </c>
-      <c r="E23" s="3">
-        <v>0</v>
-      </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
+        <v>0</v>
+      </c>
+      <c r="H23" s="3">
         <v>35000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>77000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>97000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>106000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>121000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>66000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>133000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>101000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>136000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>74000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>118000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>118000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>23000</v>
+      </c>
+      <c r="F24" s="3">
         <v>-23000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-2000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>11000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>27000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>10000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>25000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>25000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>14000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>15000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>31000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>38000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>34000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>16000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>30000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>28000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1694,132 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="F26" s="3">
         <v>-73000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>2000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>24000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>50000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>8000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>72000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>81000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>107000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>51000</v>
-      </c>
-      <c r="M26" s="3">
-        <v>102000</v>
-      </c>
-      <c r="N26" s="3">
-        <v>63000</v>
       </c>
       <c r="O26" s="3">
         <v>102000</v>
       </c>
       <c r="P26" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Q26" s="3">
+        <v>102000</v>
+      </c>
+      <c r="R26" s="3">
         <v>58000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>88000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>90000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="F27" s="3">
         <v>-73000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>2000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>24000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>50000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>8000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>72000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>81000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>107000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>51000</v>
-      </c>
-      <c r="M27" s="3">
-        <v>102000</v>
-      </c>
-      <c r="N27" s="3">
-        <v>63000</v>
       </c>
       <c r="O27" s="3">
         <v>102000</v>
       </c>
       <c r="P27" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>102000</v>
+      </c>
+      <c r="R27" s="3">
         <v>58000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>88000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>90000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1871,14 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1809,8 +1930,14 @@
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1989,14 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +2048,132 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>21000</v>
+      </c>
+      <c r="F32" s="3">
         <v>24000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>23000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>20000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>18000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>28000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>20000</v>
-      </c>
-      <c r="J32" s="3">
-        <v>17000</v>
-      </c>
-      <c r="K32" s="3">
-        <v>14000</v>
       </c>
       <c r="L32" s="3">
         <v>17000</v>
       </c>
       <c r="M32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="N32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="O32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>15000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>15000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>16000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>24000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>25000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="F33" s="3">
         <v>-73000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>2000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>24000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>50000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>8000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>72000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>81000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>107000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>51000</v>
-      </c>
-      <c r="M33" s="3">
-        <v>102000</v>
-      </c>
-      <c r="N33" s="3">
-        <v>63000</v>
       </c>
       <c r="O33" s="3">
         <v>102000</v>
       </c>
       <c r="P33" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>102000</v>
+      </c>
+      <c r="R33" s="3">
         <v>58000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>88000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>90000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2225,137 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="F35" s="3">
         <v>-73000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>2000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>24000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>50000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>8000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>72000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>81000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>107000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>51000</v>
-      </c>
-      <c r="M35" s="3">
-        <v>102000</v>
-      </c>
-      <c r="N35" s="3">
-        <v>63000</v>
       </c>
       <c r="O35" s="3">
         <v>102000</v>
       </c>
       <c r="P35" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>102000</v>
+      </c>
+      <c r="R35" s="3">
         <v>58000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>88000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>90000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2375,10 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2398,69 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>410000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>279000</v>
+      </c>
+      <c r="F41" s="3">
         <v>190000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>268000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>270000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>393000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>226000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>720000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>350000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>363000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>317000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>459000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>618000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>550000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>446000</v>
-      </c>
-      <c r="Q41" s="3">
-        <v>703000</v>
-      </c>
-      <c r="R41" s="3">
-        <v>681000</v>
       </c>
       <c r="S41" s="3">
         <v>703000</v>
       </c>
-    </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T41" s="3">
+        <v>681000</v>
+      </c>
+      <c r="U41" s="3">
+        <v>703000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2333,379 +2512,427 @@
       <c r="S42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T42" s="3">
+        <v>0</v>
+      </c>
+      <c r="U42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>587000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>603000</v>
+      </c>
+      <c r="F43" s="3">
         <v>575000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>702000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>708000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>729000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>721000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>748000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>716000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>779000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>718000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>742000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>663000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>680000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>626000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>588000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>571000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>767000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>673000</v>
+      </c>
+      <c r="F44" s="3">
         <v>731000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>765000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>782000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>709000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>780000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>804000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>828000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>741000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>735000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>752000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>697000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>636000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>676000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>652000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>647000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>7000</v>
+        <v>9000</v>
       </c>
       <c r="E45" s="3">
         <v>9000</v>
       </c>
       <c r="F45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="G45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H45" s="3">
         <v>11000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>3000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="K45" s="3">
         <v>6000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>9000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>21000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>8000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>18000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>26000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>62000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>69000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1773000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1564000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1503000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1744000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1771000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1834000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1740000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>2278000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1903000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1904000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1778000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1971000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2004000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1869000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1756000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2005000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1968000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>12000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F47" s="3">
         <v>20000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="G47" s="3">
         <v>30000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="H47" s="3">
         <v>34000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="I47" s="3">
         <v>31000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>33000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>32000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>32000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>33000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>34000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>38000</v>
-      </c>
-      <c r="N47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O47" s="3">
-        <v>26000</v>
       </c>
       <c r="P47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3" t="s">
-        <v>8</v>
+      <c r="Q47" s="3">
+        <v>26000</v>
       </c>
       <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S47" s="3">
+      <c r="S47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3951000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3623000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3530000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3537000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3887000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3512000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3577000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3456000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3465000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3476000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3407000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3542000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3324000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3139000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3014000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>2884000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>2849000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>122000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>113000</v>
+      </c>
+      <c r="F49" s="3">
         <v>109000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>81000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>82000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>54000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>57000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>60000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>62000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>63000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>87000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>94000</v>
-      </c>
-      <c r="N49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="O49" s="3">
-        <v>39000</v>
       </c>
       <c r="P49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3" t="s">
-        <v>8</v>
+      <c r="Q49" s="3">
+        <v>39000</v>
       </c>
       <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S49" s="3">
+      <c r="S49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2984,14 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +3043,73 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>144000</v>
+      </c>
+      <c r="F52" s="3">
         <v>210000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>196000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>200000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>192000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>207000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>199000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>194000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>194000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>161000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>163000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>221000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>174000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>248000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>229000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>228000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3161,73 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6012000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>5455000</v>
+      </c>
+      <c r="F54" s="3">
         <v>5372000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>5588000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>5974000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>5623000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5614000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6025000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5656000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5670000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5467000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5808000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5549000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5247000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5018000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5118000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5045000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3247,10 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,326 +3270,364 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>865000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>797000</v>
+      </c>
+      <c r="F57" s="3">
         <v>675000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>870000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>883000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>969000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>838000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>870000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>954000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>1009000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>916000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>908000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>828000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>858000</v>
-      </c>
-      <c r="P57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Q57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S57" s="3">
+      <c r="S57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="U57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>333000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>294000</v>
+      </c>
+      <c r="F58" s="3">
         <v>314000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>217000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>211000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>181000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>192000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>641000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>129000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>113000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>104000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>151000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>136000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>133000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>129000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>549000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>546000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>65000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F59" s="3">
         <v>44000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>57000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>46000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>64000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>52000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>45000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>152000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>51000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>61000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>57000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>176000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>52000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>821000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>753000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>807000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1123000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1033000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1144000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1140000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1214000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1082000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1556000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1235000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1173000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1081000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1116000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1140000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1043000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>950000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1302000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1353000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2133000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1942000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1853000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>1930000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>1975000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>1713000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1762000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1759000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1778000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1818000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1816000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1940000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1831000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1739000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1635000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1483000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1473000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>826000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>758000</v>
+      </c>
+      <c r="F62" s="3">
         <v>705000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>687000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>788000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>748000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>737000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>723000</v>
-      </c>
-      <c r="J62" s="3">
-        <v>728000</v>
-      </c>
-      <c r="K62" s="3">
-        <v>732000</v>
       </c>
       <c r="L62" s="3">
         <v>728000</v>
       </c>
       <c r="M62" s="3">
+        <v>732000</v>
+      </c>
+      <c r="N62" s="3">
+        <v>728000</v>
+      </c>
+      <c r="O62" s="3">
         <v>784000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>757000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>718000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>806000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>782000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>777000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3679,14 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3738,14 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3797,73 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4222000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3823000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3591000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>3761000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>3903000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>3675000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3581000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4038000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3741000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3723000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3625000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3840000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3728000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3500000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3391000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3567000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3603000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3883,10 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3938,14 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,8 +3997,14 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3721,8 +4056,14 @@
       <c r="S70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T70" s="3">
+        <v>0</v>
+      </c>
+      <c r="U70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,8 +4115,14 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -3827,8 +4174,14 @@
       <c r="S72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T72" s="3">
+        <v>0</v>
+      </c>
+      <c r="U72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4233,14 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4292,14 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4351,73 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1790000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1632000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1781000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1827000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>2071000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1948000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>2033000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1987000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1915000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1947000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1842000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1968000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1821000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1747000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1627000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1551000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1442000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4469,137 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-88000</v>
+      </c>
+      <c r="F81" s="3">
         <v>-73000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>2000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>24000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>50000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>8000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>72000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>81000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>107000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>51000</v>
-      </c>
-      <c r="M81" s="3">
-        <v>102000</v>
-      </c>
-      <c r="N81" s="3">
-        <v>63000</v>
       </c>
       <c r="O81" s="3">
         <v>102000</v>
       </c>
       <c r="P81" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>102000</v>
+      </c>
+      <c r="R81" s="3">
         <v>58000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>88000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>90000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4619,69 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>102000</v>
+      </c>
+      <c r="F83" s="3">
         <v>91000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>97000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>94000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>93000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>89000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>88000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>86000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>93000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>87000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>88000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>80000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>83000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>76000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>80000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>83000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4733,14 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4792,14 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4851,14 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4910,14 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4969,73 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>89000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>180000</v>
+      </c>
+      <c r="F89" s="3">
         <v>11000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>74000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>-5000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>306000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>118000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-53000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>102000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>171000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>147000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>13000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>79000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>249000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>116000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>62000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>54000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +5055,69 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>130000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-74000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-70000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-112000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>188000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-135000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-95000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-106000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>228000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-188000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-119000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-88000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>149000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-78000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-45000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-37000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +5169,14 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5228,73 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-89000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-92000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-78000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-74000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-273000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-133000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-135000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-95000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-109000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-145000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-188000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-238000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-93000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-208000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-86000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-42000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-37000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5314,10 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4902,8 +5369,14 @@
       <c r="S96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T96" s="3">
+        <v>0</v>
+      </c>
+      <c r="U96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5428,14 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5487,14 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,163 +5546,187 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-7000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>4000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>147000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>12000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-489000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>531000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>2000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>21000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-71000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>60000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>58000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>51000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-314000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>-10000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>-6000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-6000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>8000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-18000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-13000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>-8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-1000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-30000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>24000</v>
-      </c>
-      <c r="O101" s="3">
-        <v>12000</v>
-      </c>
-      <c r="P101" s="3">
-        <v>27000</v>
       </c>
       <c r="Q101" s="3">
         <v>12000</v>
       </c>
       <c r="R101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="S101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="T101" s="3">
         <v>-33000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>131000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-78000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-2000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-123000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>167000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-494000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>370000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-13000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>46000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-142000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-159000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>68000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>104000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-257000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>22000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-22000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1284000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1163000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1092000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>907000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1308000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1302000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1454000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1371000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1503000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1418000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1535000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1445000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1496000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1330000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1411000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1260000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1316000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1309000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1181000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1084000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>961000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>917000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1182000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1170000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1270000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1256000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1319000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1216000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1307000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1295000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1269000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1153000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1184000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1106000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1110000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1108000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>103000</v>
+      </c>
+      <c r="E10" s="3">
         <v>79000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>131000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>-10000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>126000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>132000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>184000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>115000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>184000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>202000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>228000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>150000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>227000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>177000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>227000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>154000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>206000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>201000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,67 +1084,73 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-23000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>49000</v>
-      </c>
-      <c r="F14" s="3">
-        <v>-22000</v>
       </c>
       <c r="G14" s="3">
         <v>-22000</v>
       </c>
       <c r="H14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I14" s="3">
         <v>-25000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-20000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-29000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-20000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-14000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-25000</v>
       </c>
       <c r="O14" s="3">
         <v>-25000</v>
       </c>
       <c r="P14" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-32000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-20000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-17000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-16000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-26000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1185,8 +1208,11 @@
       <c r="U15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1265000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1147000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1136000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>979000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1285000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1247000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1357000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1325000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1386000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1295000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1400000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1361000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1342000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1214000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1260000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1170000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1174000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1166000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E18" s="3">
         <v>16000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-44000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-72000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>23000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>55000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>97000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>46000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>117000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>123000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>135000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>84000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>154000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>116000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>151000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>90000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>142000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>143000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,126 +1379,133 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-46000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-34000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-21000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-24000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-23000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-20000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-18000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-28000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-17000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-14000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-17000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="P20" s="3">
-        <v>-15000</v>
       </c>
       <c r="Q20" s="3">
         <v>-15000</v>
       </c>
       <c r="R20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-16000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-24000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-25000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>72000</v>
+      </c>
+      <c r="E21" s="3">
         <v>81000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>37000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-5000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>97000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>129000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>172000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>107000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>185000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>192000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>214000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>154000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>222000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>181000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>219000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>150000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>198000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>201000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1484,29 +1524,29 @@
       <c r="H22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I22" s="3">
+      <c r="I22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J22" s="3">
         <v>2000</v>
       </c>
-      <c r="J22" s="3">
-        <v>0</v>
-      </c>
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="3">
+        <v>0</v>
+      </c>
+      <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
       <c r="N22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="O22" s="3">
         <v>1000</v>
       </c>
-      <c r="P22" s="3" t="s">
-        <v>8</v>
+      <c r="P22" s="3">
+        <v>1000</v>
       </c>
       <c r="Q22" s="3" t="s">
         <v>8</v>
@@ -1523,126 +1563,135 @@
       <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-18000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-65000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-96000</v>
       </c>
-      <c r="G23" s="3">
-        <v>0</v>
-      </c>
       <c r="H23" s="3">
+        <v>0</v>
+      </c>
+      <c r="I23" s="3">
         <v>35000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>77000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>97000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>106000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>121000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>66000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>133000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>101000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>136000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>74000</v>
-      </c>
-      <c r="S23" s="3">
-        <v>118000</v>
       </c>
       <c r="T23" s="3">
         <v>118000</v>
       </c>
       <c r="U23" s="3">
+        <v>118000</v>
+      </c>
+      <c r="V23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>23000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-23000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-2000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>11000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>27000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>10000</v>
-      </c>
-      <c r="K24" s="3">
-        <v>25000</v>
       </c>
       <c r="L24" s="3">
         <v>25000</v>
       </c>
       <c r="M24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="N24" s="3">
         <v>14000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>15000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>31000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>38000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>34000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>16000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>30000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>28000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-17000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-88000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-73000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>2000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>24000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>50000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>8000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>72000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>81000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>107000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>51000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>102000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>63000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>102000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>58000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>88000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>90000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-88000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-73000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>2000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>24000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>50000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>72000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>81000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>107000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>51000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>102000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>63000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>102000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>58000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>88000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>90000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,8 +1935,11 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1936,8 +1997,11 @@
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>46000</v>
+      </c>
+      <c r="E32" s="3">
         <v>34000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>21000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>24000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>23000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>20000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>18000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>28000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>17000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>14000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>17000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
-      </c>
-      <c r="P32" s="3">
-        <v>15000</v>
       </c>
       <c r="Q32" s="3">
         <v>15000</v>
       </c>
       <c r="R32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="S32" s="3">
         <v>16000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>24000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>25000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-88000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-73000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>2000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>24000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>50000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>8000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>72000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>81000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>107000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>51000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>102000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>63000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>102000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>58000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>88000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>90000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-88000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-73000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>2000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>24000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>50000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>8000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>72000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>81000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>107000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>51000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>102000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>63000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>102000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>58000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>88000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>90000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,67 +2486,71 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>350000</v>
+      </c>
+      <c r="E41" s="3">
         <v>410000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>279000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>190000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>268000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>270000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>393000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>226000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>720000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>350000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>363000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>317000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>459000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>618000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>550000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>446000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>703000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>681000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2518,126 +2608,135 @@
       <c r="U42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>679000</v>
+      </c>
+      <c r="E43" s="3">
         <v>587000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>603000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>575000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>702000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>708000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>729000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>721000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>748000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>716000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>779000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>718000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>742000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>663000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>680000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>626000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>588000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>571000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>762000</v>
+      </c>
+      <c r="E44" s="3">
         <v>767000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>673000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>731000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>765000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>782000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>709000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>780000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>804000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>828000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>741000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>735000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>752000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>697000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>636000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>676000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>652000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>647000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2648,161 +2747,167 @@
         <v>9000</v>
       </c>
       <c r="F45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G45" s="3">
         <v>7000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>11000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>3000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>13000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>6000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>21000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>8000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>18000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>26000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>62000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>69000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1800000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1773000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1564000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1503000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1744000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1771000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1834000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1740000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>2278000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1903000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1904000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1778000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1971000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2004000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1869000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1756000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2005000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1968000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E47" s="3">
         <v>12000</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>11000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>20000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>30000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>34000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>31000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>33000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>32000</v>
       </c>
       <c r="L47" s="3">
         <v>32000</v>
       </c>
       <c r="M47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="N47" s="3">
         <v>33000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>34000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>38000</v>
       </c>
-      <c r="P47" s="3" t="s">
+      <c r="Q47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>26000</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S47" s="3" t="s">
         <v>8</v>
@@ -2810,117 +2915,123 @@
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
+      <c r="U47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3865000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3951000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3623000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3530000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3537000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3887000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3512000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3577000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3456000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3465000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3476000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3407000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3542000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3324000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3139000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3014000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>2884000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2849000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>119000</v>
+      </c>
+      <c r="E49" s="3">
         <v>122000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>113000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>109000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>81000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>82000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>54000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>57000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>60000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>62000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>63000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>87000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>94000</v>
       </c>
-      <c r="P49" s="3" t="s">
+      <c r="Q49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>39000</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S49" s="3" t="s">
         <v>8</v>
@@ -2928,11 +3039,14 @@
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="U49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>226000</v>
+      </c>
+      <c r="E52" s="3">
         <v>154000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>144000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>210000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>196000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>200000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>192000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>207000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>199000</v>
-      </c>
-      <c r="L52" s="3">
-        <v>194000</v>
       </c>
       <c r="M52" s="3">
         <v>194000</v>
       </c>
       <c r="N52" s="3">
+        <v>194000</v>
+      </c>
+      <c r="O52" s="3">
         <v>161000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>163000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>221000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>174000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>248000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>229000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>228000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6021000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6012000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>5455000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5372000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5588000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5974000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5623000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5614000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6025000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5656000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5670000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5467000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5808000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5549000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5247000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5018000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5118000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5045000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,55 +3402,56 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>899000</v>
+      </c>
+      <c r="E57" s="3">
         <v>865000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>797000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>675000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>870000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>883000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>969000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>838000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>870000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>954000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1009000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>916000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>908000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>828000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>858000</v>
-      </c>
-      <c r="R57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S57" s="3" t="s">
         <v>8</v>
@@ -3328,306 +3459,324 @@
       <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U57" s="3">
+      <c r="U57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="V57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>268000</v>
+      </c>
+      <c r="E58" s="3">
         <v>333000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>294000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>314000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>217000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>211000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>181000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>192000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>641000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>129000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>113000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>104000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>151000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>136000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>133000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>129000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>549000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>546000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>30000</v>
+      </c>
+      <c r="E59" s="3">
         <v>65000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>32000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>44000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>57000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>46000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>64000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>52000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>45000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>152000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>51000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>61000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>176000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>52000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>821000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>753000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>807000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1197000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1263000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1123000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1033000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1144000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1140000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1214000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1082000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1556000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1235000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1173000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1081000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1116000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1043000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>950000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1302000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1353000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2152000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2133000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1942000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1853000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1930000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1975000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1713000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1762000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1759000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1778000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1818000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1816000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1940000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1831000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1739000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1635000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1483000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1473000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>783000</v>
+      </c>
+      <c r="E62" s="3">
         <v>826000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>758000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>705000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>687000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>788000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>748000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>737000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>723000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>728000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>732000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>728000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>784000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>757000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>718000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>806000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>782000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>777000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4132000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4222000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3823000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3591000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3761000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3903000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3675000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3581000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4038000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3741000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3723000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3625000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3840000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3728000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3500000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3391000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3567000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3603000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4062,8 +4230,11 @@
       <c r="U70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,8 +4292,11 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -4180,8 +4354,11 @@
       <c r="U72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1889000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1790000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1632000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1781000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1827000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2071000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1948000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>2033000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1987000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1915000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1947000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1842000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1968000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1821000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1747000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1627000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1551000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1442000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-88000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-73000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>2000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>24000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>50000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>8000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>72000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>81000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>107000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>51000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>102000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>63000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>102000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>58000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>88000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>90000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,8 +4819,9 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -4630,58 +4829,61 @@
         <v>99000</v>
       </c>
       <c r="E83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="F83" s="3">
         <v>102000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>91000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>97000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>94000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>93000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>89000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>88000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>86000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>93000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>87000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>88000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>80000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>83000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>76000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>80000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>83000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E89" s="3">
         <v>89000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>180000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>11000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>74000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-5000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>306000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>118000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-53000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>102000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>171000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>147000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>13000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>79000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>249000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>116000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>62000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>54000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-70000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-82000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>130000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-74000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-112000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>188000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-135000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-95000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-106000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>228000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-188000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-119000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-88000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>149000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-78000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-45000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-37000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-66000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-89000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-92000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-78000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-74000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-273000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-133000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-135000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-95000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-109000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-145000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-188000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-238000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-93000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-208000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-86000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-42000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-37000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5375,8 +5609,11 @@
       <c r="U96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>104000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-6000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-7000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>147000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>12000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-489000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>531000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>2000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>21000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-71000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>60000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>58000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>51000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-314000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-10000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-12000</v>
+      </c>
+      <c r="E101" s="3">
         <v>27000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-6000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>8000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-18000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>12000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-13000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-1000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-30000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>24000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>12000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>27000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-33000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-60000</v>
+      </c>
+      <c r="E102" s="3">
         <v>131000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>89000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-78000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-2000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-123000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>167000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-494000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>370000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-13000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>46000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-142000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-159000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>68000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>104000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-257000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>22000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-22000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1284000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1163000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1092000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>907000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1308000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1302000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1454000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1371000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1503000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1418000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1535000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1445000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1496000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1330000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1411000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1260000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1316000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1309000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1263000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1181000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1084000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>961000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>917000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1182000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1170000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1270000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1256000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1319000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1216000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1307000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1295000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1269000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1153000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1184000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1106000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1110000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1108000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>130000</v>
+      </c>
+      <c r="E10" s="3">
         <v>103000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>79000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>131000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>-10000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>126000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>132000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>184000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>115000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>184000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>202000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>228000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>150000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>227000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>177000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>227000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>154000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>206000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>201000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,70 +1104,76 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-10000</v>
+      </c>
+      <c r="E14" s="3">
         <v>-18000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>-23000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>49000</v>
-      </c>
-      <c r="G14" s="3">
-        <v>-22000</v>
       </c>
       <c r="H14" s="3">
         <v>-22000</v>
       </c>
       <c r="I14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="J14" s="3">
         <v>-25000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-20000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-29000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-20000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-14000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-25000</v>
       </c>
       <c r="P14" s="3">
         <v>-25000</v>
       </c>
       <c r="Q14" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="R14" s="3">
         <v>-32000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-20000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-17000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-16000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-26000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1211,8 +1234,11 @@
       <c r="V15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1340000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1265000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1147000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1136000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>979000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1285000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1247000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1357000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1325000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1386000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1295000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1400000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1361000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1342000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1214000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1260000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1170000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1174000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1166000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>53000</v>
+      </c>
+      <c r="E18" s="3">
         <v>19000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>16000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-44000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>-72000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>23000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>55000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>97000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>46000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>117000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>123000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>135000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>84000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>154000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>116000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>151000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>90000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>142000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>143000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,132 +1413,139 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-46000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-34000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-21000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-24000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-23000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-20000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-18000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-17000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-14000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-17000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>-15000</v>
       </c>
       <c r="R20" s="3">
         <v>-15000</v>
       </c>
       <c r="S20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="T20" s="3">
         <v>-16000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-24000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-25000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E21" s="3">
         <v>72000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>81000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>37000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>-5000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>97000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>129000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>172000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>107000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>185000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>192000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>214000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>154000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>222000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>181000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>219000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>150000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>198000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>201000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1527,29 +1567,29 @@
       <c r="I22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="K22" s="3">
         <v>2000</v>
       </c>
-      <c r="K22" s="3">
-        <v>0</v>
-      </c>
       <c r="L22" s="3">
         <v>0</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="3">
+        <v>0</v>
+      </c>
+      <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3" t="s">
-        <v>8</v>
+      <c r="Q22" s="3">
+        <v>1000</v>
       </c>
       <c r="R22" s="3" t="s">
         <v>8</v>
@@ -1566,132 +1606,141 @@
       <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>25000</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-18000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-65000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-96000</v>
       </c>
-      <c r="H23" s="3">
-        <v>0</v>
-      </c>
       <c r="I23" s="3">
+        <v>0</v>
+      </c>
+      <c r="J23" s="3">
         <v>35000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>77000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>97000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>106000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>121000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>66000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>133000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>101000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>136000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>74000</v>
-      </c>
-      <c r="T23" s="3">
-        <v>118000</v>
       </c>
       <c r="U23" s="3">
         <v>118000</v>
       </c>
       <c r="V23" s="3">
+        <v>118000</v>
+      </c>
+      <c r="W23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E24" s="3">
         <v>-4000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-1000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>23000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-23000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-2000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>11000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>27000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>10000</v>
-      </c>
-      <c r="L24" s="3">
-        <v>25000</v>
       </c>
       <c r="M24" s="3">
         <v>25000</v>
       </c>
       <c r="N24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="O24" s="3">
         <v>14000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>15000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>31000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>38000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>34000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>16000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>30000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>28000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E26" s="3">
         <v>-23000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-17000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-88000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-73000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>2000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>24000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>50000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>8000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>72000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>81000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>107000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>51000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>102000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>63000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>102000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>58000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>88000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>90000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-88000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-73000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>2000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>24000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>50000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>72000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>81000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>107000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>51000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>102000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>63000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>102000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>58000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>88000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>90000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,8 +1996,11 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2000,8 +2061,11 @@
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>28000</v>
+      </c>
+      <c r="E32" s="3">
         <v>46000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>34000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>21000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>24000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>23000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>20000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>18000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>17000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>14000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>17000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>15000</v>
       </c>
       <c r="R32" s="3">
         <v>15000</v>
       </c>
       <c r="S32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="T32" s="3">
         <v>16000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>24000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>25000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E33" s="3">
         <v>-23000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-88000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-73000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>2000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>24000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>50000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>8000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>72000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>81000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>107000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>51000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>102000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>63000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>102000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>58000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>88000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>90000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E35" s="3">
         <v>-23000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-88000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-73000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>2000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>24000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>50000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>8000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>72000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>81000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>107000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>51000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>102000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>63000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>102000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>58000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>88000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>90000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,70 +2573,74 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>405000</v>
+      </c>
+      <c r="E41" s="3">
         <v>350000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>410000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>279000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>190000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>268000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>270000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>393000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>226000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>720000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>350000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>363000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>317000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>459000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>618000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>550000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>446000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>703000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>681000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2611,137 +2701,146 @@
       <c r="V42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>709000</v>
+      </c>
+      <c r="E43" s="3">
         <v>679000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>587000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>603000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>575000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>702000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>708000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>729000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>721000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>748000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>716000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>779000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>718000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>742000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>663000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>680000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>626000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>588000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>571000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>784000</v>
+      </c>
+      <c r="E44" s="3">
         <v>762000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>767000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>673000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>731000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>765000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>782000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>709000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>780000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>804000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>828000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>741000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>735000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>752000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>697000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>636000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>676000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>652000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>647000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>9000</v>
+        <v>16000</v>
       </c>
       <c r="E45" s="3">
         <v>9000</v>
@@ -2750,117 +2849,123 @@
         <v>9000</v>
       </c>
       <c r="G45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H45" s="3">
         <v>7000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>11000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>3000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>13000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>6000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>21000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>8000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>18000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>26000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>62000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>69000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1914000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1800000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1773000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1564000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1503000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1744000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1771000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1834000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1740000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2278000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1903000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1904000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1778000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1971000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2004000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1869000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1756000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2005000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1968000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -2868,49 +2973,49 @@
         <v>11000</v>
       </c>
       <c r="E47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="F47" s="3">
         <v>12000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>11000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>20000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>30000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>34000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>31000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>33000</v>
-      </c>
-      <c r="L47" s="3">
-        <v>32000</v>
       </c>
       <c r="M47" s="3">
         <v>32000</v>
       </c>
       <c r="N47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="O47" s="3">
         <v>33000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>34000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>38000</v>
       </c>
-      <c r="Q47" s="3" t="s">
+      <c r="R47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>26000</v>
-      </c>
-      <c r="S47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
@@ -2918,123 +3023,129 @@
       <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
+      <c r="V47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3978000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3865000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3951000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3623000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3530000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3537000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3887000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3512000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3577000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3456000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3465000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3476000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3407000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3542000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3324000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3139000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3014000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>2884000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>2849000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>115000</v>
+      </c>
+      <c r="E49" s="3">
         <v>119000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>122000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>113000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>109000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>81000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>82000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>54000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>57000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>60000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>62000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>63000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>87000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>94000</v>
       </c>
-      <c r="Q49" s="3" t="s">
+      <c r="R49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>39000</v>
-      </c>
-      <c r="S49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
@@ -3042,11 +3153,14 @@
       <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="V49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>228000</v>
+      </c>
+      <c r="E52" s="3">
         <v>226000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>154000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>144000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>210000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>196000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>200000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>192000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>207000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>199000</v>
-      </c>
-      <c r="M52" s="3">
-        <v>194000</v>
       </c>
       <c r="N52" s="3">
         <v>194000</v>
       </c>
       <c r="O52" s="3">
+        <v>194000</v>
+      </c>
+      <c r="P52" s="3">
         <v>161000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>163000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>221000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>174000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>248000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>229000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>228000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6246000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6021000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6012000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>5455000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>5372000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>5588000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5974000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5623000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5614000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6025000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5656000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5670000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5467000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5808000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5549000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5247000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5018000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5118000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5045000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,58 +3533,59 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>991000</v>
+      </c>
+      <c r="E57" s="3">
         <v>899000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>865000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>797000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>675000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>870000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>883000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>969000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>838000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>870000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>954000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>1009000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>916000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>908000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>828000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>858000</v>
-      </c>
-      <c r="S57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>8</v>
@@ -3462,321 +3593,339 @@
       <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V57" s="3">
+      <c r="V57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="W57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>270000</v>
+      </c>
+      <c r="E58" s="3">
         <v>268000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>333000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>294000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>314000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>217000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>211000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>181000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>192000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>641000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>129000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>113000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>104000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>151000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>136000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>133000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>129000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>549000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>546000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="E59" s="3">
         <v>30000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>65000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>32000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>44000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>57000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>46000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>64000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>52000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>45000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>152000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>51000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>61000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>57000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>176000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>52000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>821000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>753000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>807000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1283000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1197000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1263000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1123000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1033000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1144000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1140000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1214000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1082000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1556000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1235000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1173000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1081000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1116000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1140000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1043000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>950000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1302000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1353000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2190000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2152000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2133000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1942000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1853000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>1930000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1975000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1713000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1762000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1759000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1778000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1818000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1816000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1940000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1831000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1739000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1635000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1483000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1473000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>791000</v>
+      </c>
+      <c r="E62" s="3">
         <v>783000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>826000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>758000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>705000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>687000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>788000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>748000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>737000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>723000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>728000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>732000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>728000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>784000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>757000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>718000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>806000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>782000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>777000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4264000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4132000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4222000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3823000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3591000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>3761000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3903000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3675000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3581000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4038000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3741000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3723000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3625000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3840000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3728000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3500000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3391000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3567000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3603000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,8 +4336,11 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4233,8 +4401,11 @@
       <c r="V70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,31 +4466,34 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
-        <v>0</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0</v>
-      </c>
-      <c r="G72" s="3">
-        <v>0</v>
-      </c>
-      <c r="H72" s="3">
-        <v>0</v>
-      </c>
-      <c r="I72" s="3">
-        <v>0</v>
-      </c>
-      <c r="J72" s="3">
-        <v>0</v>
+        <v>1180000</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K72" s="3">
         <v>0</v>
@@ -4357,8 +4531,11 @@
       <c r="V72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1982000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1889000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1790000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1632000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1781000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1827000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>2071000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1948000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>2033000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1987000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1915000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1947000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1842000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1968000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1821000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1747000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1627000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1551000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1442000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>18000</v>
+      </c>
+      <c r="E81" s="3">
         <v>-23000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-88000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-73000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>2000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>24000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>50000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>8000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>72000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>81000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>107000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>51000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>102000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>63000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>102000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>58000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>88000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>90000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
-        <v>99000</v>
+        <v>98000</v>
       </c>
       <c r="E83" s="3">
         <v>99000</v>
       </c>
       <c r="F83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="G83" s="3">
         <v>102000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>91000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>97000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>94000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>93000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>89000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>88000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>86000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>87000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>88000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>80000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>83000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>76000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>80000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>83000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>129000</v>
+      </c>
+      <c r="E89" s="3">
         <v>13000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>89000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>180000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>11000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>74000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-5000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>306000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>118000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-53000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>102000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>171000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>147000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>13000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>79000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>249000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>116000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>62000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>54000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-79000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-70000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-82000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>130000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-74000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-70000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-112000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>188000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-135000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-95000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-106000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>228000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-188000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-119000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-88000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>149000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-78000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-45000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-37000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-80000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-66000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-89000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-92000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-78000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-74000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-273000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-133000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-135000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-95000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-109000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-145000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-188000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-238000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-93000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-208000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-86000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-42000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-37000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5612,8 +5846,11 @@
       <c r="V96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E100" s="3">
         <v>5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>104000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-6000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-7000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>4000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>147000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>12000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-489000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>531000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>2000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>21000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-71000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>60000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>58000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>51000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-314000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-10000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>11000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-12000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>27000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-4000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-6000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>8000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-18000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-13000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-1000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-30000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>24000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>27000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>12000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-33000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>55000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-60000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>131000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>89000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-78000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-2000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-123000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>167000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-494000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>370000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-13000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>46000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-142000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-159000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>68000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>104000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-257000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>22000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-22000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:W102"/>
+  <dimension ref="A5:Y102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,295 +665,320 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F7" s="2">
         <v>44377</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44286</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44196</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44104</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44012</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43921</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43830</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43738</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43646</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43555</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43465</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43373</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43281</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43190</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43100</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43008</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>42916</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>42825</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>42735</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1697000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1425000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1393000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1284000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1163000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1092000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>907000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1308000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1302000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1454000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>1371000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1503000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1418000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1535000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1445000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1496000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1330000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1411000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1260000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1316000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1309000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1449000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1175000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1263000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1181000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1084000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>961000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>917000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1182000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1170000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>1270000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>1256000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1319000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1216000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1307000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1295000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1269000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1153000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1184000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1106000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1110000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1108000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>248000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>250000</v>
+      </c>
+      <c r="F10" s="3">
         <v>130000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>103000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>79000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>131000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>-10000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>126000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>132000</v>
-      </c>
-      <c r="K10" s="3">
-        <v>184000</v>
-      </c>
-      <c r="L10" s="3">
-        <v>115000</v>
       </c>
       <c r="M10" s="3">
         <v>184000</v>
       </c>
       <c r="N10" s="3">
+        <v>115000</v>
+      </c>
+      <c r="O10" s="3">
+        <v>184000</v>
+      </c>
+      <c r="P10" s="3">
         <v>202000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>228000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>150000</v>
-      </c>
-      <c r="Q10" s="3">
-        <v>227000</v>
-      </c>
-      <c r="R10" s="3">
-        <v>177000</v>
       </c>
       <c r="S10" s="3">
         <v>227000</v>
       </c>
       <c r="T10" s="3">
+        <v>177000</v>
+      </c>
+      <c r="U10" s="3">
+        <v>227000</v>
+      </c>
+      <c r="V10" s="3">
         <v>154000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="W10" s="3">
         <v>206000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="X10" s="3">
         <v>201000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="Y10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -977,8 +1002,10 @@
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
       <c r="W11" s="3"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X11" s="3"/>
+      <c r="Y11" s="3"/>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1042,8 +1069,14 @@
       <c r="W12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1107,73 +1140,85 @@
       <c r="W13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X13" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E14" s="3">
+        <v>64000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-10000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-18000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-23000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>49000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-22000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-22000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-25000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>-23000</v>
-      </c>
-      <c r="L14" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="M14" s="3">
-        <v>-29000</v>
       </c>
       <c r="N14" s="3">
         <v>-20000</v>
       </c>
       <c r="O14" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="P14" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-14000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="S14" s="3">
         <v>-25000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="T14" s="3">
         <v>-32000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="U14" s="3">
         <v>-20000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-17000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-16000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-26000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1237,8 +1282,14 @@
       <c r="W15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
+      <c r="X15" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1259,138 +1310,152 @@
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
-    </row>
-    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X16" s="3"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1528000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1367000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1340000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1265000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1147000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1136000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>979000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1285000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1247000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1357000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>1325000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1386000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1295000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1400000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1361000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1342000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1214000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1260000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1170000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1174000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1166000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>169000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>58000</v>
+      </c>
+      <c r="F18" s="3">
         <v>53000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>19000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>16000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>-44000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>-72000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>23000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>55000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>97000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>46000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>117000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>123000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>135000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>84000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>154000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>116000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>151000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>90000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>142000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>143000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1414,138 +1479,152 @@
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
-    </row>
-    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X19" s="3"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="E20" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-28000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>-46000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>-34000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="I20" s="3">
         <v>-21000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>-24000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-23000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-20000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-18000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-28000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="N20" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="O20" s="3">
-        <v>-14000</v>
       </c>
       <c r="P20" s="3">
         <v>-17000</v>
       </c>
       <c r="Q20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="R20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="S20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="T20" s="3">
         <v>-15000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="U20" s="3">
         <v>-15000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="V20" s="3">
         <v>-16000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="W20" s="3">
         <v>-24000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-25000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>237000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>132000</v>
+      </c>
+      <c r="F21" s="3">
         <v>123000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>72000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>81000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>37000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>-5000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>97000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>129000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>172000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>107000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>185000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>192000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>214000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>154000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>222000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>181000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>219000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>150000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>198000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>201000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1570,32 +1649,32 @@
       <c r="J22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K22" s="3">
+      <c r="K22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="M22" s="3">
         <v>2000</v>
       </c>
-      <c r="L22" s="3">
-        <v>0</v>
-      </c>
-      <c r="M22" s="3">
-        <v>0</v>
-      </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="3">
+        <v>0</v>
+      </c>
+      <c r="O22" s="3">
+        <v>0</v>
+      </c>
+      <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3">
         <v>1000</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="S22" s="3">
         <v>1000</v>
-      </c>
-      <c r="R22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="T22" s="3" t="s">
         <v>8</v>
@@ -1609,138 +1688,156 @@
       <c r="W22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>142000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>32000</v>
+      </c>
+      <c r="F23" s="3">
         <v>25000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>-27000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>-18000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>-65000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>-96000</v>
       </c>
-      <c r="I23" s="3">
-        <v>0</v>
-      </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
+        <v>0</v>
+      </c>
+      <c r="L23" s="3">
         <v>35000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>77000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>97000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>106000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>121000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>66000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>133000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>101000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>136000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>74000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>118000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>118000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-3000</v>
+      </c>
+      <c r="F24" s="3">
         <v>7000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>-4000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>-1000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>23000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-23000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-2000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>11000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>27000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>10000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>25000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>25000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>14000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>15000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>31000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>38000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>34000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>16000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>30000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>28000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1804,138 +1901,156 @@
       <c r="W25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X25" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F26" s="3">
         <v>18000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>-23000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>-17000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>-88000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>-73000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>2000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>24000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>50000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>8000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>72000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>81000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>107000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>51000</v>
-      </c>
-      <c r="Q26" s="3">
-        <v>102000</v>
-      </c>
-      <c r="R26" s="3">
-        <v>63000</v>
       </c>
       <c r="S26" s="3">
         <v>102000</v>
       </c>
       <c r="T26" s="3">
+        <v>63000</v>
+      </c>
+      <c r="U26" s="3">
+        <v>102000</v>
+      </c>
+      <c r="V26" s="3">
         <v>58000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="W26" s="3">
         <v>88000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="X26" s="3">
         <v>90000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="Y26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F27" s="3">
         <v>18000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>-23000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>-17000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>-88000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>-73000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>2000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>24000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>50000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>8000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>72000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>81000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>107000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>51000</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>102000</v>
-      </c>
-      <c r="R27" s="3">
-        <v>63000</v>
       </c>
       <c r="S27" s="3">
         <v>102000</v>
       </c>
       <c r="T27" s="3">
+        <v>63000</v>
+      </c>
+      <c r="U27" s="3">
+        <v>102000</v>
+      </c>
+      <c r="V27" s="3">
         <v>58000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="W27" s="3">
         <v>88000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="X27" s="3">
         <v>90000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="Y27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1999,8 +2114,14 @@
       <c r="W28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X28" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2064,8 +2185,14 @@
       <c r="W29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X29" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2129,8 +2256,14 @@
       <c r="W30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X30" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2194,138 +2327,156 @@
       <c r="W31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X31" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E32" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F32" s="3">
         <v>28000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>46000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="H32" s="3">
         <v>34000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="I32" s="3">
         <v>21000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>24000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>23000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>20000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>18000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>28000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>20000</v>
-      </c>
-      <c r="N32" s="3">
-        <v>17000</v>
-      </c>
-      <c r="O32" s="3">
-        <v>14000</v>
       </c>
       <c r="P32" s="3">
         <v>17000</v>
       </c>
       <c r="Q32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="R32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="S32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="T32" s="3">
         <v>15000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="U32" s="3">
         <v>15000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="V32" s="3">
         <v>16000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="W32" s="3">
         <v>24000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>25000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F33" s="3">
         <v>18000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>-23000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-17000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-88000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>-73000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>2000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>24000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>50000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>8000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>72000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>81000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>107000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>51000</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>102000</v>
-      </c>
-      <c r="R33" s="3">
-        <v>63000</v>
       </c>
       <c r="S33" s="3">
         <v>102000</v>
       </c>
       <c r="T33" s="3">
+        <v>63000</v>
+      </c>
+      <c r="U33" s="3">
+        <v>102000</v>
+      </c>
+      <c r="V33" s="3">
         <v>58000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="W33" s="3">
         <v>88000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="X33" s="3">
         <v>90000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="Y33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2389,143 +2540,161 @@
       <c r="W34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X34" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F35" s="3">
         <v>18000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>-23000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-17000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-88000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>-73000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>2000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>24000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>50000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>8000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>72000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>81000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>107000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>51000</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>102000</v>
-      </c>
-      <c r="R35" s="3">
-        <v>63000</v>
       </c>
       <c r="S35" s="3">
         <v>102000</v>
       </c>
       <c r="T35" s="3">
+        <v>63000</v>
+      </c>
+      <c r="U35" s="3">
+        <v>102000</v>
+      </c>
+      <c r="V35" s="3">
         <v>58000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="W35" s="3">
         <v>88000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="X35" s="3">
         <v>90000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="Y35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F38" s="2">
         <v>44377</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44286</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44196</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44104</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44012</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43921</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43830</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43738</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43646</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43555</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43465</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43373</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43281</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43190</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43100</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43008</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>42916</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>42825</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>42735</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2549,8 +2718,10 @@
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
       <c r="W39" s="3"/>
-    </row>
-    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X39" s="3"/>
+      <c r="Y39" s="3"/>
+    </row>
+    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2574,73 +2745,81 @@
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
       <c r="W40" s="3"/>
-    </row>
-    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X40" s="3"/>
+      <c r="Y40" s="3"/>
+    </row>
+    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>334000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>366000</v>
+      </c>
+      <c r="F41" s="3">
         <v>405000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>350000</v>
       </c>
-      <c r="F41" s="3">
-        <v>410000</v>
-      </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
+        <v>366000</v>
+      </c>
+      <c r="I41" s="3">
         <v>279000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>190000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>268000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>270000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>393000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>226000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>720000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>350000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>363000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>317000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>459000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>618000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>550000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>446000</v>
-      </c>
-      <c r="U41" s="3">
-        <v>703000</v>
-      </c>
-      <c r="V41" s="3">
-        <v>681000</v>
       </c>
       <c r="W41" s="3">
         <v>703000</v>
       </c>
-    </row>
-    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X41" s="3">
+        <v>681000</v>
+      </c>
+      <c r="Y41" s="3">
+        <v>703000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2704,463 +2883,511 @@
       <c r="W42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X42" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>703000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>710000</v>
+      </c>
+      <c r="F43" s="3">
         <v>709000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>679000</v>
       </c>
-      <c r="F43" s="3">
-        <v>587000</v>
-      </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
+        <v>710000</v>
+      </c>
+      <c r="I43" s="3">
         <v>603000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>575000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>702000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>708000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>729000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>721000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>748000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>716000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>779000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>718000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>742000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>663000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>680000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>626000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>588000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>571000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>905000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>841000</v>
+      </c>
+      <c r="F44" s="3">
         <v>784000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>762000</v>
       </c>
-      <c r="F44" s="3">
-        <v>767000</v>
-      </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
+        <v>841000</v>
+      </c>
+      <c r="I44" s="3">
         <v>673000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>731000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>765000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>782000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>709000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>780000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>804000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>828000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>741000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>735000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>752000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>697000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>636000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>676000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>652000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>647000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>13000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>14000</v>
+      </c>
+      <c r="F45" s="3">
         <v>16000</v>
-      </c>
-      <c r="E45" s="3">
-        <v>9000</v>
-      </c>
-      <c r="F45" s="3">
-        <v>9000</v>
       </c>
       <c r="G45" s="3">
         <v>9000</v>
       </c>
       <c r="H45" s="3">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="I45" s="3">
         <v>9000</v>
       </c>
       <c r="J45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="K45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="L45" s="3">
         <v>11000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>3000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>13000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>6000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>21000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>8000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>18000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>26000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>3000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>8000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>62000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>69000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>1955000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>1931000</v>
+      </c>
+      <c r="F46" s="3">
         <v>1914000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>1800000</v>
       </c>
-      <c r="F46" s="3">
-        <v>1773000</v>
-      </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
+        <v>1931000</v>
+      </c>
+      <c r="I46" s="3">
         <v>1564000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1503000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1744000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1771000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1834000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1740000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2278000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1903000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1904000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1778000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>1971000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>2004000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1869000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1756000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>2005000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>1968000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="F47" s="3">
         <v>11000</v>
-      </c>
-      <c r="E47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>12000</v>
       </c>
       <c r="G47" s="3">
         <v>11000</v>
       </c>
       <c r="H47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="I47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J47" s="3">
         <v>20000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="K47" s="3">
         <v>30000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="L47" s="3">
         <v>34000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="M47" s="3">
         <v>31000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="N47" s="3">
         <v>33000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>32000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>32000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>33000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>34000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>38000</v>
-      </c>
-      <c r="R47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S47" s="3">
-        <v>26000</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3" t="s">
-        <v>8</v>
+      <c r="U47" s="3">
+        <v>26000</v>
       </c>
       <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W47" s="3">
+      <c r="W47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3747000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3912000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3978000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3865000</v>
       </c>
-      <c r="F48" s="3">
-        <v>3951000</v>
-      </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>3912000</v>
+      </c>
+      <c r="I48" s="3">
         <v>3623000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3530000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3537000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3887000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3512000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3577000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3456000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3465000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3476000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3407000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3542000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3324000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3139000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3014000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>2884000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>2849000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>116000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>110000</v>
+      </c>
+      <c r="F49" s="3">
         <v>115000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>119000</v>
       </c>
-      <c r="F49" s="3">
-        <v>122000</v>
-      </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
+        <v>110000</v>
+      </c>
+      <c r="I49" s="3">
         <v>113000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>109000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>81000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>82000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>54000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>57000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>60000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>62000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>63000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>87000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>94000</v>
-      </c>
-      <c r="R49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="S49" s="3">
-        <v>39000</v>
       </c>
       <c r="T49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3" t="s">
-        <v>8</v>
+      <c r="U49" s="3">
+        <v>39000</v>
       </c>
       <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W49" s="3">
+      <c r="W49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3224,8 +3451,14 @@
       <c r="W50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X50" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3289,73 +3522,85 @@
       <c r="W51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X51" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>211000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>223000</v>
+      </c>
+      <c r="F52" s="3">
         <v>228000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>226000</v>
       </c>
-      <c r="F52" s="3">
-        <v>154000</v>
-      </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
+        <v>223000</v>
+      </c>
+      <c r="I52" s="3">
         <v>144000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>210000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>196000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>200000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>192000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>207000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>199000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>194000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>194000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>161000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>163000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>221000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>174000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>248000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>229000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>228000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3419,73 +3664,85 @@
       <c r="W53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X53" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6038000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6186000</v>
+      </c>
+      <c r="F54" s="3">
         <v>6246000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6021000</v>
       </c>
-      <c r="F54" s="3">
-        <v>6012000</v>
-      </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
+        <v>6186000</v>
+      </c>
+      <c r="I54" s="3">
         <v>5455000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>5372000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>5588000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>5974000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5623000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5614000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>6025000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5656000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5670000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5467000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>5808000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5549000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5247000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5018000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5118000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5045000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3509,8 +3766,10 @@
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
       <c r="W55" s="3"/>
-    </row>
-    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X55" s="3"/>
+      <c r="Y55" s="3"/>
+    </row>
+    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3534,398 +3793,436 @@
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
       <c r="W56" s="3"/>
-    </row>
-    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X56" s="3"/>
+      <c r="Y56" s="3"/>
+    </row>
+    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1050000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1131000</v>
+      </c>
+      <c r="F57" s="3">
         <v>991000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>899000</v>
       </c>
-      <c r="F57" s="3">
-        <v>865000</v>
-      </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
+        <v>1996000</v>
+      </c>
+      <c r="I57" s="3">
         <v>797000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>675000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>870000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>883000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>969000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>838000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>870000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>954000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>1009000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>916000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>908000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>828000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>858000</v>
-      </c>
-      <c r="T57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="U57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="W57" s="3">
+      <c r="W57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="X57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>154000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>156000</v>
+      </c>
+      <c r="F58" s="3">
         <v>270000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>268000</v>
       </c>
-      <c r="F58" s="3">
-        <v>333000</v>
-      </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
+        <v>156000</v>
+      </c>
+      <c r="I58" s="3">
         <v>294000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>314000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>217000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>211000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>181000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>192000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>641000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>129000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>113000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>104000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>151000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>136000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>133000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>129000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>549000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>546000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E59" s="3">
         <v>22000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="G59" s="3">
         <v>30000</v>
       </c>
-      <c r="F59" s="3">
-        <v>65000</v>
-      </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I59" s="3">
         <v>32000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="J59" s="3">
         <v>44000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="K59" s="3">
         <v>57000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>46000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>64000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>52000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>45000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>152000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>51000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>61000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>57000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>176000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>52000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>821000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>753000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>807000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1231000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1309000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1283000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1197000</v>
       </c>
-      <c r="F60" s="3">
-        <v>1263000</v>
-      </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
+        <v>1309000</v>
+      </c>
+      <c r="I60" s="3">
         <v>1123000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1033000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1144000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1140000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1214000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1082000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1556000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1235000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1173000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1081000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1116000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1140000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1043000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>950000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1302000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1353000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2097000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>2156000</v>
+      </c>
+      <c r="F61" s="3">
         <v>2190000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2152000</v>
       </c>
-      <c r="F61" s="3">
-        <v>2133000</v>
-      </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
+        <v>2156000</v>
+      </c>
+      <c r="I61" s="3">
         <v>1942000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>1853000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>1930000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>1975000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1713000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1762000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1759000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1778000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1818000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1816000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1940000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1831000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1739000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1635000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1483000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1473000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>726000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>751000</v>
+      </c>
+      <c r="F62" s="3">
         <v>791000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>783000</v>
       </c>
-      <c r="F62" s="3">
-        <v>826000</v>
-      </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>751000</v>
+      </c>
+      <c r="I62" s="3">
         <v>758000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>705000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>687000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>788000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>748000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>737000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>723000</v>
-      </c>
-      <c r="N62" s="3">
-        <v>728000</v>
-      </c>
-      <c r="O62" s="3">
-        <v>732000</v>
       </c>
       <c r="P62" s="3">
         <v>728000</v>
       </c>
       <c r="Q62" s="3">
+        <v>732000</v>
+      </c>
+      <c r="R62" s="3">
+        <v>728000</v>
+      </c>
+      <c r="S62" s="3">
         <v>784000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="T62" s="3">
         <v>757000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="U62" s="3">
         <v>718000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="V62" s="3">
         <v>806000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="W62" s="3">
         <v>782000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>777000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3989,8 +4286,14 @@
       <c r="W63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X63" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4054,8 +4357,14 @@
       <c r="W64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X64" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4119,73 +4428,85 @@
       <c r="W65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X65" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4054000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>4216000</v>
+      </c>
+      <c r="F66" s="3">
         <v>4264000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4132000</v>
       </c>
-      <c r="F66" s="3">
-        <v>4222000</v>
-      </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
+        <v>4216000</v>
+      </c>
+      <c r="I66" s="3">
         <v>3823000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>3591000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3761000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3903000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3675000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3581000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>4038000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3741000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3723000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3625000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>3840000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3728000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3500000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3391000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3567000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3603000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4209,8 +4530,10 @@
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
       <c r="W67" s="3"/>
-    </row>
-    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X67" s="3"/>
+      <c r="Y67" s="3"/>
+    </row>
+    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4274,8 +4597,14 @@
       <c r="W68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X68" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4339,8 +4668,14 @@
       <c r="W69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X69" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4404,8 +4739,14 @@
       <c r="W70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X70" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4469,19 +4810,25 @@
       <c r="W71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X71" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1299000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1209000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1180000</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G72" s="3" t="s">
         <v>8</v>
@@ -4495,11 +4842,11 @@
       <c r="J72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K72" s="3">
-        <v>0</v>
-      </c>
-      <c r="L72" s="3">
-        <v>0</v>
+      <c r="K72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="L72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="M72" s="3">
         <v>0</v>
@@ -4534,8 +4881,14 @@
       <c r="W72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X72" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4599,8 +4952,14 @@
       <c r="W73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X73" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4664,8 +5023,14 @@
       <c r="W74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X74" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4729,73 +5094,85 @@
       <c r="W75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X75" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>1984000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="F76" s="3">
         <v>1982000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>1889000</v>
       </c>
-      <c r="F76" s="3">
-        <v>1790000</v>
-      </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
+        <v>1970000</v>
+      </c>
+      <c r="I76" s="3">
         <v>1632000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1781000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1827000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>2071000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1948000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>2033000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1987000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>1915000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1947000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>1842000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1968000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1821000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1747000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1627000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1551000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1442000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4859,143 +5236,161 @@
       <c r="W77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
+      <c r="X77" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44561</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44469</v>
+      </c>
+      <c r="F80" s="2">
         <v>44377</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44286</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44196</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44104</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44012</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43921</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43830</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43738</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43646</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43555</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43465</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43373</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43281</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43190</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43100</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43008</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>42916</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>42825</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>42735</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>123000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>35000</v>
+      </c>
+      <c r="F81" s="3">
         <v>18000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>-23000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-17000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-88000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>-73000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>2000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>24000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>50000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>8000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>72000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>81000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>107000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>51000</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>102000</v>
-      </c>
-      <c r="R81" s="3">
-        <v>63000</v>
       </c>
       <c r="S81" s="3">
         <v>102000</v>
       </c>
       <c r="T81" s="3">
+        <v>63000</v>
+      </c>
+      <c r="U81" s="3">
+        <v>102000</v>
+      </c>
+      <c r="V81" s="3">
         <v>58000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="W81" s="3">
         <v>88000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="X81" s="3">
         <v>90000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="Y81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5019,73 +5414,81 @@
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
       <c r="W82" s="3"/>
-    </row>
-    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X82" s="3"/>
+      <c r="Y82" s="3"/>
+    </row>
+    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>95000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>100000</v>
+      </c>
+      <c r="F83" s="3">
         <v>98000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>99000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>99000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>102000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>91000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>97000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>94000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>93000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>89000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>88000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>86000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>93000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>87000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>88000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>80000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>83000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>76000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>80000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>83000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5149,8 +5552,14 @@
       <c r="W84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X84" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5214,8 +5623,14 @@
       <c r="W85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X85" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5279,8 +5694,14 @@
       <c r="W86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X86" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5344,8 +5765,14 @@
       <c r="W87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X87" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5409,73 +5836,85 @@
       <c r="W88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X88" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>71000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>176000</v>
+      </c>
+      <c r="F89" s="3">
         <v>129000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>13000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>89000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>180000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>11000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>74000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>-5000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>306000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>118000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-53000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>102000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>171000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>147000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>13000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>79000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>249000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>116000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>62000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>54000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5499,73 +5938,81 @@
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
       <c r="W90" s="3"/>
-    </row>
-    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X90" s="3"/>
+      <c r="Y90" s="3"/>
+    </row>
+    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-72000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-79000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-70000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-82000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>130000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-74000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-70000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-112000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>188000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-135000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-95000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-106000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>228000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-188000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-119000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-88000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>149000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-78000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-45000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-37000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5629,8 +6076,14 @@
       <c r="W92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X92" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5694,73 +6147,85 @@
       <c r="W93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X93" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-82000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-80000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-66000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-89000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-92000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-78000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-74000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-273000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-133000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-135000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-95000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-109000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-145000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-188000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-238000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-93000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-208000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-86000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-42000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-37000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5784,8 +6249,10 @@
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
       <c r="W95" s="3"/>
-    </row>
-    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X95" s="3"/>
+      <c r="Y95" s="3"/>
+    </row>
+    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5849,8 +6316,14 @@
       <c r="W96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5914,8 +6387,14 @@
       <c r="W97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X97" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5979,8 +6458,14 @@
       <c r="W98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X98" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6044,8 +6529,14 @@
       <c r="W99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
+      <c r="X99" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -6053,190 +6544,208 @@
         <v>-5000</v>
       </c>
       <c r="E100" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="F100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="G100" s="3">
         <v>5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>104000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>-6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>-7000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>4000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>147000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>12000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-489000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>531000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>2000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>21000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-71000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>60000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>58000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>51000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-314000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>-10000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>-6000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-16000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="F101" s="3">
         <v>11000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>-12000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>27000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-4000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-6000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>8000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>-18000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-13000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>-8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-1000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-30000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>6000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>24000</v>
-      </c>
-      <c r="S101" s="3">
-        <v>12000</v>
-      </c>
-      <c r="T101" s="3">
-        <v>27000</v>
       </c>
       <c r="U101" s="3">
         <v>12000</v>
       </c>
       <c r="V101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="W101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="X101" s="3">
         <v>-33000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="Y101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-32000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-39000</v>
+      </c>
+      <c r="F102" s="3">
         <v>55000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-60000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>131000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>89000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>-78000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-2000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-123000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>167000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-494000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>370000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-13000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>46000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-142000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>-159000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>68000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>104000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-257000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>22000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>-22000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Y102"/>
+  <dimension ref="A5:Z102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,320 +665,333 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E7" s="2">
         <v>44561</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44469</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44377</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44286</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44196</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44104</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44012</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43921</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43830</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43738</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43646</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43555</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43465</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43373</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43281</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43190</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43100</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43008</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42916</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42825</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42735</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1858000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1697000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1425000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1393000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1284000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1163000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1092000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>907000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1308000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1302000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1454000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1371000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1503000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1418000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1535000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1445000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1496000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1330000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1411000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1260000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1316000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1309000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1506000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1449000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1175000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1263000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1181000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1084000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>961000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>917000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1182000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1170000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1270000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1256000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1319000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1216000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1307000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1295000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1269000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1153000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1184000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1106000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1110000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1108000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>352000</v>
+      </c>
+      <c r="E10" s="3">
         <v>248000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>250000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>130000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>103000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>79000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>131000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-10000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>126000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>132000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>184000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>115000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>184000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>202000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>228000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>150000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>227000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>177000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>227000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>154000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>206000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>201000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1004,8 +1017,9 @@
       <c r="W11" s="3"/>
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z11" s="3"/>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1075,8 +1089,11 @@
       <c r="Y12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1146,79 +1163,85 @@
       <c r="Y13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
         <v>-5000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>64000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-10000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-18000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-23000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>49000</v>
-      </c>
-      <c r="J14" s="3">
-        <v>-22000</v>
       </c>
       <c r="K14" s="3">
         <v>-22000</v>
       </c>
       <c r="L14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="M14" s="3">
         <v>-25000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-23000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-20000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-29000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-14000</v>
-      </c>
-      <c r="R14" s="3">
-        <v>-25000</v>
       </c>
       <c r="S14" s="3">
         <v>-25000</v>
       </c>
       <c r="T14" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="U14" s="3">
         <v>-32000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-20000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-17000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-16000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-26000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1288,8 +1311,11 @@
       <c r="Y15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.2">
+      <c r="Z15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1312,150 +1338,157 @@
       <c r="W16" s="3"/>
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
-    </row>
-    <row r="17" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z16" s="3"/>
+    </row>
+    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="3">
         <v>1528000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1367000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1340000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1265000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1147000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1136000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>979000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1285000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1247000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1357000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1325000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1386000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1295000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1400000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1361000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1342000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1214000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1260000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1170000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1174000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1166000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E18" s="3">
         <v>169000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>58000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>53000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>19000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>16000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-44000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-72000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>23000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>55000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>97000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>46000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>117000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>123000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>135000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>84000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>154000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>116000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>151000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>90000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>142000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>143000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1481,150 +1514,157 @@
       <c r="W19" s="3"/>
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
-    </row>
-    <row r="20" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z19" s="3"/>
+    </row>
+    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="3">
         <v>-27000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>-26000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-28000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-46000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-34000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-21000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-24000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-23000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-20000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-18000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-28000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-17000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-14000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-17000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="T20" s="3">
-        <v>-15000</v>
       </c>
       <c r="U20" s="3">
         <v>-15000</v>
       </c>
       <c r="V20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-16000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-24000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-25000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="3">
         <v>237000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>132000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>123000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>72000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>81000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>37000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>-5000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>97000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>129000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>172000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>107000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>185000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>192000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>214000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>154000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>222000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>181000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>219000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>150000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>198000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>201000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1655,29 +1695,29 @@
       <c r="L22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="3">
+      <c r="M22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N22" s="3">
         <v>2000</v>
       </c>
-      <c r="N22" s="3">
-        <v>0</v>
-      </c>
       <c r="O22" s="3">
         <v>0</v>
       </c>
-      <c r="P22" s="3" t="s">
+      <c r="P22" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
       <c r="R22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="S22" s="3">
         <v>1000</v>
       </c>
-      <c r="T22" s="3" t="s">
-        <v>8</v>
+      <c r="T22" s="3">
+        <v>1000</v>
       </c>
       <c r="U22" s="3" t="s">
         <v>8</v>
@@ -1694,150 +1734,159 @@
       <c r="Y22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E23" s="3">
         <v>142000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>32000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>25000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>-27000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-65000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-96000</v>
       </c>
-      <c r="K23" s="3">
-        <v>0</v>
-      </c>
       <c r="L23" s="3">
+        <v>0</v>
+      </c>
+      <c r="M23" s="3">
         <v>35000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>77000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>18000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>97000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>106000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>121000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>66000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>133000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>101000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>136000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>74000</v>
-      </c>
-      <c r="W23" s="3">
-        <v>118000</v>
       </c>
       <c r="X23" s="3">
         <v>118000</v>
       </c>
       <c r="Y23" s="3">
+        <v>118000</v>
+      </c>
+      <c r="Z23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>16000</v>
+      </c>
+      <c r="E24" s="3">
         <v>19000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-3000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>7000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>-4000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-1000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>23000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-2000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>11000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>27000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>10000</v>
-      </c>
-      <c r="O24" s="3">
-        <v>25000</v>
       </c>
       <c r="P24" s="3">
         <v>25000</v>
       </c>
       <c r="Q24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="R24" s="3">
         <v>14000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>15000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>31000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>38000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>34000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>16000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>30000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>28000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1907,150 +1956,159 @@
       <c r="Y25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="3">
         <v>123000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>35000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>18000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>-23000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-17000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-88000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-73000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>2000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>24000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>50000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>8000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>72000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>81000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>107000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>51000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>102000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>63000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>102000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>58000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>88000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>90000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E27" s="3">
         <v>123000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>35000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>18000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>-23000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-17000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-88000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-73000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>2000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>24000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>50000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>8000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>72000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>81000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>107000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>51000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>102000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>63000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>102000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>58000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>88000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>90000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2120,8 +2178,11 @@
       <c r="Y28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2191,8 +2252,11 @@
       <c r="Y29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2262,8 +2326,11 @@
       <c r="Y30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2333,150 +2400,159 @@
       <c r="Y31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="3">
         <v>27000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>26000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>28000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>46000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>34000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>21000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>24000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>23000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>20000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>18000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>28000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>17000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>14000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>17000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20000</v>
-      </c>
-      <c r="T32" s="3">
-        <v>15000</v>
       </c>
       <c r="U32" s="3">
         <v>15000</v>
       </c>
       <c r="V32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="W32" s="3">
         <v>16000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>24000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>25000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3">
+      <c r="D33" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33" s="3">
         <v>123000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>35000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>18000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>-23000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-17000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-88000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-73000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>2000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>24000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>50000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>8000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>72000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>81000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>107000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>51000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>102000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>63000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>102000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>58000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>88000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>90000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2546,155 +2622,164 @@
       <c r="Y34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3">
+      <c r="D35" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E35" s="3">
         <v>123000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>35000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>18000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>-23000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-17000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-88000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-73000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>2000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>24000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>50000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>8000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>72000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>81000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>107000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>51000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>102000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>63000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>102000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>58000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>88000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>90000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E38" s="2">
         <v>44561</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44469</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44377</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44286</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44196</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44104</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44012</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43921</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43830</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43738</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43646</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43555</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43465</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43373</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43281</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43190</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43100</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43008</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42916</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42825</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42735</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2720,8 +2805,9 @@
       <c r="W39" s="3"/>
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
-    </row>
-    <row r="40" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z39" s="3"/>
+    </row>
+    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2747,79 +2833,83 @@
       <c r="W40" s="3"/>
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
-    </row>
-    <row r="41" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z40" s="3"/>
+    </row>
+    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>440000</v>
+      </c>
+      <c r="E41" s="3">
         <v>334000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>366000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>405000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>350000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>366000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>279000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>190000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>268000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>270000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>393000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>226000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>720000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>350000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>363000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>317000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>459000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>618000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>550000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>446000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>703000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>681000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="42" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2889,292 +2979,307 @@
       <c r="Y42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>886000</v>
+      </c>
+      <c r="E43" s="3">
         <v>703000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>710000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>709000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>679000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>710000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>603000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>575000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>702000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>708000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>729000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>721000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>748000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>716000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>779000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>718000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>742000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>663000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>680000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>626000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>588000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>571000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>937000</v>
+      </c>
+      <c r="E44" s="3">
         <v>905000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>841000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>784000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>762000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>841000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>673000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>731000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>765000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>782000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>709000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>780000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>804000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>828000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>741000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>735000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>752000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>697000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>636000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>676000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>652000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>647000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>27000</v>
+      </c>
+      <c r="E45" s="3">
         <v>13000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>14000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>16000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>9000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>14000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>9000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>7000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>11000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>3000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>13000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>6000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>21000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>8000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>18000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>26000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>3000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>62000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>69000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2290000</v>
+      </c>
+      <c r="E46" s="3">
         <v>1955000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1931000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1914000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1800000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1931000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1564000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1503000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1744000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1771000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1834000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1740000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2278000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1903000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1904000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1778000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1971000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2004000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1869000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1756000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>2005000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1968000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3182,58 +3287,58 @@
         <v>9000</v>
       </c>
       <c r="E47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F47" s="3">
         <v>10000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>11000</v>
       </c>
       <c r="G47" s="3">
         <v>11000</v>
       </c>
       <c r="H47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="I47" s="3">
         <v>10000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>11000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>20000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>30000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>34000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>31000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>33000</v>
-      </c>
-      <c r="O47" s="3">
-        <v>32000</v>
       </c>
       <c r="P47" s="3">
         <v>32000</v>
       </c>
       <c r="Q47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="R47" s="3">
         <v>33000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>34000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>38000</v>
       </c>
-      <c r="T47" s="3" t="s">
+      <c r="U47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U47" s="3">
+      <c r="V47" s="3">
         <v>26000</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W47" s="3" t="s">
         <v>8</v>
@@ -3241,141 +3346,147 @@
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Y47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3848000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3747000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3912000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3978000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3865000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3912000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3623000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3530000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3537000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3887000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3512000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3577000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3456000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3465000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3476000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3407000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3542000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3324000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3139000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3014000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>2884000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2849000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>113000</v>
+      </c>
+      <c r="E49" s="3">
         <v>116000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>110000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>115000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>119000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>110000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>113000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>109000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>81000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>82000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>54000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>57000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>60000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>62000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>63000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>87000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>94000</v>
       </c>
-      <c r="T49" s="3" t="s">
+      <c r="U49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>39000</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W49" s="3" t="s">
         <v>8</v>
@@ -3383,11 +3494,14 @@
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Y49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3457,8 +3571,11 @@
       <c r="Y50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3528,79 +3645,85 @@
       <c r="Y51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>209000</v>
+      </c>
+      <c r="E52" s="3">
         <v>211000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>223000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>228000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>226000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>223000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>144000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>210000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>196000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>200000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>192000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>207000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>199000</v>
-      </c>
-      <c r="P52" s="3">
-        <v>194000</v>
       </c>
       <c r="Q52" s="3">
         <v>194000</v>
       </c>
       <c r="R52" s="3">
+        <v>194000</v>
+      </c>
+      <c r="S52" s="3">
         <v>161000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>163000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>221000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>174000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>248000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>229000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>228000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3670,79 +3793,85 @@
       <c r="Y53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6469000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6038000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6186000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6246000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6021000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6186000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>5455000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5372000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5588000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5974000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5623000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5614000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>6025000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5656000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5670000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5467000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5808000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5549000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5247000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5018000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5118000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5045000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3768,8 +3897,9 @@
       <c r="W55" s="3"/>
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
-    </row>
-    <row r="56" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z55" s="3"/>
+    </row>
+    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3795,67 +3925,68 @@
       <c r="W56" s="3"/>
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
-    </row>
-    <row r="57" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z56" s="3"/>
+    </row>
+    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1141000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1050000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1131000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>991000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>899000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1996000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>797000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>675000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>870000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>883000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>969000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>838000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>870000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>954000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>1009000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>916000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>908000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>828000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>858000</v>
-      </c>
-      <c r="V57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="W57" s="3" t="s">
         <v>8</v>
@@ -3863,366 +3994,384 @@
       <c r="X57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Y57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>153000</v>
+      </c>
+      <c r="E58" s="3">
         <v>154000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>156000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>270000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>268000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>156000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>294000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>314000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>217000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>211000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>181000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>192000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>641000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>129000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>113000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>104000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>151000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>136000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>133000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>129000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>549000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>546000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29000</v>
+      </c>
+      <c r="E59" s="3">
         <v>27000</v>
-      </c>
-      <c r="E59" s="3">
-        <v>22000</v>
       </c>
       <c r="F59" s="3">
         <v>22000</v>
       </c>
       <c r="G59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H59" s="3">
         <v>30000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>22000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>32000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>44000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>57000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>46000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>64000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>52000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>45000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>152000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>51000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>61000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>57000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>176000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>52000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>821000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>753000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>807000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1323000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1231000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1309000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1283000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1197000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1309000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1123000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1033000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1144000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1140000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1214000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1082000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1556000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1235000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1173000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1081000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1116000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1140000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1043000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>950000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1302000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1353000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>2080000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2097000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2156000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2190000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2152000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2156000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>1942000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1853000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1930000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1975000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1713000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1762000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1759000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1778000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1818000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1816000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1940000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1831000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1739000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1635000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1483000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1473000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>722000</v>
+      </c>
+      <c r="E62" s="3">
         <v>726000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>751000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>791000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>783000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>751000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>758000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>705000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>687000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>788000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>748000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>737000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>723000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>728000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>732000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>728000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>784000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>757000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>718000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>806000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>782000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>777000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4292,8 +4441,11 @@
       <c r="Y63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4363,8 +4515,11 @@
       <c r="Y64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4434,79 +4589,85 @@
       <c r="Y65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>4125000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4054000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4216000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4264000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4132000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4216000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>3823000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3591000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3761000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3903000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3675000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3581000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>4038000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3741000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3723000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3625000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3840000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3728000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3500000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3391000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3567000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3603000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4532,8 +4693,9 @@
       <c r="W67" s="3"/>
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
-    </row>
-    <row r="68" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z67" s="3"/>
+    </row>
+    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4603,8 +4765,11 @@
       <c r="Y68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4674,8 +4839,11 @@
       <c r="Y69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4745,8 +4913,11 @@
       <c r="Y70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4816,22 +4987,25 @@
       <c r="Y71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3">
+      <c r="D72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E72" s="3">
         <v>1299000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1209000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1180000</v>
-      </c>
-      <c r="G72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="H72" s="3" t="s">
         <v>8</v>
@@ -4848,8 +5022,8 @@
       <c r="L72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M72" s="3">
-        <v>0</v>
+      <c r="M72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="N72" s="3">
         <v>0</v>
@@ -4887,8 +5061,11 @@
       <c r="Y72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4958,8 +5135,11 @@
       <c r="Y73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5029,8 +5209,11 @@
       <c r="Y74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5100,79 +5283,85 @@
       <c r="Y75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2344000</v>
+      </c>
+      <c r="E76" s="3">
         <v>1984000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1970000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1982000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1889000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1970000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1632000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1781000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1827000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>2071000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1948000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>2033000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1987000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1915000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1947000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1842000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1968000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1821000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1747000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1627000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1551000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1442000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5242,155 +5431,164 @@
       <c r="Y77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:25" x14ac:dyDescent="0.2">
+      <c r="Z77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44651</v>
+      </c>
+      <c r="E80" s="2">
         <v>44561</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44469</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44377</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44286</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44196</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44104</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44012</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43921</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43830</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43738</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43646</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43555</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43465</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43373</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43281</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43190</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43100</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43008</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42916</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42825</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42735</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3">
+      <c r="D81" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E81" s="3">
         <v>123000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>35000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>18000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>-23000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-17000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-88000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-73000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>2000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>24000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>50000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>8000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>72000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>81000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>107000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>51000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>102000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>63000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>102000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>58000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>88000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>90000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5416,79 +5614,83 @@
       <c r="W82" s="3"/>
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
-    </row>
-    <row r="83" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z82" s="3"/>
+    </row>
+    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>91000</v>
+      </c>
+      <c r="E83" s="3">
         <v>95000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>100000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>98000</v>
-      </c>
-      <c r="G83" s="3">
-        <v>99000</v>
       </c>
       <c r="H83" s="3">
         <v>99000</v>
       </c>
       <c r="I83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="J83" s="3">
         <v>102000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>91000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>97000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>94000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>93000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>89000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>88000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>86000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>87000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>88000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>80000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>83000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>76000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>80000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>83000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5558,8 +5760,11 @@
       <c r="Y84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5629,8 +5834,11 @@
       <c r="Y85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5700,8 +5908,11 @@
       <c r="Y86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5771,8 +5982,11 @@
       <c r="Y87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5842,79 +6056,85 @@
       <c r="Y88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E89" s="3">
         <v>71000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>176000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>129000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>13000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>89000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>180000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>11000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>74000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-5000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>306000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>118000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-53000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>102000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>171000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>147000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>13000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>79000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>249000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>116000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>62000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>54000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5940,79 +6160,83 @@
       <c r="W90" s="3"/>
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
-    </row>
-    <row r="91" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z90" s="3"/>
+    </row>
+    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-69000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-72000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>55000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-79000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-70000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-82000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>130000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-74000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-112000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>188000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-135000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-95000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-106000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>228000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-188000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-119000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-88000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>149000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-78000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-45000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-37000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6082,8 +6306,11 @@
       <c r="Y92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6153,79 +6380,85 @@
       <c r="Y93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-82000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-143000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-80000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-66000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-89000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-92000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-78000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-74000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-273000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-133000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-135000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-95000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-109000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-145000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-188000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-238000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-93000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-208000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-86000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-42000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-37000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6251,8 +6484,9 @@
       <c r="W95" s="3"/>
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
-    </row>
-    <row r="96" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z95" s="3"/>
+    </row>
+    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6322,8 +6556,11 @@
       <c r="Y96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6393,8 +6630,11 @@
       <c r="Y97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6464,8 +6704,11 @@
       <c r="Y98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6535,217 +6778,229 @@
       <c r="Y99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:25" x14ac:dyDescent="0.2">
+      <c r="Z99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-5000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-71000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-5000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>104000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-7000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>4000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>147000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>12000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-489000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>531000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>2000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>21000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-71000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>60000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>58000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>51000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-314000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-10000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-6000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>7000</v>
+      </c>
+      <c r="E101" s="3">
         <v>-16000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-1000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>11000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-12000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>27000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>7000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-4000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-6000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>8000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>-18000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>12000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-13000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-30000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>6000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>24000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>12000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>27000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>12000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>-33000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:25" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3">
+      <c r="D102" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E102" s="3">
         <v>-32000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-39000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>55000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-60000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>131000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>89000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-78000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-2000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-123000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>167000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-494000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>370000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>46000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-142000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-159000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>68000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>104000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-257000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>22000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-22000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:Z102"/>
+  <dimension ref="A5:AA102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,333 +665,346 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E7" s="2">
         <v>44651</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44561</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44469</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44377</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44286</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44196</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44104</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44012</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43921</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43830</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43738</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43646</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43555</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43465</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43373</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43281</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43190</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43100</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43008</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>42916</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>42825</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>42735</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1858000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1697000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1425000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1393000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1284000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1163000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1092000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>907000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1308000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1302000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1454000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1371000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1503000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1418000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1535000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1445000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1496000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1330000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1411000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1260000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1316000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1309000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
-        <v>1506000</v>
+        <v>1452000</v>
       </c>
       <c r="E9" s="3">
+        <v>1512000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1449000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1175000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1263000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1181000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1084000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>961000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>917000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1182000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1170000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>1270000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1256000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1319000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1216000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1307000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1295000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1269000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1153000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1184000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1106000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1110000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1108000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
-        <v>352000</v>
+        <v>366000</v>
       </c>
       <c r="E10" s="3">
+        <v>346000</v>
+      </c>
+      <c r="F10" s="3">
         <v>248000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>250000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>130000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>103000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>79000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>131000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-10000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>126000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>132000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>184000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>115000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>184000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>202000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>228000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>150000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>227000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>177000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>227000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>154000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>206000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>201000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1018,8 +1031,9 @@
       <c r="X11" s="3"/>
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
-    </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA11" s="3"/>
+    </row>
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1092,8 +1106,11 @@
       <c r="Z12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1166,82 +1183,88 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>8</v>
+      <c r="D14" s="3">
+        <v>-3000</v>
       </c>
       <c r="E14" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-5000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>64000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-10000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-18000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-23000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>49000</v>
-      </c>
-      <c r="K14" s="3">
-        <v>-22000</v>
       </c>
       <c r="L14" s="3">
         <v>-22000</v>
       </c>
       <c r="M14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="N14" s="3">
         <v>-25000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-23000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-20000</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-29000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-20000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-14000</v>
-      </c>
-      <c r="S14" s="3">
-        <v>-25000</v>
       </c>
       <c r="T14" s="3">
         <v>-25000</v>
       </c>
       <c r="U14" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="V14" s="3">
         <v>-32000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-20000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="X14" s="3">
         <v>-17000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Y14" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-26000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1314,8 +1337,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1339,156 +1365,163 @@
       <c r="X16" s="3"/>
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
-    </row>
-    <row r="17" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA16" s="3"/>
+    </row>
+    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="3" t="s">
-        <v>8</v>
+      <c r="D17" s="3">
+        <v>1552000</v>
       </c>
       <c r="E17" s="3">
+        <v>1628000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1528000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1367000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1340000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1265000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1147000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1136000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>979000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1285000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1247000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1357000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1325000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1386000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1295000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1400000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1361000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1342000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1214000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1260000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1170000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1174000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1166000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="3" t="s">
-        <v>8</v>
+      <c r="D18" s="3">
+        <v>266000</v>
       </c>
       <c r="E18" s="3">
+        <v>230000</v>
+      </c>
+      <c r="F18" s="3">
         <v>169000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>58000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>53000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>19000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>16000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-44000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-72000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>23000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>55000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>97000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>46000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>117000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>123000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>135000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>84000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>154000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>116000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>151000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>90000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>142000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>143000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1515,156 +1548,163 @@
       <c r="X19" s="3"/>
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
-    </row>
-    <row r="20" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA19" s="3"/>
+    </row>
+    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="D20" s="3" t="s">
-        <v>8</v>
+      <c r="D20" s="3">
+        <v>-22000</v>
       </c>
       <c r="E20" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="F20" s="3">
         <v>-27000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>-26000</v>
       </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
         <v>-28000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-46000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-34000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-21000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-24000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-23000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-20000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-18000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-28000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-17000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-14000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-17000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="U20" s="3">
-        <v>-15000</v>
       </c>
       <c r="V20" s="3">
         <v>-15000</v>
       </c>
       <c r="W20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="X20" s="3">
         <v>-16000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-24000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="Z20" s="3">
         <v>-25000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AA20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D21" s="3" t="s">
-        <v>8</v>
+      <c r="D21" s="3">
+        <v>328000</v>
       </c>
       <c r="E21" s="3">
+        <v>295000</v>
+      </c>
+      <c r="F21" s="3">
         <v>237000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>132000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>123000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>72000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>81000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>37000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>-5000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>97000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>129000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>172000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>107000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>185000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>192000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>214000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>154000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>222000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>181000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>219000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>150000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>198000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>201000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1698,29 +1738,29 @@
       <c r="M22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N22" s="3">
+      <c r="N22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O22" s="3">
         <v>2000</v>
       </c>
-      <c r="O22" s="3">
-        <v>0</v>
-      </c>
       <c r="P22" s="3">
         <v>0</v>
       </c>
-      <c r="Q22" s="3" t="s">
+      <c r="Q22" s="3">
+        <v>0</v>
+      </c>
+      <c r="R22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="T22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3" t="s">
-        <v>8</v>
+      <c r="U22" s="3">
+        <v>1000</v>
       </c>
       <c r="V22" s="3" t="s">
         <v>8</v>
@@ -1737,156 +1777,165 @@
       <c r="Z22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>244000</v>
+      </c>
+      <c r="E23" s="3">
         <v>204000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>142000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>32000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>25000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>-27000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-65000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-96000</v>
       </c>
-      <c r="L23" s="3">
-        <v>0</v>
-      </c>
       <c r="M23" s="3">
+        <v>0</v>
+      </c>
+      <c r="N23" s="3">
         <v>35000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>77000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>18000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>97000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>106000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>121000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>66000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>133000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>101000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>136000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>74000</v>
-      </c>
-      <c r="X23" s="3">
-        <v>118000</v>
       </c>
       <c r="Y23" s="3">
         <v>118000</v>
       </c>
       <c r="Z23" s="3">
+        <v>118000</v>
+      </c>
+      <c r="AA23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>45000</v>
+      </c>
+      <c r="E24" s="3">
         <v>16000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>19000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-3000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>7000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>-4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-1000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>23000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-2000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>11000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>27000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>10000</v>
-      </c>
-      <c r="P24" s="3">
-        <v>25000</v>
       </c>
       <c r="Q24" s="3">
         <v>25000</v>
       </c>
       <c r="R24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="S24" s="3">
         <v>14000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>15000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>31000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>38000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>34000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>16000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>30000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>28000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1959,156 +2008,165 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="D26" s="3" t="s">
-        <v>8</v>
+      <c r="D26" s="3">
+        <v>199000</v>
       </c>
       <c r="E26" s="3">
+        <v>188000</v>
+      </c>
+      <c r="F26" s="3">
         <v>123000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>35000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>18000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>-23000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-17000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-88000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-73000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>2000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>24000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>50000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>8000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>72000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>81000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>107000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>51000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>102000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>63000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>102000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>58000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>88000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>90000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>8</v>
+      <c r="D27" s="3">
+        <v>199000</v>
       </c>
       <c r="E27" s="3">
+        <v>188000</v>
+      </c>
+      <c r="F27" s="3">
         <v>123000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>35000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>18000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>-23000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-17000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-88000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-73000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>2000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>24000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>50000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>8000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>72000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>81000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>107000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>51000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>102000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>63000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>102000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>58000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>88000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>90000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2181,8 +2239,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2255,8 +2316,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2329,8 +2393,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2403,156 +2470,165 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D32" s="3" t="s">
-        <v>8</v>
+      <c r="D32" s="3">
+        <v>22000</v>
       </c>
       <c r="E32" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F32" s="3">
         <v>27000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>26000</v>
       </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
         <v>28000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>46000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>34000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>21000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>24000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>23000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>20000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>18000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>28000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>17000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>14000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>17000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20000</v>
-      </c>
-      <c r="U32" s="3">
-        <v>15000</v>
       </c>
       <c r="V32" s="3">
         <v>15000</v>
       </c>
       <c r="W32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="X32" s="3">
         <v>16000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>24000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="Z32" s="3">
         <v>25000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AA32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D33" s="3" t="s">
-        <v>8</v>
+      <c r="D33" s="3">
+        <v>199000</v>
       </c>
       <c r="E33" s="3">
+        <v>188000</v>
+      </c>
+      <c r="F33" s="3">
         <v>123000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>35000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>18000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-23000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-17000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-88000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-73000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>2000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>24000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>50000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>8000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>72000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>81000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>107000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>51000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>102000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>63000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>102000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>58000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>88000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>90000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2625,161 +2701,170 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D35" s="3" t="s">
-        <v>8</v>
+      <c r="D35" s="3">
+        <v>199000</v>
       </c>
       <c r="E35" s="3">
+        <v>188000</v>
+      </c>
+      <c r="F35" s="3">
         <v>123000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>35000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>18000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-23000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-17000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-88000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-73000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>2000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>24000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>50000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>8000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>72000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>81000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>107000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>51000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>102000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>63000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>102000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>58000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>88000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>90000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E38" s="2">
         <v>44651</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44561</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44469</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44377</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44286</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44196</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44104</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44012</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43921</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43830</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43738</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43646</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43555</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43465</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43373</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43281</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43190</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43100</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43008</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>42916</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>42825</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>42735</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2806,8 +2891,9 @@
       <c r="X39" s="3"/>
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
-    </row>
-    <row r="40" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA39" s="3"/>
+    </row>
+    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2834,82 +2920,86 @@
       <c r="X40" s="3"/>
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
-    </row>
-    <row r="41" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA40" s="3"/>
+    </row>
+    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>570000</v>
+      </c>
+      <c r="E41" s="3">
         <v>440000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>334000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>366000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>405000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>350000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>366000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>279000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>190000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>268000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>270000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>393000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>226000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>720000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>350000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>363000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>317000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>459000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>618000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>550000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>446000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>703000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>681000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="42" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2982,304 +3072,319 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>930000</v>
+      </c>
+      <c r="E43" s="3">
         <v>886000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>703000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>710000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>709000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>679000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>710000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>603000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>575000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>702000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>708000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>729000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>721000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>748000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>716000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>779000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>718000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>742000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>663000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>680000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>626000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>588000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>571000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>918000</v>
+      </c>
+      <c r="E44" s="3">
         <v>937000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>905000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>841000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>784000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>762000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>841000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>673000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>731000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>765000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>782000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>709000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>780000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>804000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>828000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>741000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>735000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>752000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>697000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>636000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>676000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>652000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>647000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>19000</v>
+      </c>
+      <c r="E45" s="3">
         <v>27000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>13000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>14000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>16000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>9000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>9000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>7000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>11000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>3000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>13000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>6000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>9000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>21000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>8000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>18000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>26000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>3000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>62000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>69000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2437000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2290000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>1955000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>1931000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>1914000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1800000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1931000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1564000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1503000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1744000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1771000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1834000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1740000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2278000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1903000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1904000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1778000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1971000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2004000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1869000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1756000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2005000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1968000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3290,58 +3395,58 @@
         <v>9000</v>
       </c>
       <c r="F47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G47" s="3">
         <v>10000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>11000</v>
       </c>
       <c r="H47" s="3">
         <v>11000</v>
       </c>
       <c r="I47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="J47" s="3">
         <v>10000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>11000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>20000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>30000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>34000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>31000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>33000</v>
-      </c>
-      <c r="P47" s="3">
-        <v>32000</v>
       </c>
       <c r="Q47" s="3">
         <v>32000</v>
       </c>
       <c r="R47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="S47" s="3">
         <v>33000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>34000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="U47" s="3">
         <v>38000</v>
       </c>
-      <c r="U47" s="3" t="s">
+      <c r="V47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>26000</v>
-      </c>
-      <c r="W47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
@@ -3349,147 +3454,153 @@
       <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="Z47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3598000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3848000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3747000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3912000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3978000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3865000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3912000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3623000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3530000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3537000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3887000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3512000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3577000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3456000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3465000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3476000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3407000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3542000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3324000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3139000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3014000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>2884000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>2849000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E49" s="3">
         <v>113000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>116000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>110000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>115000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>119000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>110000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>113000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>109000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>81000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>82000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>54000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>57000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>60000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>62000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>63000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>87000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>94000</v>
       </c>
-      <c r="U49" s="3" t="s">
+      <c r="V49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>39000</v>
-      </c>
-      <c r="W49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
@@ -3497,11 +3608,14 @@
       <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="Z49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3574,8 +3688,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3648,82 +3765,88 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>167000</v>
+      </c>
+      <c r="E52" s="3">
         <v>209000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>211000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>223000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>228000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>226000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>223000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>144000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>210000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>196000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>200000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>192000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>207000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>199000</v>
-      </c>
-      <c r="Q52" s="3">
-        <v>194000</v>
       </c>
       <c r="R52" s="3">
         <v>194000</v>
       </c>
       <c r="S52" s="3">
+        <v>194000</v>
+      </c>
+      <c r="T52" s="3">
         <v>161000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>163000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>221000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>174000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>248000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>229000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>228000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3796,82 +3919,88 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6307000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6469000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6038000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6186000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6246000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6021000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6186000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>5455000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>5372000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>5588000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5974000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5623000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5614000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>6025000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5656000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5670000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5467000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5808000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5549000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5247000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5018000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5118000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5045000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3898,8 +4027,9 @@
       <c r="X55" s="3"/>
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
-    </row>
-    <row r="56" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA55" s="3"/>
+    </row>
+    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3926,70 +4056,71 @@
       <c r="X56" s="3"/>
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
-    </row>
-    <row r="57" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA56" s="3"/>
+    </row>
+    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>1113000</v>
+      </c>
+      <c r="E57" s="3">
         <v>1141000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1050000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1131000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>991000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>899000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1996000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>797000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>675000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>870000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>883000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>969000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>838000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>870000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>954000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>1009000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>916000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>908000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>828000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>858000</v>
-      </c>
-      <c r="W57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X57" s="3" t="s">
         <v>8</v>
@@ -3997,381 +4128,399 @@
       <c r="Y57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="Z57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>210000</v>
+      </c>
+      <c r="E58" s="3">
         <v>153000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>154000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>156000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>270000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>268000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>156000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>294000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>314000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>217000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>211000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>181000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>192000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>641000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>129000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>113000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>104000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>151000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>136000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>133000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>129000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>549000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>546000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>34000</v>
+      </c>
+      <c r="E59" s="3">
         <v>29000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>27000</v>
-      </c>
-      <c r="F59" s="3">
-        <v>22000</v>
       </c>
       <c r="G59" s="3">
         <v>22000</v>
       </c>
       <c r="H59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I59" s="3">
         <v>30000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>22000</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>32000</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>44000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>57000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>46000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>64000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>52000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>45000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>152000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>51000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>61000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>57000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>176000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>52000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>821000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>753000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>807000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1357000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1323000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1231000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1309000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1283000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1197000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1309000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1123000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1033000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1144000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1140000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1214000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1082000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1556000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1235000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1173000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1081000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1116000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1140000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1043000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>950000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1302000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1353000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1890000</v>
+      </c>
+      <c r="E61" s="3">
         <v>2080000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>2097000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>2156000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2190000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2152000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2156000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>1942000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>1853000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>1930000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1975000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1713000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1762000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1759000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1778000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1818000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1816000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1940000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1831000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1739000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1635000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1483000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1473000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>681000</v>
+      </c>
+      <c r="E62" s="3">
         <v>722000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>726000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>751000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>791000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>783000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>751000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>758000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>705000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>687000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>788000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>748000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>737000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>723000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>728000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>732000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>728000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>784000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>757000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>718000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>806000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>782000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>777000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4444,8 +4593,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4518,8 +4670,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4592,82 +4747,88 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3928000</v>
+      </c>
+      <c r="E66" s="3">
         <v>4125000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>4054000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>4216000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4264000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4132000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4216000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>3823000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3591000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3761000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3903000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3675000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3581000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>4038000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3741000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3723000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3625000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3840000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3728000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3500000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3391000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3567000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3603000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4694,8 +4855,9 @@
       <c r="X67" s="3"/>
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
-    </row>
-    <row r="68" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA67" s="3"/>
+    </row>
+    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4768,8 +4930,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4842,8 +5007,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4916,8 +5084,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4990,25 +5161,28 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D72" s="3" t="s">
-        <v>8</v>
+      <c r="D72" s="3">
+        <v>1685000</v>
       </c>
       <c r="E72" s="3">
+        <v>1510000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1299000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1209000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1180000</v>
-      </c>
-      <c r="H72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="I72" s="3" t="s">
         <v>8</v>
@@ -5025,8 +5199,8 @@
       <c r="M72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N72" s="3">
-        <v>0</v>
+      <c r="N72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="O72" s="3">
         <v>0</v>
@@ -5064,8 +5238,11 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5138,8 +5315,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5212,8 +5392,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5286,82 +5469,88 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2379000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2344000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>1984000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>1970000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>1982000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1889000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1970000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1632000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1781000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1827000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>2071000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1948000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>2033000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1987000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1915000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1947000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1842000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1968000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1821000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1747000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1627000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1551000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1442000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5434,161 +5623,170 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:26" x14ac:dyDescent="0.2">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:26" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44742</v>
+      </c>
+      <c r="E80" s="2">
         <v>44651</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44561</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44469</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44377</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44286</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44196</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44104</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44012</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43921</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43830</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43738</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43646</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43555</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43465</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43373</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43281</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43190</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43100</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43008</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>42916</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>42825</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>42735</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="D81" s="3" t="s">
-        <v>8</v>
+      <c r="D81" s="3">
+        <v>199000</v>
       </c>
       <c r="E81" s="3">
+        <v>188000</v>
+      </c>
+      <c r="F81" s="3">
         <v>123000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>35000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>18000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-23000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-17000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-88000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-73000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>2000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>24000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>50000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>8000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>72000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>81000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>107000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>51000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>102000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>63000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>102000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>58000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>88000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>90000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5615,82 +5813,86 @@
       <c r="X82" s="3"/>
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
-    </row>
-    <row r="83" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA82" s="3"/>
+    </row>
+    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>84000</v>
+      </c>
+      <c r="E83" s="3">
         <v>91000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>95000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>100000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>98000</v>
-      </c>
-      <c r="H83" s="3">
-        <v>99000</v>
       </c>
       <c r="I83" s="3">
         <v>99000</v>
       </c>
       <c r="J83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="K83" s="3">
         <v>102000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>91000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>97000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>94000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>93000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>89000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>88000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>86000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>87000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>88000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>80000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>83000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>76000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>80000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>83000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5763,8 +5965,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5837,8 +6042,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5911,8 +6119,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5985,8 +6196,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6059,82 +6273,88 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>261000</v>
+      </c>
+      <c r="E89" s="3">
         <v>173000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>71000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>176000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>129000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>13000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>89000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>180000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>11000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>74000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-5000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>306000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>118000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-53000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>102000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>171000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>147000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>13000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>79000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>249000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>116000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>62000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>54000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6161,82 +6381,86 @@
       <c r="X90" s="3"/>
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
-    </row>
-    <row r="91" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA90" s="3"/>
+    </row>
+    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-93000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-69000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-72000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>55000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-79000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-70000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-82000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>130000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-74000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-70000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-112000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>188000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-135000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-106000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>228000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-188000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-119000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-88000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>149000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-78000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-45000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-37000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6309,8 +6533,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6383,82 +6610,88 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-91000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-82000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-143000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-80000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-66000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-89000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-92000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-78000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-74000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-273000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-133000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-135000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-95000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-109000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-145000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-188000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-238000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-93000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-208000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-86000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-37000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6485,8 +6718,9 @@
       <c r="X95" s="3"/>
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
-    </row>
-    <row r="96" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA95" s="3"/>
+    </row>
+    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6559,8 +6793,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6633,8 +6870,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6707,8 +6947,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -6781,226 +7024,238 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:26" x14ac:dyDescent="0.2">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-6000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-5000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-71000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-5000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>104000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-7000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>4000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>147000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>12000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-489000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>531000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>2000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>21000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-71000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>60000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>58000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>51000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-314000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>-6000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E101" s="3">
         <v>7000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-16000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-1000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>11000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-12000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>27000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>7000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-4000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-6000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>8000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-18000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>12000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-13000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-30000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>6000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>24000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>12000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>27000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>12000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>-33000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:26" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>8</v>
+      <c r="D102" s="3">
+        <v>130000</v>
       </c>
       <c r="E102" s="3">
+        <v>106000</v>
+      </c>
+      <c r="F102" s="3">
         <v>-32000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-39000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>55000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-60000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>131000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>89000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-78000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-2000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-123000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>167000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-494000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>370000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-13000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>46000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-142000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-159000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>68000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>104000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-257000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>22000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>-22000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AA102"/>
+  <dimension ref="A5:AC102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,346 +665,371 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E7" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F7" s="2">
         <v>44742</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>44651</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>44561</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>44469</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>44377</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>44286</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>44196</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>44104</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>44012</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>43921</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>43830</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>43738</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>43646</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="S7" s="2">
         <v>43555</v>
       </c>
-      <c r="R7" s="2">
+      <c r="T7" s="2">
         <v>43465</v>
       </c>
-      <c r="S7" s="2">
+      <c r="U7" s="2">
         <v>43373</v>
       </c>
-      <c r="T7" s="2">
+      <c r="V7" s="2">
         <v>43281</v>
       </c>
-      <c r="U7" s="2">
+      <c r="W7" s="2">
         <v>43190</v>
       </c>
-      <c r="V7" s="2">
+      <c r="X7" s="2">
         <v>43100</v>
       </c>
-      <c r="W7" s="2">
+      <c r="Y7" s="2">
         <v>43008</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Z7" s="2">
         <v>42916</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="AA7" s="2">
         <v>42825</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AB7" s="2">
         <v>42735</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AC7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1660000</v>
+      </c>
+      <c r="E8" s="3">
+        <v>1923000</v>
+      </c>
+      <c r="F8" s="3">
         <v>1818000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>1858000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>1697000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="I8" s="3">
         <v>1425000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>1393000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>1284000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>1163000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>1092000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>907000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>1308000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>1302000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>1454000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>1371000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="S8" s="3">
         <v>1503000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="T8" s="3">
         <v>1418000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="U8" s="3">
         <v>1535000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="V8" s="3">
         <v>1445000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="W8" s="3">
         <v>1496000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="X8" s="3">
         <v>1330000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="Y8" s="3">
         <v>1411000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Z8" s="3">
         <v>1260000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="AA8" s="3">
         <v>1316000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AB8" s="3">
         <v>1309000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AC8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1332000</v>
+      </c>
+      <c r="E9" s="3">
+        <v>1475000</v>
+      </c>
+      <c r="F9" s="3">
         <v>1452000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>1512000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>1449000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="I9" s="3">
         <v>1175000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>1263000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>1181000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>1084000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>961000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>917000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>1182000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>1170000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>1270000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>1256000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="S9" s="3">
         <v>1319000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="T9" s="3">
         <v>1216000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="U9" s="3">
         <v>1307000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="V9" s="3">
         <v>1295000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="W9" s="3">
         <v>1269000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="X9" s="3">
         <v>1153000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="Y9" s="3">
         <v>1184000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Z9" s="3">
         <v>1106000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="AA9" s="3">
         <v>1110000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AB9" s="3">
         <v>1108000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AC9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>328000</v>
+      </c>
+      <c r="E10" s="3">
+        <v>448000</v>
+      </c>
+      <c r="F10" s="3">
         <v>366000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>346000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>248000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="I10" s="3">
         <v>250000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>130000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>103000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>79000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>131000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>-10000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>126000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>132000</v>
-      </c>
-      <c r="O10" s="3">
-        <v>184000</v>
-      </c>
-      <c r="P10" s="3">
-        <v>115000</v>
       </c>
       <c r="Q10" s="3">
         <v>184000</v>
       </c>
       <c r="R10" s="3">
+        <v>115000</v>
+      </c>
+      <c r="S10" s="3">
+        <v>184000</v>
+      </c>
+      <c r="T10" s="3">
         <v>202000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="U10" s="3">
         <v>228000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="V10" s="3">
         <v>150000</v>
-      </c>
-      <c r="U10" s="3">
-        <v>227000</v>
-      </c>
-      <c r="V10" s="3">
-        <v>177000</v>
       </c>
       <c r="W10" s="3">
         <v>227000</v>
       </c>
       <c r="X10" s="3">
+        <v>177000</v>
+      </c>
+      <c r="Y10" s="3">
+        <v>227000</v>
+      </c>
+      <c r="Z10" s="3">
         <v>154000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="AA10" s="3">
         <v>206000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AB10" s="3">
         <v>201000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AC10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1032,8 +1057,10 @@
       <c r="Y11" s="3"/>
       <c r="Z11" s="3"/>
       <c r="AA11" s="3"/>
-    </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB11" s="3"/>
+      <c r="AC11" s="3"/>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1109,8 +1136,14 @@
       <c r="AA12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1186,85 +1219,97 @@
       <c r="AA13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB13" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="3">
+        <v>52000</v>
+      </c>
+      <c r="F14" s="3">
         <v>-3000</v>
       </c>
-      <c r="E14" s="3">
+      <c r="G14" s="3">
         <v>-6000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>-5000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="I14" s="3">
         <v>64000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-10000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-18000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="L14" s="3">
         <v>-23000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="M14" s="3">
         <v>49000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-22000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>-22000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>-25000</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>-23000</v>
-      </c>
-      <c r="P14" s="3">
-        <v>-20000</v>
-      </c>
-      <c r="Q14" s="3">
-        <v>-29000</v>
       </c>
       <c r="R14" s="3">
         <v>-20000</v>
       </c>
       <c r="S14" s="3">
+        <v>-29000</v>
+      </c>
+      <c r="T14" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="U14" s="3">
         <v>-14000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="V14" s="3">
         <v>-25000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="W14" s="3">
         <v>-25000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="X14" s="3">
         <v>-32000</v>
       </c>
-      <c r="W14" s="3">
+      <c r="Y14" s="3">
         <v>-20000</v>
       </c>
-      <c r="X14" s="3">
+      <c r="Z14" s="3">
         <v>-17000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="AA14" s="3">
         <v>-16000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AB14" s="3">
         <v>-26000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AC14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1340,8 +1385,14 @@
       <c r="AA15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="AB15" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1366,162 +1417,176 @@
       <c r="Y16" s="3"/>
       <c r="Z16" s="3"/>
       <c r="AA16" s="3"/>
-    </row>
-    <row r="17" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB16" s="3"/>
+      <c r="AC16" s="3"/>
+    </row>
+    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1429000</v>
+      </c>
+      <c r="E17" s="3">
+        <v>1818000</v>
+      </c>
+      <c r="F17" s="3">
         <v>1552000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>1628000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>1528000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="I17" s="3">
         <v>1367000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>1340000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>1265000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>1147000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>1136000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>979000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>1285000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>1247000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>1357000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>1325000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="S17" s="3">
         <v>1386000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="T17" s="3">
         <v>1295000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="U17" s="3">
         <v>1400000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="V17" s="3">
         <v>1361000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="W17" s="3">
         <v>1342000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="X17" s="3">
         <v>1214000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="Y17" s="3">
         <v>1260000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Z17" s="3">
         <v>1170000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="AA17" s="3">
         <v>1174000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AB17" s="3">
         <v>1166000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AC17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E18" s="3">
+        <v>105000</v>
+      </c>
+      <c r="F18" s="3">
         <v>266000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>230000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>169000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="I18" s="3">
         <v>58000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>53000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>19000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>16000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>-44000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>-72000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>23000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>55000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>97000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>46000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="S18" s="3">
         <v>117000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="T18" s="3">
         <v>123000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="U18" s="3">
         <v>135000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="V18" s="3">
         <v>84000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="W18" s="3">
         <v>154000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="X18" s="3">
         <v>116000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="Y18" s="3">
         <v>151000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Z18" s="3">
         <v>90000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="AA18" s="3">
         <v>142000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AB18" s="3">
         <v>143000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AC18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1549,185 +1614,199 @@
       <c r="Y19" s="3"/>
       <c r="Z19" s="3"/>
       <c r="AA19" s="3"/>
-    </row>
-    <row r="20" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB19" s="3"/>
+      <c r="AC19" s="3"/>
+    </row>
+    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>0</v>
+      </c>
+      <c r="E20" s="3">
         <v>-22000</v>
       </c>
-      <c r="E20" s="3">
-        <v>-26000</v>
-      </c>
       <c r="F20" s="3">
-        <v>-27000</v>
+        <v>-22000</v>
       </c>
       <c r="G20" s="3">
         <v>-26000</v>
       </c>
       <c r="H20" s="3">
+        <v>-27000</v>
+      </c>
+      <c r="I20" s="3">
+        <v>-26000</v>
+      </c>
+      <c r="J20" s="3">
         <v>-28000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>-46000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-34000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>-21000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>-24000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>-23000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>-20000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>-18000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-28000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="S20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="R20" s="3">
-        <v>-17000</v>
-      </c>
-      <c r="S20" s="3">
-        <v>-14000</v>
       </c>
       <c r="T20" s="3">
         <v>-17000</v>
       </c>
       <c r="U20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="V20" s="3">
+        <v>-17000</v>
+      </c>
+      <c r="W20" s="3">
         <v>-20000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="X20" s="3">
         <v>-15000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="Y20" s="3">
         <v>-15000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Z20" s="3">
         <v>-16000</v>
       </c>
-      <c r="Y20" s="3">
+      <c r="AA20" s="3">
         <v>-24000</v>
       </c>
-      <c r="Z20" s="3">
+      <c r="AB20" s="3">
         <v>-25000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AC20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>311000</v>
+      </c>
+      <c r="E21" s="3">
+        <v>169000</v>
+      </c>
+      <c r="F21" s="3">
         <v>328000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>295000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>237000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="I21" s="3">
         <v>132000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>123000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>72000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>81000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>37000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>-5000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>97000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>129000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>172000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>107000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="S21" s="3">
         <v>185000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="T21" s="3">
         <v>192000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="U21" s="3">
         <v>214000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="V21" s="3">
         <v>154000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="W21" s="3">
         <v>222000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="X21" s="3">
         <v>181000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="Y21" s="3">
         <v>219000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Z21" s="3">
         <v>150000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="AA21" s="3">
         <v>198000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AB21" s="3">
         <v>201000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AC21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="I22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>8</v>
+      <c r="D22" s="3">
+        <v>0</v>
+      </c>
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+      <c r="F22" s="3">
+        <v>0</v>
+      </c>
+      <c r="G22" s="3">
+        <v>0</v>
+      </c>
+      <c r="H22" s="3">
+        <v>0</v>
+      </c>
+      <c r="I22" s="3">
+        <v>0</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
       </c>
       <c r="K22" s="3" t="s">
         <v>8</v>
@@ -1741,32 +1820,32 @@
       <c r="N22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O22" s="3">
+      <c r="O22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q22" s="3">
         <v>2000</v>
       </c>
-      <c r="P22" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="3">
-        <v>0</v>
-      </c>
-      <c r="R22" s="3" t="s">
+      <c r="R22" s="3">
+        <v>0</v>
+      </c>
+      <c r="S22" s="3">
+        <v>0</v>
+      </c>
+      <c r="T22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3">
         <v>1000</v>
       </c>
-      <c r="U22" s="3">
+      <c r="W22" s="3">
         <v>1000</v>
-      </c>
-      <c r="V22" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W22" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="X22" s="3" t="s">
         <v>8</v>
@@ -1780,162 +1859,180 @@
       <c r="AA22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>231000</v>
+      </c>
+      <c r="E23" s="3">
+        <v>83000</v>
+      </c>
+      <c r="F23" s="3">
         <v>244000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>204000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>142000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="I23" s="3">
         <v>32000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>25000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>-27000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-65000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>-96000</v>
       </c>
-      <c r="M23" s="3">
-        <v>0</v>
-      </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
+        <v>0</v>
+      </c>
+      <c r="P23" s="3">
         <v>35000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>77000</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>18000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="S23" s="3">
         <v>97000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="T23" s="3">
         <v>106000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="U23" s="3">
         <v>121000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="V23" s="3">
         <v>66000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="W23" s="3">
         <v>133000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="X23" s="3">
         <v>101000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="Y23" s="3">
         <v>136000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Z23" s="3">
         <v>74000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="AA23" s="3">
         <v>118000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AB23" s="3">
         <v>118000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AC23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>41000</v>
+      </c>
+      <c r="E24" s="3">
+        <v>57000</v>
+      </c>
+      <c r="F24" s="3">
         <v>45000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>16000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>19000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>-3000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>7000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>-4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>-1000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>23000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>-23000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>11000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>27000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>10000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="S24" s="3">
         <v>25000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="T24" s="3">
         <v>25000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="U24" s="3">
         <v>14000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="V24" s="3">
         <v>15000</v>
       </c>
-      <c r="U24" s="3">
+      <c r="W24" s="3">
         <v>31000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="X24" s="3">
         <v>38000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="Y24" s="3">
         <v>34000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Z24" s="3">
         <v>16000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="AA24" s="3">
         <v>30000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AB24" s="3">
         <v>28000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AC24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2011,162 +2108,180 @@
       <c r="AA25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB25" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F26" s="3">
         <v>199000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>188000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>123000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="I26" s="3">
         <v>35000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>18000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>-23000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-17000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>-88000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-73000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>2000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>24000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>50000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>8000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="S26" s="3">
         <v>72000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="T26" s="3">
         <v>81000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="U26" s="3">
         <v>107000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="V26" s="3">
         <v>51000</v>
-      </c>
-      <c r="U26" s="3">
-        <v>102000</v>
-      </c>
-      <c r="V26" s="3">
-        <v>63000</v>
       </c>
       <c r="W26" s="3">
         <v>102000</v>
       </c>
       <c r="X26" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Y26" s="3">
+        <v>102000</v>
+      </c>
+      <c r="Z26" s="3">
         <v>58000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="AA26" s="3">
         <v>88000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AB26" s="3">
         <v>90000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AC26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E27" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F27" s="3">
         <v>199000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>188000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>123000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="I27" s="3">
         <v>35000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>-23000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-17000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>-88000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-73000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>2000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>24000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>50000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>8000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="S27" s="3">
         <v>72000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="T27" s="3">
         <v>81000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="U27" s="3">
         <v>107000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="V27" s="3">
         <v>51000</v>
-      </c>
-      <c r="U27" s="3">
-        <v>102000</v>
-      </c>
-      <c r="V27" s="3">
-        <v>63000</v>
       </c>
       <c r="W27" s="3">
         <v>102000</v>
       </c>
       <c r="X27" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Y27" s="3">
+        <v>102000</v>
+      </c>
+      <c r="Z27" s="3">
         <v>58000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="AA27" s="3">
         <v>88000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AB27" s="3">
         <v>90000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AC27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2242,8 +2357,14 @@
       <c r="AA28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB28" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2440,14 @@
       <c r="AA29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB29" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2396,8 +2523,14 @@
       <c r="AA30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB30" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2473,162 +2606,180 @@
       <c r="AA31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB31" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>0</v>
+      </c>
+      <c r="E32" s="3">
         <v>22000</v>
       </c>
-      <c r="E32" s="3">
-        <v>26000</v>
-      </c>
       <c r="F32" s="3">
-        <v>27000</v>
+        <v>22000</v>
       </c>
       <c r="G32" s="3">
         <v>26000</v>
       </c>
       <c r="H32" s="3">
+        <v>27000</v>
+      </c>
+      <c r="I32" s="3">
+        <v>26000</v>
+      </c>
+      <c r="J32" s="3">
         <v>28000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>46000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>34000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>21000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>24000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>23000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>20000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>18000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>28000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="S32" s="3">
         <v>20000</v>
-      </c>
-      <c r="R32" s="3">
-        <v>17000</v>
-      </c>
-      <c r="S32" s="3">
-        <v>14000</v>
       </c>
       <c r="T32" s="3">
         <v>17000</v>
       </c>
       <c r="U32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="V32" s="3">
+        <v>17000</v>
+      </c>
+      <c r="W32" s="3">
         <v>20000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="X32" s="3">
         <v>15000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="Y32" s="3">
         <v>15000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Z32" s="3">
         <v>16000</v>
       </c>
-      <c r="Y32" s="3">
+      <c r="AA32" s="3">
         <v>24000</v>
       </c>
-      <c r="Z32" s="3">
+      <c r="AB32" s="3">
         <v>25000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AC32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E33" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F33" s="3">
         <v>199000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>188000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>123000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>35000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>18000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>-23000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-17000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-88000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-73000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>2000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>24000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>50000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>8000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="S33" s="3">
         <v>72000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="T33" s="3">
         <v>81000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="U33" s="3">
         <v>107000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="V33" s="3">
         <v>51000</v>
-      </c>
-      <c r="U33" s="3">
-        <v>102000</v>
-      </c>
-      <c r="V33" s="3">
-        <v>63000</v>
       </c>
       <c r="W33" s="3">
         <v>102000</v>
       </c>
       <c r="X33" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Y33" s="3">
+        <v>102000</v>
+      </c>
+      <c r="Z33" s="3">
         <v>58000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="AA33" s="3">
         <v>88000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AB33" s="3">
         <v>90000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AC33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2704,167 +2855,185 @@
       <c r="AA34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB34" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E35" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F35" s="3">
         <v>199000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>188000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>123000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>35000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>18000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>-23000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-17000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-88000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-73000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>2000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>24000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>50000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>8000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="S35" s="3">
         <v>72000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="T35" s="3">
         <v>81000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="U35" s="3">
         <v>107000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="V35" s="3">
         <v>51000</v>
-      </c>
-      <c r="U35" s="3">
-        <v>102000</v>
-      </c>
-      <c r="V35" s="3">
-        <v>63000</v>
       </c>
       <c r="W35" s="3">
         <v>102000</v>
       </c>
       <c r="X35" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Y35" s="3">
+        <v>102000</v>
+      </c>
+      <c r="Z35" s="3">
         <v>58000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="AA35" s="3">
         <v>88000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AB35" s="3">
         <v>90000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AC35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E38" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F38" s="2">
         <v>44742</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>44651</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>44561</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>44469</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>44377</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>44286</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>44196</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>44104</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>44012</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>43921</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>43830</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>43738</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>43646</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="S38" s="2">
         <v>43555</v>
       </c>
-      <c r="R38" s="2">
+      <c r="T38" s="2">
         <v>43465</v>
       </c>
-      <c r="S38" s="2">
+      <c r="U38" s="2">
         <v>43373</v>
       </c>
-      <c r="T38" s="2">
+      <c r="V38" s="2">
         <v>43281</v>
       </c>
-      <c r="U38" s="2">
+      <c r="W38" s="2">
         <v>43190</v>
       </c>
-      <c r="V38" s="2">
+      <c r="X38" s="2">
         <v>43100</v>
       </c>
-      <c r="W38" s="2">
+      <c r="Y38" s="2">
         <v>43008</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Z38" s="2">
         <v>42916</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="AA38" s="2">
         <v>42825</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AB38" s="2">
         <v>42735</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AC38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2892,8 +3061,10 @@
       <c r="Y39" s="3"/>
       <c r="Z39" s="3"/>
       <c r="AA39" s="3"/>
-    </row>
-    <row r="40" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB39" s="3"/>
+      <c r="AC39" s="3"/>
+    </row>
+    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2921,85 +3092,93 @@
       <c r="Y40" s="3"/>
       <c r="Z40" s="3"/>
       <c r="AA40" s="3"/>
-    </row>
-    <row r="41" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB40" s="3"/>
+      <c r="AC40" s="3"/>
+    </row>
+    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>593000</v>
+      </c>
+      <c r="E41" s="3">
+        <v>780000</v>
+      </c>
+      <c r="F41" s="3">
         <v>570000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>440000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>334000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>366000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>405000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>350000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>366000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>279000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>190000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>268000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>270000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>393000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>226000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="S41" s="3">
         <v>720000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="T41" s="3">
         <v>350000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="U41" s="3">
         <v>363000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="V41" s="3">
         <v>317000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="W41" s="3">
         <v>459000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="X41" s="3">
         <v>618000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="Y41" s="3">
         <v>550000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Z41" s="3">
         <v>446000</v>
-      </c>
-      <c r="Y41" s="3">
-        <v>703000</v>
-      </c>
-      <c r="Z41" s="3">
-        <v>681000</v>
       </c>
       <c r="AA41" s="3">
         <v>703000</v>
       </c>
-    </row>
-    <row r="42" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB41" s="3">
+        <v>681000</v>
+      </c>
+      <c r="AC41" s="3">
+        <v>703000</v>
+      </c>
+    </row>
+    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3075,316 +3254,346 @@
       <c r="AA42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB42" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>847000</v>
+      </c>
+      <c r="E43" s="3">
+        <v>940000</v>
+      </c>
+      <c r="F43" s="3">
         <v>930000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>886000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>703000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>710000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>709000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>679000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>710000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>603000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>575000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>702000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>708000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>729000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>721000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="S43" s="3">
         <v>748000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="T43" s="3">
         <v>716000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="U43" s="3">
         <v>779000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="V43" s="3">
         <v>718000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="W43" s="3">
         <v>742000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="X43" s="3">
         <v>663000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="Y43" s="3">
         <v>680000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Z43" s="3">
         <v>626000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="AA43" s="3">
         <v>588000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AB43" s="3">
         <v>571000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AC43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>848000</v>
+      </c>
+      <c r="E44" s="3">
+        <v>780000</v>
+      </c>
+      <c r="F44" s="3">
         <v>918000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="G44" s="3">
         <v>937000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="H44" s="3">
         <v>905000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="I44" s="3">
         <v>841000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="J44" s="3">
         <v>784000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="K44" s="3">
         <v>762000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="L44" s="3">
         <v>841000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="M44" s="3">
         <v>673000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="N44" s="3">
         <v>731000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="O44" s="3">
         <v>765000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="P44" s="3">
         <v>782000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>709000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>780000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="S44" s="3">
         <v>804000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="T44" s="3">
         <v>828000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="U44" s="3">
         <v>741000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="V44" s="3">
         <v>735000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="W44" s="3">
         <v>752000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="X44" s="3">
         <v>697000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="Y44" s="3">
         <v>636000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Z44" s="3">
         <v>676000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="AA44" s="3">
         <v>652000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AB44" s="3">
         <v>647000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AC44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>317000</v>
+      </c>
+      <c r="E45" s="3">
+        <v>299000</v>
+      </c>
+      <c r="F45" s="3">
         <v>19000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="G45" s="3">
         <v>27000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="H45" s="3">
         <v>13000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="I45" s="3">
         <v>14000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="J45" s="3">
         <v>16000</v>
-      </c>
-      <c r="I45" s="3">
-        <v>9000</v>
-      </c>
-      <c r="J45" s="3">
-        <v>14000</v>
       </c>
       <c r="K45" s="3">
         <v>9000</v>
       </c>
       <c r="L45" s="3">
-        <v>7000</v>
+        <v>14000</v>
       </c>
       <c r="M45" s="3">
         <v>9000</v>
       </c>
       <c r="N45" s="3">
+        <v>7000</v>
+      </c>
+      <c r="O45" s="3">
+        <v>9000</v>
+      </c>
+      <c r="P45" s="3">
         <v>11000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>3000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>13000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="S45" s="3">
         <v>6000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="T45" s="3">
         <v>9000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="U45" s="3">
         <v>21000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="V45" s="3">
         <v>8000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="W45" s="3">
         <v>18000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="X45" s="3">
         <v>26000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="Y45" s="3">
         <v>3000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Z45" s="3">
         <v>8000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="AA45" s="3">
         <v>62000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AB45" s="3">
         <v>69000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AC45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2605000</v>
+      </c>
+      <c r="E46" s="3">
+        <v>2799000</v>
+      </c>
+      <c r="F46" s="3">
         <v>2437000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="G46" s="3">
         <v>2290000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="H46" s="3">
         <v>1955000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="I46" s="3">
         <v>1931000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="J46" s="3">
         <v>1914000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="K46" s="3">
         <v>1800000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>1931000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>1564000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>1503000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>1744000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>1771000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>1834000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>1740000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="S46" s="3">
         <v>2278000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="T46" s="3">
         <v>1903000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="U46" s="3">
         <v>1904000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="V46" s="3">
         <v>1778000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="W46" s="3">
         <v>1971000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="X46" s="3">
         <v>2004000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="Y46" s="3">
         <v>1869000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Z46" s="3">
         <v>1756000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="AA46" s="3">
         <v>2005000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AB46" s="3">
         <v>1968000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AC46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3392,230 +3601,248 @@
         <v>9000</v>
       </c>
       <c r="E47" s="3">
-        <v>9000</v>
+        <v>8000</v>
       </c>
       <c r="F47" s="3">
         <v>9000</v>
       </c>
       <c r="G47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="H47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="I47" s="3">
         <v>10000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="J47" s="3">
         <v>11000</v>
-      </c>
-      <c r="I47" s="3">
-        <v>11000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>10000</v>
       </c>
       <c r="K47" s="3">
         <v>11000</v>
       </c>
       <c r="L47" s="3">
+        <v>10000</v>
+      </c>
+      <c r="M47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N47" s="3">
         <v>20000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="O47" s="3">
         <v>30000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="P47" s="3">
         <v>34000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="Q47" s="3">
         <v>31000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="R47" s="3">
         <v>33000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="S47" s="3">
         <v>32000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="T47" s="3">
         <v>32000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="U47" s="3">
         <v>33000</v>
       </c>
-      <c r="T47" s="3">
+      <c r="V47" s="3">
         <v>34000</v>
       </c>
-      <c r="U47" s="3">
+      <c r="W47" s="3">
         <v>38000</v>
-      </c>
-      <c r="V47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="3">
-        <v>26000</v>
       </c>
       <c r="X47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3" t="s">
-        <v>8</v>
+      <c r="Y47" s="3">
+        <v>26000</v>
       </c>
       <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA47" s="3">
+      <c r="AA47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3337000</v>
+      </c>
+      <c r="E48" s="3">
+        <v>3163000</v>
+      </c>
+      <c r="F48" s="3">
         <v>3598000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="G48" s="3">
         <v>3848000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>3747000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>3912000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>3978000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>3865000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>3912000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>3623000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>3530000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>3537000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>3887000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>3512000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>3577000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="S48" s="3">
         <v>3456000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="T48" s="3">
         <v>3465000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="U48" s="3">
         <v>3476000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="V48" s="3">
         <v>3407000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="W48" s="3">
         <v>3542000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="X48" s="3">
         <v>3324000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="Y48" s="3">
         <v>3139000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Z48" s="3">
         <v>3014000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="AA48" s="3">
         <v>2884000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AB48" s="3">
         <v>2849000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AC48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>104000</v>
+      </c>
+      <c r="E49" s="3">
+        <v>89000</v>
+      </c>
+      <c r="F49" s="3">
         <v>96000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>113000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>116000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>110000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>115000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>119000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>110000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>113000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>109000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>81000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>82000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>54000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>57000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="S49" s="3">
         <v>60000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="T49" s="3">
         <v>62000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="U49" s="3">
         <v>63000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="V49" s="3">
         <v>87000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="W49" s="3">
         <v>94000</v>
-      </c>
-      <c r="V49" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="W49" s="3">
-        <v>39000</v>
       </c>
       <c r="X49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3" t="s">
-        <v>8</v>
+      <c r="Y49" s="3">
+        <v>39000</v>
       </c>
       <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA49" s="3">
+      <c r="AA49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3691,8 +3918,14 @@
       <c r="AA50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB50" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3768,85 +4001,97 @@
       <c r="AA51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB51" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>178000</v>
+      </c>
+      <c r="E52" s="3">
+        <v>170000</v>
+      </c>
+      <c r="F52" s="3">
         <v>167000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="G52" s="3">
         <v>209000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="H52" s="3">
         <v>211000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="I52" s="3">
         <v>223000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="J52" s="3">
         <v>228000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="K52" s="3">
         <v>226000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>223000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>144000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>210000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>196000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>200000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>192000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>207000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="S52" s="3">
         <v>199000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="T52" s="3">
         <v>194000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="U52" s="3">
         <v>194000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="V52" s="3">
         <v>161000</v>
       </c>
-      <c r="U52" s="3">
+      <c r="W52" s="3">
         <v>163000</v>
       </c>
-      <c r="V52" s="3">
+      <c r="X52" s="3">
         <v>221000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="Y52" s="3">
         <v>174000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Z52" s="3">
         <v>248000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="AA52" s="3">
         <v>229000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AB52" s="3">
         <v>228000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AC52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3922,85 +4167,97 @@
       <c r="AA53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB53" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6233000</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6229000</v>
+      </c>
+      <c r="F54" s="3">
         <v>6307000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6469000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6038000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6186000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6246000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>6021000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>6186000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>5455000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>5372000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>5588000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>5974000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>5623000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>5614000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="S54" s="3">
         <v>6025000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="T54" s="3">
         <v>5656000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="U54" s="3">
         <v>5670000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="V54" s="3">
         <v>5467000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="W54" s="3">
         <v>5808000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="X54" s="3">
         <v>5549000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="Y54" s="3">
         <v>5247000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Z54" s="3">
         <v>5018000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="AA54" s="3">
         <v>5118000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AB54" s="3">
         <v>5045000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AC54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4028,8 +4285,10 @@
       <c r="Y55" s="3"/>
       <c r="Z55" s="3"/>
       <c r="AA55" s="3"/>
-    </row>
-    <row r="56" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB55" s="3"/>
+      <c r="AC55" s="3"/>
+    </row>
+    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4057,470 +4316,508 @@
       <c r="Y56" s="3"/>
       <c r="Z56" s="3"/>
       <c r="AA56" s="3"/>
-    </row>
-    <row r="57" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB56" s="3"/>
+      <c r="AC56" s="3"/>
+    </row>
+    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>796000</v>
+      </c>
+      <c r="E57" s="3">
+        <v>1045000</v>
+      </c>
+      <c r="F57" s="3">
         <v>1113000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>1141000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>1050000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>1131000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>991000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>899000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>1996000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>797000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>675000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>870000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>883000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>969000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="R57" s="3">
         <v>838000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="S57" s="3">
         <v>870000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="T57" s="3">
         <v>954000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="U57" s="3">
         <v>1009000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="V57" s="3">
         <v>916000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="W57" s="3">
         <v>908000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="X57" s="3">
         <v>828000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="Y57" s="3">
         <v>858000</v>
-      </c>
-      <c r="X57" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Z57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AA57" s="3">
+      <c r="AA57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E58" s="3">
+        <v>189000</v>
+      </c>
+      <c r="F58" s="3">
         <v>210000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="G58" s="3">
         <v>153000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="H58" s="3">
         <v>154000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="I58" s="3">
         <v>156000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="J58" s="3">
         <v>270000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="K58" s="3">
         <v>268000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="L58" s="3">
         <v>156000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="M58" s="3">
         <v>294000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="N58" s="3">
         <v>314000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="O58" s="3">
         <v>217000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="P58" s="3">
         <v>211000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="Q58" s="3">
         <v>181000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="R58" s="3">
         <v>192000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="S58" s="3">
         <v>641000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="T58" s="3">
         <v>129000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="U58" s="3">
         <v>113000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="V58" s="3">
         <v>104000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="W58" s="3">
         <v>151000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="X58" s="3">
         <v>136000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="Y58" s="3">
         <v>133000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Z58" s="3">
         <v>129000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="AA58" s="3">
         <v>549000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AB58" s="3">
         <v>546000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AC58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>415000</v>
+      </c>
+      <c r="E59" s="3">
+        <v>290000</v>
+      </c>
+      <c r="F59" s="3">
         <v>34000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="G59" s="3">
         <v>29000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="H59" s="3">
         <v>27000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="I59" s="3">
         <v>22000</v>
-      </c>
-      <c r="H59" s="3">
-        <v>22000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>30000</v>
       </c>
       <c r="J59" s="3">
         <v>22000</v>
       </c>
       <c r="K59" s="3">
+        <v>30000</v>
+      </c>
+      <c r="L59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M59" s="3">
         <v>32000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>44000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>57000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>46000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>64000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>52000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="S59" s="3">
         <v>45000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="T59" s="3">
         <v>152000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="U59" s="3">
         <v>51000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="V59" s="3">
         <v>61000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="W59" s="3">
         <v>57000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="X59" s="3">
         <v>176000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="Y59" s="3">
         <v>52000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Z59" s="3">
         <v>821000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="AA59" s="3">
         <v>753000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AB59" s="3">
         <v>807000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AC59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1415000</v>
+      </c>
+      <c r="E60" s="3">
+        <v>1524000</v>
+      </c>
+      <c r="F60" s="3">
         <v>1357000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="G60" s="3">
         <v>1323000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="H60" s="3">
         <v>1231000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="I60" s="3">
         <v>1309000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="J60" s="3">
         <v>1283000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="K60" s="3">
         <v>1197000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>1309000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>1123000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>1033000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>1144000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>1140000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>1214000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>1082000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="S60" s="3">
         <v>1556000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="T60" s="3">
         <v>1235000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="U60" s="3">
         <v>1173000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="V60" s="3">
         <v>1081000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="W60" s="3">
         <v>1116000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="X60" s="3">
         <v>1140000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="Y60" s="3">
         <v>1043000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Z60" s="3">
         <v>950000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="AA60" s="3">
         <v>1302000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AB60" s="3">
         <v>1353000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AC60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1630000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>1754000</v>
+      </c>
+      <c r="F61" s="3">
         <v>1890000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>2080000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>2097000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>2156000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>2190000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>2152000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>2156000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>1942000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>1853000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>1930000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>1975000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>1713000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>1762000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="S61" s="3">
         <v>1759000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="T61" s="3">
         <v>1778000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="U61" s="3">
         <v>1818000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="V61" s="3">
         <v>1816000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="W61" s="3">
         <v>1940000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="X61" s="3">
         <v>1831000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="Y61" s="3">
         <v>1739000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Z61" s="3">
         <v>1635000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="AA61" s="3">
         <v>1483000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AB61" s="3">
         <v>1473000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AC61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>650000</v>
+      </c>
+      <c r="E62" s="3">
+        <v>593000</v>
+      </c>
+      <c r="F62" s="3">
         <v>681000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="G62" s="3">
         <v>722000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="H62" s="3">
         <v>726000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="I62" s="3">
         <v>751000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="J62" s="3">
         <v>791000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="K62" s="3">
         <v>783000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>751000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>758000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>705000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>687000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>788000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>748000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>737000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="S62" s="3">
         <v>723000</v>
-      </c>
-      <c r="R62" s="3">
-        <v>728000</v>
-      </c>
-      <c r="S62" s="3">
-        <v>732000</v>
       </c>
       <c r="T62" s="3">
         <v>728000</v>
       </c>
       <c r="U62" s="3">
+        <v>732000</v>
+      </c>
+      <c r="V62" s="3">
+        <v>728000</v>
+      </c>
+      <c r="W62" s="3">
         <v>784000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="X62" s="3">
         <v>757000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="Y62" s="3">
         <v>718000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Z62" s="3">
         <v>806000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="AA62" s="3">
         <v>782000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AB62" s="3">
         <v>777000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AC62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4596,8 +4893,14 @@
       <c r="AA63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB63" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4673,8 +4976,14 @@
       <c r="AA64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB64" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -4750,85 +5059,97 @@
       <c r="AA65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB65" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3695000</v>
+      </c>
+      <c r="E66" s="3">
+        <v>3871000</v>
+      </c>
+      <c r="F66" s="3">
         <v>3928000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>4125000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>4054000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>4216000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>4264000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>4132000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>4216000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3823000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>3591000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>3761000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>3903000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>3675000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>3581000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="S66" s="3">
         <v>4038000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="T66" s="3">
         <v>3741000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="U66" s="3">
         <v>3723000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="V66" s="3">
         <v>3625000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="W66" s="3">
         <v>3840000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="X66" s="3">
         <v>3728000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="Y66" s="3">
         <v>3500000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Z66" s="3">
         <v>3391000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="AA66" s="3">
         <v>3567000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AB66" s="3">
         <v>3603000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AC66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4856,8 +5177,10 @@
       <c r="Y67" s="3"/>
       <c r="Z67" s="3"/>
       <c r="AA67" s="3"/>
-    </row>
-    <row r="68" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB67" s="3"/>
+      <c r="AC67" s="3"/>
+    </row>
+    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4933,8 +5256,14 @@
       <c r="AA68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB68" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5010,8 +5339,14 @@
       <c r="AA69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB69" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5087,8 +5422,14 @@
       <c r="AA70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB70" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5164,31 +5505,37 @@
       <c r="AA71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB71" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1885000</v>
+      </c>
+      <c r="E72" s="3">
+        <v>1780000</v>
+      </c>
+      <c r="F72" s="3">
         <v>1685000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>1510000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>1299000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>1209000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>1180000</v>
-      </c>
-      <c r="I72" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="K72" s="3" t="s">
         <v>8</v>
@@ -5202,11 +5549,11 @@
       <c r="N72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O72" s="3">
-        <v>0</v>
-      </c>
-      <c r="P72" s="3">
-        <v>0</v>
+      <c r="O72" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="Q72" s="3">
         <v>0</v>
@@ -5241,8 +5588,14 @@
       <c r="AA72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB72" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5318,8 +5671,14 @@
       <c r="AA73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB73" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5395,8 +5754,14 @@
       <c r="AA74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB74" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5472,85 +5837,97 @@
       <c r="AA75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB75" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2538000</v>
+      </c>
+      <c r="E76" s="3">
+        <v>2358000</v>
+      </c>
+      <c r="F76" s="3">
         <v>2379000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>2344000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>1984000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>1970000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>1982000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>1889000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>1970000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>1632000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>1781000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>1827000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>2071000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>1948000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>2033000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="S76" s="3">
         <v>1987000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="T76" s="3">
         <v>1915000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="U76" s="3">
         <v>1947000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="V76" s="3">
         <v>1842000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="W76" s="3">
         <v>1968000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="X76" s="3">
         <v>1821000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="Y76" s="3">
         <v>1747000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Z76" s="3">
         <v>1627000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="AA76" s="3">
         <v>1551000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AB76" s="3">
         <v>1442000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AC76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -5626,167 +6003,185 @@
       <c r="AA77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:27" x14ac:dyDescent="0.2">
+      <c r="AB77" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:27" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44926</v>
+      </c>
+      <c r="E80" s="2">
+        <v>44834</v>
+      </c>
+      <c r="F80" s="2">
         <v>44742</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>44651</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>44561</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>44469</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>44377</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>44286</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>44196</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>44104</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>44012</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>43921</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>43830</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>43738</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>43646</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="S80" s="2">
         <v>43555</v>
       </c>
-      <c r="R80" s="2">
+      <c r="T80" s="2">
         <v>43465</v>
       </c>
-      <c r="S80" s="2">
+      <c r="U80" s="2">
         <v>43373</v>
       </c>
-      <c r="T80" s="2">
+      <c r="V80" s="2">
         <v>43281</v>
       </c>
-      <c r="U80" s="2">
+      <c r="W80" s="2">
         <v>43190</v>
       </c>
-      <c r="V80" s="2">
+      <c r="X80" s="2">
         <v>43100</v>
       </c>
-      <c r="W80" s="2">
+      <c r="Y80" s="2">
         <v>43008</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Z80" s="2">
         <v>42916</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="AA80" s="2">
         <v>42825</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AB80" s="2">
         <v>42735</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AC80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>190000</v>
+      </c>
+      <c r="E81" s="3">
+        <v>26000</v>
+      </c>
+      <c r="F81" s="3">
         <v>199000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>188000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>123000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>35000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>18000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>-23000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-17000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-88000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-73000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>2000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>24000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>50000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>8000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="S81" s="3">
         <v>72000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="T81" s="3">
         <v>81000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="U81" s="3">
         <v>107000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="V81" s="3">
         <v>51000</v>
-      </c>
-      <c r="U81" s="3">
-        <v>102000</v>
-      </c>
-      <c r="V81" s="3">
-        <v>63000</v>
       </c>
       <c r="W81" s="3">
         <v>102000</v>
       </c>
       <c r="X81" s="3">
+        <v>63000</v>
+      </c>
+      <c r="Y81" s="3">
+        <v>102000</v>
+      </c>
+      <c r="Z81" s="3">
         <v>58000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="AA81" s="3">
         <v>88000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AB81" s="3">
         <v>90000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AC81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -5814,85 +6209,93 @@
       <c r="Y82" s="3"/>
       <c r="Z82" s="3"/>
       <c r="AA82" s="3"/>
-    </row>
-    <row r="83" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB82" s="3"/>
+      <c r="AC82" s="3"/>
+    </row>
+    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>80000</v>
+      </c>
+      <c r="E83" s="3">
+        <v>86000</v>
+      </c>
+      <c r="F83" s="3">
         <v>84000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>91000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>95000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>100000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>98000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>99000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>99000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>102000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>91000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>97000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>94000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>93000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>89000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="S83" s="3">
         <v>88000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="T83" s="3">
         <v>86000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="U83" s="3">
         <v>93000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="V83" s="3">
         <v>87000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="W83" s="3">
         <v>88000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="X83" s="3">
         <v>80000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="Y83" s="3">
         <v>83000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Z83" s="3">
         <v>76000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="AA83" s="3">
         <v>80000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AB83" s="3">
         <v>83000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AC83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -5968,8 +6371,14 @@
       <c r="AA84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB84" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6045,8 +6454,14 @@
       <c r="AA85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB85" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6122,8 +6537,14 @@
       <c r="AA86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB86" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6199,8 +6620,14 @@
       <c r="AA87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB87" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6276,85 +6703,97 @@
       <c r="AA88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB88" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>85000</v>
+      </c>
+      <c r="E89" s="3">
+        <v>377000</v>
+      </c>
+      <c r="F89" s="3">
         <v>261000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>173000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>71000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>176000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>129000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>13000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>89000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>180000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>11000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>74000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>-5000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>306000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>118000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="S89" s="3">
         <v>-53000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="T89" s="3">
         <v>102000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="U89" s="3">
         <v>171000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="V89" s="3">
         <v>147000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="W89" s="3">
         <v>13000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="X89" s="3">
         <v>79000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="Y89" s="3">
         <v>249000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Z89" s="3">
         <v>116000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="AA89" s="3">
         <v>62000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AB89" s="3">
         <v>54000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AC89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6382,85 +6821,93 @@
       <c r="Y90" s="3"/>
       <c r="Z90" s="3"/>
       <c r="AA90" s="3"/>
-    </row>
-    <row r="91" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB90" s="3"/>
+      <c r="AC90" s="3"/>
+    </row>
+    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-58000</v>
+      </c>
+      <c r="E91" s="3">
+        <v>62000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-93000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-69000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-72000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>55000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-79000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-70000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-82000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>130000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-74000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-70000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-112000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>188000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="S91" s="3">
         <v>-95000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="T91" s="3">
         <v>-106000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="U91" s="3">
         <v>228000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="V91" s="3">
         <v>-188000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="W91" s="3">
         <v>-119000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="X91" s="3">
         <v>-88000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="Y91" s="3">
         <v>149000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Z91" s="3">
         <v>-78000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="AA91" s="3">
         <v>-45000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AB91" s="3">
         <v>-37000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AC91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6536,8 +6983,14 @@
       <c r="AA92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB92" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -6613,85 +7066,97 @@
       <c r="AA93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB93" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-135000</v>
+      </c>
+      <c r="F94" s="3">
         <v>-91000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-68000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-82000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-143000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>-80000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>-66000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-89000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-92000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-78000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-74000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-273000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-133000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-135000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="S94" s="3">
         <v>-95000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="T94" s="3">
         <v>-109000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="U94" s="3">
         <v>-145000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="V94" s="3">
         <v>-188000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="W94" s="3">
         <v>-238000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="X94" s="3">
         <v>-93000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="Y94" s="3">
         <v>-208000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Z94" s="3">
         <v>-86000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="AA94" s="3">
         <v>-42000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AB94" s="3">
         <v>-37000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AC94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -6719,8 +7184,10 @@
       <c r="Y95" s="3"/>
       <c r="Z95" s="3"/>
       <c r="AA95" s="3"/>
-    </row>
-    <row r="96" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB95" s="3"/>
+      <c r="AC95" s="3"/>
+    </row>
+    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -6796,8 +7263,14 @@
       <c r="AA96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB96" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -6873,8 +7346,14 @@
       <c r="AA97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB97" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -6950,8 +7429,14 @@
       <c r="AA98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB98" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7027,235 +7512,259 @@
       <c r="AA99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:27" x14ac:dyDescent="0.2">
+      <c r="AB99" s="3">
+        <v>0</v>
+      </c>
+      <c r="AC99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-243000</v>
+      </c>
+      <c r="E100" s="3">
+        <v>-28000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-4000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>-6000</v>
-      </c>
-      <c r="F100" s="3">
-        <v>-5000</v>
-      </c>
-      <c r="G100" s="3">
-        <v>-71000</v>
       </c>
       <c r="H100" s="3">
         <v>-5000</v>
       </c>
       <c r="I100" s="3">
+        <v>-71000</v>
+      </c>
+      <c r="J100" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="K100" s="3">
         <v>5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>104000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>-6000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-7000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>4000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>147000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>12000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-489000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="S100" s="3">
         <v>531000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="T100" s="3">
         <v>2000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="U100" s="3">
         <v>21000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="V100" s="3">
         <v>-71000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="W100" s="3">
         <v>60000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="X100" s="3">
         <v>58000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="Y100" s="3">
         <v>51000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Z100" s="3">
         <v>-314000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="AA100" s="3">
         <v>-10000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AB100" s="3">
         <v>-6000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AC100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>33000</v>
+      </c>
+      <c r="E101" s="3">
+        <v>-4000</v>
+      </c>
+      <c r="F101" s="3">
         <v>-36000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>7000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>-16000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-1000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>11000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-12000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>27000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>7000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-4000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-6000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>8000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>-18000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>12000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="S101" s="3">
         <v>-13000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="T101" s="3">
         <v>-8000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="V101" s="3">
         <v>-30000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="W101" s="3">
         <v>6000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="X101" s="3">
         <v>24000</v>
-      </c>
-      <c r="W101" s="3">
-        <v>12000</v>
-      </c>
-      <c r="X101" s="3">
-        <v>27000</v>
       </c>
       <c r="Y101" s="3">
         <v>12000</v>
       </c>
       <c r="Z101" s="3">
+        <v>27000</v>
+      </c>
+      <c r="AA101" s="3">
+        <v>12000</v>
+      </c>
+      <c r="AB101" s="3">
         <v>-33000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AC101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:27" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-187000</v>
+      </c>
+      <c r="E102" s="3">
+        <v>210000</v>
+      </c>
+      <c r="F102" s="3">
         <v>130000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>106000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-32000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-39000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>55000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>-60000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>131000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>89000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-78000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>-2000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>-123000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>167000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-494000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="S102" s="3">
         <v>370000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="T102" s="3">
         <v>-13000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="U102" s="3">
         <v>46000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="V102" s="3">
         <v>-142000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="W102" s="3">
         <v>-159000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="X102" s="3">
         <v>68000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="Y102" s="3">
         <v>104000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Z102" s="3">
         <v>-257000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="AA102" s="3">
         <v>22000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AB102" s="3">
         <v>-22000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AC102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AC102"/>
+  <dimension ref="A5:AD102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,371 +665,384 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="25" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="30" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E7" s="2">
         <v>44926</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44834</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44742</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44651</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44561</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44469</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44377</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44286</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44196</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44104</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44012</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43921</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43830</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43738</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43646</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43555</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43465</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43373</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43281</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43190</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43100</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43008</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>42916</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42825</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42735</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1442000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1660000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1923000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1818000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1858000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1697000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1425000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1393000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1284000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1163000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1092000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>907000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>1308000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1302000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1454000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1371000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1503000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1418000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1535000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1445000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1496000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1330000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1411000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1260000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1316000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1309000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1238000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1332000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1475000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1452000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1512000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1449000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1175000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1263000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1181000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1084000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>961000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>917000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>1182000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1170000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1270000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1256000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1319000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1216000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1307000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1295000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1269000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1153000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1184000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1106000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1110000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1108000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>204000</v>
+      </c>
+      <c r="E10" s="3">
         <v>328000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>448000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>366000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>346000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>248000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>250000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>130000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>103000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>79000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>131000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>-10000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>126000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>132000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>184000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>115000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>184000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>202000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>228000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>150000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>227000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>177000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>227000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>154000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>206000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>201000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1059,8 +1072,9 @@
       <c r="AA11" s="3"/>
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
-    </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD11" s="3"/>
+    </row>
+    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1142,8 +1156,11 @@
       <c r="AC12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1225,91 +1242,97 @@
       <c r="AC13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="3">
         <v>52000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>-3000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-6000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-5000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>64000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-10000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-18000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-23000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>49000</v>
-      </c>
-      <c r="N14" s="3">
-        <v>-22000</v>
       </c>
       <c r="O14" s="3">
         <v>-22000</v>
       </c>
       <c r="P14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-25000</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-23000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-20000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-29000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-20000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-14000</v>
-      </c>
-      <c r="V14" s="3">
-        <v>-25000</v>
       </c>
       <c r="W14" s="3">
         <v>-25000</v>
       </c>
       <c r="X14" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="Y14" s="3">
         <v>-32000</v>
       </c>
-      <c r="Y14" s="3">
+      <c r="Z14" s="3">
         <v>-20000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-17000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-26000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1391,8 +1414,11 @@
       <c r="AC15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+      <c r="AD15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1419,174 +1445,181 @@
       <c r="AA16" s="3"/>
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
-    </row>
-    <row r="17" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD16" s="3"/>
+    </row>
+    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1334000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1429000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1818000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1552000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1628000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1528000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1367000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1340000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1265000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1147000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1136000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>979000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>1285000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1247000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1357000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1325000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1386000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1295000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1400000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1361000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1342000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1214000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1260000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1170000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1174000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1166000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>108000</v>
+      </c>
+      <c r="E18" s="3">
         <v>231000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>105000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>266000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>230000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>169000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>58000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>53000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>19000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>16000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-44000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-72000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>23000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>55000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>97000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>46000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>117000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>123000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>135000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>84000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>154000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>116000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>151000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>90000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>142000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>143000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1616,174 +1649,181 @@
       <c r="AA19" s="3"/>
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
-    </row>
-    <row r="20" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD19" s="3"/>
+    </row>
+    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
-        <v>0</v>
+        <v>-18000</v>
       </c>
       <c r="E20" s="3">
-        <v>-22000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="3">
         <v>-22000</v>
       </c>
       <c r="G20" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="H20" s="3">
         <v>-26000</v>
       </c>
-      <c r="H20" s="3">
+      <c r="I20" s="3">
         <v>-27000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-26000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-28000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-46000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-34000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-21000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-24000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-23000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-20000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-18000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-28000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-20000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-17000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-14000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-17000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="X20" s="3">
-        <v>-15000</v>
       </c>
       <c r="Y20" s="3">
         <v>-15000</v>
       </c>
       <c r="Z20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="AA20" s="3">
         <v>-16000</v>
       </c>
-      <c r="AA20" s="3">
+      <c r="AB20" s="3">
         <v>-24000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-25000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>173000</v>
+      </c>
+      <c r="E21" s="3">
         <v>311000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>169000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>328000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>295000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>237000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>132000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>123000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>72000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>81000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>37000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-5000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>97000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>129000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>172000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>107000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>185000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>192000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>214000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>154000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>222000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>181000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>219000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>150000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>198000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>201000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1808,8 +1848,8 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3" t="s">
-        <v>8</v>
+      <c r="K22" s="3">
+        <v>0</v>
       </c>
       <c r="L22" s="3" t="s">
         <v>8</v>
@@ -1826,29 +1866,29 @@
       <c r="P22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="Q22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R22" s="3">
         <v>2000</v>
       </c>
-      <c r="R22" s="3">
-        <v>0</v>
-      </c>
       <c r="S22" s="3">
         <v>0</v>
       </c>
-      <c r="T22" s="3" t="s">
+      <c r="T22" s="3">
+        <v>0</v>
+      </c>
+      <c r="U22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U22" s="3">
-        <v>0</v>
-      </c>
       <c r="V22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="W22" s="3">
         <v>1000</v>
       </c>
-      <c r="X22" s="3" t="s">
-        <v>8</v>
+      <c r="X22" s="3">
+        <v>1000</v>
       </c>
       <c r="Y22" s="3" t="s">
         <v>8</v>
@@ -1865,174 +1905,183 @@
       <c r="AC22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>90000</v>
+      </c>
+      <c r="E23" s="3">
         <v>231000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>83000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>244000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>204000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>142000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>32000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>25000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-27000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-18000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-65000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-96000</v>
       </c>
-      <c r="O23" s="3">
-        <v>0</v>
-      </c>
       <c r="P23" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="3">
         <v>35000</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>77000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>18000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>97000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>106000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>121000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>66000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>133000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>101000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>136000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>74000</v>
-      </c>
-      <c r="AA23" s="3">
-        <v>118000</v>
       </c>
       <c r="AB23" s="3">
         <v>118000</v>
       </c>
       <c r="AC23" s="3">
+        <v>118000</v>
+      </c>
+      <c r="AD23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>21000</v>
+      </c>
+      <c r="E24" s="3">
         <v>41000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>57000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>45000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>16000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>19000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-3000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>7000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-1000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>23000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-23000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>11000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>27000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>10000</v>
-      </c>
-      <c r="S24" s="3">
-        <v>25000</v>
       </c>
       <c r="T24" s="3">
         <v>25000</v>
       </c>
       <c r="U24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="V24" s="3">
         <v>14000</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>15000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>31000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>38000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>34000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>16000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>30000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>28000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2114,174 +2163,183 @@
       <c r="AC25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E26" s="3">
         <v>190000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>26000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>199000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>188000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>123000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>35000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>18000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-23000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-17000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-88000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-73000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>2000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>24000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>50000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>8000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>72000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>81000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>107000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>51000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>102000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>63000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>102000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>58000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>88000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>90000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E27" s="3">
         <v>190000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>26000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>199000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>188000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>123000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>35000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>18000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-23000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-17000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-88000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-73000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>2000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>24000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>50000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>8000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>72000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>81000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>107000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>51000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>102000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>63000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>102000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>58000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>88000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>90000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2363,8 +2421,11 @@
       <c r="AC28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2446,8 +2507,11 @@
       <c r="AC29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2529,8 +2593,11 @@
       <c r="AC30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2612,174 +2679,183 @@
       <c r="AC31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
-        <v>0</v>
+        <v>18000</v>
       </c>
       <c r="E32" s="3">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="F32" s="3">
         <v>22000</v>
       </c>
       <c r="G32" s="3">
+        <v>22000</v>
+      </c>
+      <c r="H32" s="3">
         <v>26000</v>
       </c>
-      <c r="H32" s="3">
+      <c r="I32" s="3">
         <v>27000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>26000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>28000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>46000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>34000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>21000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>24000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>23000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>20000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>18000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>28000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>20000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>17000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>14000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>17000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>20000</v>
-      </c>
-      <c r="X32" s="3">
-        <v>15000</v>
       </c>
       <c r="Y32" s="3">
         <v>15000</v>
       </c>
       <c r="Z32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="AA32" s="3">
         <v>16000</v>
       </c>
-      <c r="AA32" s="3">
+      <c r="AB32" s="3">
         <v>24000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>25000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E33" s="3">
         <v>190000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>26000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>199000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>188000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>123000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>35000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>18000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-23000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-17000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-88000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-73000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>2000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>24000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>50000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>8000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>72000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>81000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>107000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>51000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>102000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>63000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>102000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>58000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>88000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>90000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2861,179 +2937,188 @@
       <c r="AC34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E35" s="3">
         <v>190000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>26000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>199000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>188000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>123000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>35000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>18000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-23000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-17000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-88000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-73000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>2000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>24000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>50000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>8000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>72000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>81000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>107000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>51000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>102000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>63000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>102000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>58000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>88000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>90000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E38" s="2">
         <v>44926</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44834</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44742</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44651</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44561</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44469</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44377</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44286</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44196</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44104</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44012</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43921</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43830</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43738</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43646</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43555</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43465</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43373</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43281</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43190</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43100</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43008</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>42916</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42825</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42735</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3063,8 +3148,9 @@
       <c r="AA39" s="3"/>
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
-    </row>
-    <row r="40" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD39" s="3"/>
+    </row>
+    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3094,91 +3180,95 @@
       <c r="AA40" s="3"/>
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
-    </row>
-    <row r="41" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD40" s="3"/>
+    </row>
+    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>557000</v>
+      </c>
+      <c r="E41" s="3">
         <v>593000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>780000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>570000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>440000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>334000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>366000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>405000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>350000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>366000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>279000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>190000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>268000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>270000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>393000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>226000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>720000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>350000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>363000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>317000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>459000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>618000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>550000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>446000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>703000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>681000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="42" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3260,340 +3350,355 @@
       <c r="AC42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>597000</v>
+      </c>
+      <c r="E43" s="3">
         <v>847000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>940000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>930000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>886000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>703000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>710000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>709000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>679000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>710000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>603000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>575000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>702000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>708000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>729000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>721000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>748000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>716000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>779000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>718000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>742000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>663000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>680000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>626000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>588000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>571000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>863000</v>
+      </c>
+      <c r="E44" s="3">
         <v>848000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>780000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>918000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>937000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>905000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>841000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>784000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>762000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>841000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>673000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>731000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>765000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>782000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>709000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>780000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>804000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>828000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>741000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>735000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>752000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>697000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>636000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>676000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>652000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>647000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>394000</v>
+      </c>
+      <c r="E45" s="3">
         <v>317000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>299000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>19000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>27000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>13000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>14000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>16000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>9000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>14000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>9000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>7000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>9000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>11000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>3000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>13000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>6000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>9000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>21000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>8000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>18000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>26000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>3000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>8000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>62000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>69000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2411000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2605000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2799000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2437000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2290000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>1955000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1931000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1914000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1800000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1931000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1564000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1503000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1744000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1771000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1834000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1740000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2278000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>1903000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1904000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1778000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1971000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>2004000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>1869000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1756000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>2005000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>1968000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3601,10 +3706,10 @@
         <v>9000</v>
       </c>
       <c r="E47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F47" s="3">
         <v>8000</v>
-      </c>
-      <c r="F47" s="3">
-        <v>9000</v>
       </c>
       <c r="G47" s="3">
         <v>9000</v>
@@ -3613,58 +3718,58 @@
         <v>9000</v>
       </c>
       <c r="I47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J47" s="3">
         <v>10000</v>
-      </c>
-      <c r="J47" s="3">
-        <v>11000</v>
       </c>
       <c r="K47" s="3">
         <v>11000</v>
       </c>
       <c r="L47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="M47" s="3">
         <v>10000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>11000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>20000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>30000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>34000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>31000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>33000</v>
-      </c>
-      <c r="S47" s="3">
-        <v>32000</v>
       </c>
       <c r="T47" s="3">
         <v>32000</v>
       </c>
       <c r="U47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="V47" s="3">
         <v>33000</v>
       </c>
-      <c r="V47" s="3">
+      <c r="W47" s="3">
         <v>34000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>38000</v>
       </c>
-      <c r="X47" s="3" t="s">
+      <c r="Y47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y47" s="3">
+      <c r="Z47" s="3">
         <v>26000</v>
-      </c>
-      <c r="Z47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA47" s="3" t="s">
         <v>8</v>
@@ -3672,165 +3777,171 @@
       <c r="AB47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC47" s="3">
+      <c r="AC47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3304000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3337000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3163000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3598000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3848000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3747000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3912000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3978000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3865000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3912000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3623000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3530000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3537000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3887000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3512000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3577000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3456000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3465000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3476000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3407000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3542000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3324000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3139000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3014000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>2884000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2849000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>96000</v>
+      </c>
+      <c r="E49" s="3">
         <v>104000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>89000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>96000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>113000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>116000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>110000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>115000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>119000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>110000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>113000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>109000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>81000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>82000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>54000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>57000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>60000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>62000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>63000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>87000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>94000</v>
       </c>
-      <c r="X49" s="3" t="s">
+      <c r="Y49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Y49" s="3">
+      <c r="Z49" s="3">
         <v>39000</v>
-      </c>
-      <c r="Z49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA49" s="3" t="s">
         <v>8</v>
@@ -3838,11 +3949,14 @@
       <c r="AB49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC49" s="3">
+      <c r="AC49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3924,8 +4038,11 @@
       <c r="AC50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4007,91 +4124,97 @@
       <c r="AC51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>185000</v>
+      </c>
+      <c r="E52" s="3">
         <v>178000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>170000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>167000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>209000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>211000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>223000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>228000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>226000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>223000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>144000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>210000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>196000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>200000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>192000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>207000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>199000</v>
-      </c>
-      <c r="T52" s="3">
-        <v>194000</v>
       </c>
       <c r="U52" s="3">
         <v>194000</v>
       </c>
       <c r="V52" s="3">
+        <v>194000</v>
+      </c>
+      <c r="W52" s="3">
         <v>161000</v>
       </c>
-      <c r="W52" s="3">
+      <c r="X52" s="3">
         <v>163000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>221000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>174000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>248000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>229000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>228000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4173,91 +4296,97 @@
       <c r="AC53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6005000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6233000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6229000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6307000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6469000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6038000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6186000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6246000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6021000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6186000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>5455000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5372000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5588000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5974000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5623000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5614000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>6025000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>5656000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5670000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5467000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5808000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5549000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5247000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5018000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5118000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5045000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4287,8 +4416,9 @@
       <c r="AA55" s="3"/>
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
-    </row>
-    <row r="56" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD55" s="3"/>
+    </row>
+    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4318,79 +4448,80 @@
       <c r="AA56" s="3"/>
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
-    </row>
-    <row r="57" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD56" s="3"/>
+    </row>
+    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>806000</v>
+      </c>
+      <c r="E57" s="3">
         <v>796000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>1045000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1113000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1141000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1050000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1131000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>991000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>899000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>1996000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>797000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>675000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>870000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>883000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>969000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>838000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>870000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>954000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>1009000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>916000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>908000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>828000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>858000</v>
-      </c>
-      <c r="Z57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AA57" s="3" t="s">
         <v>8</v>
@@ -4398,426 +4529,444 @@
       <c r="AB57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AC57" s="3">
+      <c r="AC57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>269000</v>
+      </c>
+      <c r="E58" s="3">
         <v>204000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>189000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>210000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>153000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>154000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>156000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>270000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>268000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>156000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>294000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>314000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>217000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>211000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>181000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>192000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>641000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>129000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>113000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>104000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>151000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>136000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>133000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>129000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>549000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>546000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>241000</v>
+      </c>
+      <c r="E59" s="3">
         <v>415000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>290000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>34000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>29000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>27000</v>
-      </c>
-      <c r="I59" s="3">
-        <v>22000</v>
       </c>
       <c r="J59" s="3">
         <v>22000</v>
       </c>
       <c r="K59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="L59" s="3">
         <v>30000</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>22000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>32000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>44000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>57000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>46000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>64000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>52000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>45000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>152000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>51000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>61000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>57000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>176000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>52000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>821000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>753000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>807000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1316000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1415000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1524000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1357000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1323000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1231000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1309000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1283000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1197000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1309000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1123000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1033000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1144000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1140000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1214000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1082000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1556000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1235000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1173000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1081000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1116000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1140000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1043000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>950000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>1302000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1353000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1513000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1630000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1754000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1890000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>2080000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2097000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2156000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2190000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2152000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2156000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>1942000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1853000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1930000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1975000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1713000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1762000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1759000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1778000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1818000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1816000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1940000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1831000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1739000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1635000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1483000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1473000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>635000</v>
+      </c>
+      <c r="E62" s="3">
         <v>650000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>593000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>681000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>722000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>726000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>751000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>791000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>783000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>751000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>758000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>705000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>687000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>788000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>748000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>737000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>723000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>728000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>732000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>728000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>784000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>757000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>718000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>806000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>782000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>777000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -4899,8 +5048,11 @@
       <c r="AC63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -4982,8 +5134,11 @@
       <c r="AC64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5065,91 +5220,97 @@
       <c r="AC65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3464000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3695000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3871000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3928000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>4125000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4054000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4216000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4264000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4132000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4216000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3823000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3591000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3761000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3903000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3675000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3581000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>4038000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>3741000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3723000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3625000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3840000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3728000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3500000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3391000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3567000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3603000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5179,8 +5340,9 @@
       <c r="AA67" s="3"/>
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
-    </row>
-    <row r="68" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD67" s="3"/>
+    </row>
+    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5262,8 +5424,11 @@
       <c r="AC68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5345,8 +5510,11 @@
       <c r="AC69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5428,8 +5596,11 @@
       <c r="AC70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5511,34 +5682,37 @@
       <c r="AC71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1952000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1885000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1780000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1685000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1510000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1299000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1209000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1180000</v>
-      </c>
-      <c r="K72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="L72" s="3" t="s">
         <v>8</v>
@@ -5555,8 +5729,8 @@
       <c r="P72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q72" s="3">
-        <v>0</v>
+      <c r="Q72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R72" s="3">
         <v>0</v>
@@ -5594,8 +5768,11 @@
       <c r="AC72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5677,8 +5854,11 @@
       <c r="AC73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5760,8 +5940,11 @@
       <c r="AC74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -5843,91 +6026,97 @@
       <c r="AC75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2541000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2538000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2358000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2379000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2344000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>1984000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1970000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1982000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1889000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1970000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1632000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1781000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1827000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>2071000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>1948000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>2033000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>1987000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1915000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1947000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1842000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1968000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1821000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1747000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1627000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1551000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1442000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6009,179 +6198,188 @@
       <c r="AC77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:29" x14ac:dyDescent="0.2">
+      <c r="AD77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45016</v>
+      </c>
+      <c r="E80" s="2">
         <v>44926</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44834</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44742</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44651</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44561</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44469</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44377</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44286</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44196</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44104</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44012</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43921</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43830</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43738</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43646</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43555</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43465</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43373</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43281</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43190</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43100</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43008</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>42916</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42825</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42735</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>69000</v>
+      </c>
+      <c r="E81" s="3">
         <v>190000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>26000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>199000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>188000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>123000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>35000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>18000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-23000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-17000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-88000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-73000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>2000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>24000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>50000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>8000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>72000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>81000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>107000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>51000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>102000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>63000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>102000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>58000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>88000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>90000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6211,91 +6409,95 @@
       <c r="AA82" s="3"/>
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
-    </row>
-    <row r="83" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD82" s="3"/>
+    </row>
+    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>83000</v>
+      </c>
+      <c r="E83" s="3">
         <v>80000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>86000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>84000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>91000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>95000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>100000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>98000</v>
-      </c>
-      <c r="K83" s="3">
-        <v>99000</v>
       </c>
       <c r="L83" s="3">
         <v>99000</v>
       </c>
       <c r="M83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="N83" s="3">
         <v>102000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>91000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>97000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>94000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>93000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>89000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>88000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>86000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>93000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>87000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>88000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>80000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>83000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>76000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>80000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>83000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6377,8 +6579,11 @@
       <c r="AC84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6460,8 +6665,11 @@
       <c r="AC85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6543,8 +6751,11 @@
       <c r="AC86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6626,8 +6837,11 @@
       <c r="AC87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6709,91 +6923,97 @@
       <c r="AC88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>133000</v>
+      </c>
+      <c r="E89" s="3">
         <v>85000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>377000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>261000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>173000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>71000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>176000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>129000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>13000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>89000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>180000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>11000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>74000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-5000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>306000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>118000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-53000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>102000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>171000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>147000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>13000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>79000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>249000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>116000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>62000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>54000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -6823,91 +7043,95 @@
       <c r="AA90" s="3"/>
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
-    </row>
-    <row r="91" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD90" s="3"/>
+    </row>
+    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-83000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-58000</v>
       </c>
-      <c r="E91" s="3">
-        <v>62000</v>
-      </c>
       <c r="F91" s="3">
+        <v>-134000</v>
+      </c>
+      <c r="G91" s="3">
         <v>-93000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-69000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-72000</v>
       </c>
-      <c r="I91" s="3">
-        <v>55000</v>
-      </c>
       <c r="J91" s="3">
+        <v>-143000</v>
+      </c>
+      <c r="K91" s="3">
         <v>-79000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-70000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-82000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>130000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-74000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-70000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-112000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>188000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-135000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-95000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-106000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>228000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>-188000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-119000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-88000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>149000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>-78000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-45000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-37000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -6989,8 +7213,11 @@
       <c r="AC92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7072,91 +7299,97 @@
       <c r="AC93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-95000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-62000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-135000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-91000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-68000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-82000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-143000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-80000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-66000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-89000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-92000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-78000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-74000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-273000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-133000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-135000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-95000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-109000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-145000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-188000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-238000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-93000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-208000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-86000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-42000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-37000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7186,8 +7419,9 @@
       <c r="AA95" s="3"/>
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
-    </row>
-    <row r="96" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD95" s="3"/>
+    </row>
+    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7269,8 +7503,11 @@
       <c r="AC96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7352,8 +7589,11 @@
       <c r="AC97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7435,8 +7675,11 @@
       <c r="AC98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7518,253 +7761,265 @@
       <c r="AC99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:29" x14ac:dyDescent="0.2">
+      <c r="AD99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-74000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-243000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-28000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-4000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-6000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-5000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-71000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-5000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>104000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-7000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>4000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>147000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>12000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-489000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>531000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>2000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>21000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-71000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>60000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>58000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>51000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>-314000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-10000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-6000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>0</v>
+      </c>
+      <c r="E101" s="3">
         <v>33000</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>-4000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-36000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>7000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>-16000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>11000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>-12000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>27000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>7000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-4000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-6000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>8000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-18000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>12000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-13000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-8000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-30000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>6000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>24000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>12000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>27000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>12000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>-33000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:29" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-36000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-187000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>210000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>130000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>106000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-32000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-39000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>55000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-60000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>131000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>89000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-78000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-2000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-123000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>167000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-494000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>370000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>46000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-142000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-159000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>68000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>104000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>-257000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>22000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>-22000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>161000</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/SPPJY_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="92">
   <si>
     <t>SPPJY</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:AD102"/>
+  <dimension ref="A5:AE102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,384 +665,397 @@
     <col min="1" max="1" width="8.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="25" max="26" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="29" max="30" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="30" max="31" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="32" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E7" s="2">
         <v>45016</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44926</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44834</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44742</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>44651</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>44561</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>44469</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>44377</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>44286</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>44196</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>44104</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>44012</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43921</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43830</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43738</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>43646</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>43555</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>43465</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>43373</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <v>43281</v>
       </c>
-      <c r="X7" s="2">
+      <c r="Y7" s="2">
         <v>43190</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <v>43100</v>
       </c>
-      <c r="Z7" s="2">
+      <c r="AA7" s="2">
         <v>43008</v>
       </c>
-      <c r="AA7" s="2">
+      <c r="AB7" s="2">
         <v>42916</v>
       </c>
-      <c r="AB7" s="2">
+      <c r="AC7" s="2">
         <v>42825</v>
       </c>
-      <c r="AC7" s="2">
+      <c r="AD7" s="2">
         <v>42735</v>
       </c>
-      <c r="AD7" s="2">
+      <c r="AE7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1326000</v>
+      </c>
+      <c r="E8" s="3">
         <v>1442000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1660000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>1923000</v>
       </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
         <v>1818000</v>
       </c>
-      <c r="H8" s="3">
+      <c r="I8" s="3">
         <v>1858000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1697000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>1425000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>1393000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>1284000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>1163000</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>1092000</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>907000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>1308000</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>1302000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>1454000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>1371000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>1503000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>1418000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>1535000</v>
       </c>
-      <c r="W8" s="3">
+      <c r="X8" s="3">
         <v>1445000</v>
       </c>
-      <c r="X8" s="3">
+      <c r="Y8" s="3">
         <v>1496000</v>
       </c>
-      <c r="Y8" s="3">
+      <c r="Z8" s="3">
         <v>1330000</v>
       </c>
-      <c r="Z8" s="3">
+      <c r="AA8" s="3">
         <v>1411000</v>
       </c>
-      <c r="AA8" s="3">
+      <c r="AB8" s="3">
         <v>1260000</v>
       </c>
-      <c r="AB8" s="3">
+      <c r="AC8" s="3">
         <v>1316000</v>
       </c>
-      <c r="AC8" s="3">
+      <c r="AD8" s="3">
         <v>1309000</v>
       </c>
-      <c r="AD8" s="3">
+      <c r="AE8" s="3">
         <v>1340000</v>
       </c>
     </row>
-    <row r="9" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>1200000</v>
+      </c>
+      <c r="E9" s="3">
         <v>1238000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>1332000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>1475000</v>
       </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
         <v>1452000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="I9" s="3">
         <v>1512000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>1449000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>1175000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>1263000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>1181000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>1084000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>961000</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>917000</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>1182000</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>1170000</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>1270000</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>1256000</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>1319000</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>1216000</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>1307000</v>
       </c>
-      <c r="W9" s="3">
+      <c r="X9" s="3">
         <v>1295000</v>
       </c>
-      <c r="X9" s="3">
+      <c r="Y9" s="3">
         <v>1269000</v>
       </c>
-      <c r="Y9" s="3">
+      <c r="Z9" s="3">
         <v>1153000</v>
       </c>
-      <c r="Z9" s="3">
+      <c r="AA9" s="3">
         <v>1184000</v>
       </c>
-      <c r="AA9" s="3">
+      <c r="AB9" s="3">
         <v>1106000</v>
       </c>
-      <c r="AB9" s="3">
+      <c r="AC9" s="3">
         <v>1110000</v>
       </c>
-      <c r="AC9" s="3">
+      <c r="AD9" s="3">
         <v>1108000</v>
       </c>
-      <c r="AD9" s="3">
+      <c r="AE9" s="3">
         <v>1133000</v>
       </c>
     </row>
-    <row r="10" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>126000</v>
+      </c>
+      <c r="E10" s="3">
         <v>204000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>328000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>448000</v>
       </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
         <v>366000</v>
       </c>
-      <c r="H10" s="3">
+      <c r="I10" s="3">
         <v>346000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>248000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>250000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>130000</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>103000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>79000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>131000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>-10000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>126000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>132000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>184000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>115000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>184000</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>202000</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>228000</v>
       </c>
-      <c r="W10" s="3">
+      <c r="X10" s="3">
         <v>150000</v>
       </c>
-      <c r="X10" s="3">
+      <c r="Y10" s="3">
         <v>227000</v>
       </c>
-      <c r="Y10" s="3">
+      <c r="Z10" s="3">
         <v>177000</v>
       </c>
-      <c r="Z10" s="3">
+      <c r="AA10" s="3">
         <v>227000</v>
       </c>
-      <c r="AA10" s="3">
+      <c r="AB10" s="3">
         <v>154000</v>
       </c>
-      <c r="AB10" s="3">
+      <c r="AC10" s="3">
         <v>206000</v>
       </c>
-      <c r="AC10" s="3">
+      <c r="AD10" s="3">
         <v>201000</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AE10" s="3">
         <v>207000</v>
       </c>
     </row>
-    <row r="11" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -1073,8 +1086,9 @@
       <c r="AB11" s="3"/>
       <c r="AC11" s="3"/>
       <c r="AD11" s="3"/>
-    </row>
-    <row r="12" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE11" s="3"/>
+    </row>
+    <row r="12" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1159,8 +1173,11 @@
       <c r="AD12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1245,8 +1262,11 @@
       <c r="AD13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,83 +1276,86 @@
       <c r="E14" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G14" s="3">
         <v>52000</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>-3000</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>-6000</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>-5000</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>64000</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-10000</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-18000</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-23000</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>49000</v>
-      </c>
-      <c r="O14" s="3">
-        <v>-22000</v>
       </c>
       <c r="P14" s="3">
         <v>-22000</v>
       </c>
       <c r="Q14" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="R14" s="3">
         <v>-25000</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-23000</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-20000</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-29000</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-20000</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-14000</v>
-      </c>
-      <c r="W14" s="3">
-        <v>-25000</v>
       </c>
       <c r="X14" s="3">
         <v>-25000</v>
       </c>
       <c r="Y14" s="3">
+        <v>-25000</v>
+      </c>
+      <c r="Z14" s="3">
         <v>-32000</v>
       </c>
-      <c r="Z14" s="3">
+      <c r="AA14" s="3">
         <v>-20000</v>
       </c>
-      <c r="AA14" s="3">
+      <c r="AB14" s="3">
         <v>-17000</v>
       </c>
-      <c r="AB14" s="3">
+      <c r="AC14" s="3">
         <v>-16000</v>
       </c>
-      <c r="AC14" s="3">
+      <c r="AD14" s="3">
         <v>-26000</v>
       </c>
-      <c r="AD14" s="3">
+      <c r="AE14" s="3">
         <v>-40000</v>
       </c>
     </row>
-    <row r="15" spans="1:30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -1417,8 +1440,11 @@
       <c r="AD15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:30" x14ac:dyDescent="0.2">
+      <c r="AE15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1446,180 +1472,187 @@
       <c r="AB16" s="3"/>
       <c r="AC16" s="3"/>
       <c r="AD16" s="3"/>
-    </row>
-    <row r="17" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE16" s="3"/>
+    </row>
+    <row r="17" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1270000</v>
+      </c>
+      <c r="E17" s="3">
         <v>1334000</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1429000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>1818000</v>
       </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
         <v>1552000</v>
       </c>
-      <c r="H17" s="3">
+      <c r="I17" s="3">
         <v>1628000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1528000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>1367000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>1340000</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>1265000</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>1147000</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>1136000</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>979000</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>1285000</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>1247000</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>1357000</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>1325000</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>1386000</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>1295000</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>1400000</v>
       </c>
-      <c r="W17" s="3">
+      <c r="X17" s="3">
         <v>1361000</v>
       </c>
-      <c r="X17" s="3">
+      <c r="Y17" s="3">
         <v>1342000</v>
       </c>
-      <c r="Y17" s="3">
+      <c r="Z17" s="3">
         <v>1214000</v>
       </c>
-      <c r="Z17" s="3">
+      <c r="AA17" s="3">
         <v>1260000</v>
       </c>
-      <c r="AA17" s="3">
+      <c r="AB17" s="3">
         <v>1170000</v>
       </c>
-      <c r="AB17" s="3">
+      <c r="AC17" s="3">
         <v>1174000</v>
       </c>
-      <c r="AC17" s="3">
+      <c r="AD17" s="3">
         <v>1166000</v>
       </c>
-      <c r="AD17" s="3">
+      <c r="AE17" s="3">
         <v>1170000</v>
       </c>
     </row>
-    <row r="18" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>56000</v>
+      </c>
+      <c r="E18" s="3">
         <v>108000</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>231000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>105000</v>
       </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
         <v>266000</v>
       </c>
-      <c r="H18" s="3">
+      <c r="I18" s="3">
         <v>230000</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>169000</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>58000</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>53000</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>19000</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>16000</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-44000</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-72000</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>23000</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>55000</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>97000</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>46000</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>117000</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>123000</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>135000</v>
       </c>
-      <c r="W18" s="3">
+      <c r="X18" s="3">
         <v>84000</v>
       </c>
-      <c r="X18" s="3">
+      <c r="Y18" s="3">
         <v>154000</v>
       </c>
-      <c r="Y18" s="3">
+      <c r="Z18" s="3">
         <v>116000</v>
       </c>
-      <c r="Z18" s="3">
+      <c r="AA18" s="3">
         <v>151000</v>
       </c>
-      <c r="AA18" s="3">
+      <c r="AB18" s="3">
         <v>90000</v>
       </c>
-      <c r="AB18" s="3">
+      <c r="AC18" s="3">
         <v>142000</v>
       </c>
-      <c r="AC18" s="3">
+      <c r="AD18" s="3">
         <v>143000</v>
       </c>
-      <c r="AD18" s="3">
+      <c r="AE18" s="3">
         <v>170000</v>
       </c>
     </row>
-    <row r="19" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1650,180 +1683,187 @@
       <c r="AB19" s="3"/>
       <c r="AC19" s="3"/>
       <c r="AD19" s="3"/>
-    </row>
-    <row r="20" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE19" s="3"/>
+    </row>
+    <row r="20" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="E20" s="3">
         <v>-18000</v>
       </c>
-      <c r="E20" s="3">
-        <v>0</v>
-      </c>
       <c r="F20" s="3">
-        <v>-22000</v>
+        <v>0</v>
       </c>
       <c r="G20" s="3">
         <v>-22000</v>
       </c>
       <c r="H20" s="3">
+        <v>-22000</v>
+      </c>
+      <c r="I20" s="3">
         <v>-26000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-27000</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-26000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-28000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-46000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-34000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-21000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-24000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-23000</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>-20000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-18000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-28000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-20000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-17000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-14000</v>
       </c>
-      <c r="W20" s="3">
+      <c r="X20" s="3">
         <v>-17000</v>
       </c>
-      <c r="X20" s="3">
+      <c r="Y20" s="3">
         <v>-20000</v>
-      </c>
-      <c r="Y20" s="3">
-        <v>-15000</v>
       </c>
       <c r="Z20" s="3">
         <v>-15000</v>
       </c>
       <c r="AA20" s="3">
+        <v>-15000</v>
+      </c>
+      <c r="AB20" s="3">
         <v>-16000</v>
       </c>
-      <c r="AB20" s="3">
+      <c r="AC20" s="3">
         <v>-24000</v>
       </c>
-      <c r="AC20" s="3">
+      <c r="AD20" s="3">
         <v>-25000</v>
       </c>
-      <c r="AD20" s="3">
+      <c r="AE20" s="3">
         <v>-23000</v>
       </c>
     </row>
-    <row r="21" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>124000</v>
+      </c>
+      <c r="E21" s="3">
         <v>173000</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>311000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>169000</v>
       </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
         <v>328000</v>
       </c>
-      <c r="H21" s="3">
+      <c r="I21" s="3">
         <v>295000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>237000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>132000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>123000</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>72000</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>81000</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>37000</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-5000</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>97000</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>129000</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>172000</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>107000</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>185000</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>192000</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>214000</v>
       </c>
-      <c r="W21" s="3">
+      <c r="X21" s="3">
         <v>154000</v>
       </c>
-      <c r="X21" s="3">
+      <c r="Y21" s="3">
         <v>222000</v>
       </c>
-      <c r="Y21" s="3">
+      <c r="Z21" s="3">
         <v>181000</v>
       </c>
-      <c r="Z21" s="3">
+      <c r="AA21" s="3">
         <v>219000</v>
       </c>
-      <c r="AA21" s="3">
+      <c r="AB21" s="3">
         <v>150000</v>
       </c>
-      <c r="AB21" s="3">
+      <c r="AC21" s="3">
         <v>198000</v>
       </c>
-      <c r="AC21" s="3">
+      <c r="AD21" s="3">
         <v>201000</v>
       </c>
-      <c r="AD21" s="3">
+      <c r="AE21" s="3">
         <v>226000</v>
       </c>
     </row>
-    <row r="22" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1851,8 +1891,8 @@
       <c r="K22" s="3">
         <v>0</v>
       </c>
-      <c r="L22" s="3" t="s">
-        <v>8</v>
+      <c r="L22" s="3">
+        <v>0</v>
       </c>
       <c r="M22" s="3" t="s">
         <v>8</v>
@@ -1869,29 +1909,29 @@
       <c r="Q22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R22" s="3">
+      <c r="R22" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="S22" s="3">
         <v>2000</v>
       </c>
-      <c r="S22" s="3">
-        <v>0</v>
-      </c>
       <c r="T22" s="3">
         <v>0</v>
       </c>
-      <c r="U22" s="3" t="s">
+      <c r="U22" s="3">
+        <v>0</v>
+      </c>
+      <c r="V22" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="V22" s="3">
-        <v>0</v>
-      </c>
       <c r="W22" s="3">
-        <v>1000</v>
+        <v>0</v>
       </c>
       <c r="X22" s="3">
         <v>1000</v>
       </c>
-      <c r="Y22" s="3" t="s">
-        <v>8</v>
+      <c r="Y22" s="3">
+        <v>1000</v>
       </c>
       <c r="Z22" s="3" t="s">
         <v>8</v>
@@ -1908,180 +1948,189 @@
       <c r="AD22" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="23" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE22" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>42000</v>
+      </c>
+      <c r="E23" s="3">
         <v>90000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>231000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>83000</v>
       </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
         <v>244000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="I23" s="3">
         <v>204000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>142000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>32000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>25000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-27000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-18000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-65000</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-96000</v>
       </c>
-      <c r="P23" s="3">
-        <v>0</v>
-      </c>
       <c r="Q23" s="3">
+        <v>0</v>
+      </c>
+      <c r="R23" s="3">
         <v>35000</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>77000</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>18000</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>97000</v>
       </c>
-      <c r="U23" s="3">
+      <c r="V23" s="3">
         <v>106000</v>
       </c>
-      <c r="V23" s="3">
+      <c r="W23" s="3">
         <v>121000</v>
       </c>
-      <c r="W23" s="3">
+      <c r="X23" s="3">
         <v>66000</v>
       </c>
-      <c r="X23" s="3">
+      <c r="Y23" s="3">
         <v>133000</v>
       </c>
-      <c r="Y23" s="3">
+      <c r="Z23" s="3">
         <v>101000</v>
       </c>
-      <c r="Z23" s="3">
+      <c r="AA23" s="3">
         <v>136000</v>
       </c>
-      <c r="AA23" s="3">
+      <c r="AB23" s="3">
         <v>74000</v>
-      </c>
-      <c r="AB23" s="3">
-        <v>118000</v>
       </c>
       <c r="AC23" s="3">
         <v>118000</v>
       </c>
       <c r="AD23" s="3">
+        <v>118000</v>
+      </c>
+      <c r="AE23" s="3">
         <v>147000</v>
       </c>
     </row>
-    <row r="24" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2000</v>
+      </c>
+      <c r="E24" s="3">
         <v>21000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>41000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>57000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="H24" s="3">
         <v>45000</v>
       </c>
-      <c r="H24" s="3">
+      <c r="I24" s="3">
         <v>16000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>19000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-3000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>7000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-1000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>23000</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-23000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>11000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>27000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>10000</v>
-      </c>
-      <c r="T24" s="3">
-        <v>25000</v>
       </c>
       <c r="U24" s="3">
         <v>25000</v>
       </c>
       <c r="V24" s="3">
+        <v>25000</v>
+      </c>
+      <c r="W24" s="3">
         <v>14000</v>
       </c>
-      <c r="W24" s="3">
+      <c r="X24" s="3">
         <v>15000</v>
       </c>
-      <c r="X24" s="3">
+      <c r="Y24" s="3">
         <v>31000</v>
       </c>
-      <c r="Y24" s="3">
+      <c r="Z24" s="3">
         <v>38000</v>
       </c>
-      <c r="Z24" s="3">
+      <c r="AA24" s="3">
         <v>34000</v>
       </c>
-      <c r="AA24" s="3">
+      <c r="AB24" s="3">
         <v>16000</v>
       </c>
-      <c r="AB24" s="3">
+      <c r="AC24" s="3">
         <v>30000</v>
       </c>
-      <c r="AC24" s="3">
+      <c r="AD24" s="3">
         <v>28000</v>
       </c>
-      <c r="AD24" s="3">
+      <c r="AE24" s="3">
         <v>35000</v>
       </c>
     </row>
-    <row r="25" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -2166,180 +2215,189 @@
       <c r="AD25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E26" s="3">
         <v>69000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>190000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>26000</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
         <v>199000</v>
       </c>
-      <c r="H26" s="3">
+      <c r="I26" s="3">
         <v>188000</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>123000</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>35000</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>18000</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-23000</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-17000</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-88000</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-73000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>2000</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>24000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>50000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>8000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>72000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>81000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>107000</v>
       </c>
-      <c r="W26" s="3">
+      <c r="X26" s="3">
         <v>51000</v>
       </c>
-      <c r="X26" s="3">
+      <c r="Y26" s="3">
         <v>102000</v>
       </c>
-      <c r="Y26" s="3">
+      <c r="Z26" s="3">
         <v>63000</v>
       </c>
-      <c r="Z26" s="3">
+      <c r="AA26" s="3">
         <v>102000</v>
       </c>
-      <c r="AA26" s="3">
+      <c r="AB26" s="3">
         <v>58000</v>
       </c>
-      <c r="AB26" s="3">
+      <c r="AC26" s="3">
         <v>88000</v>
       </c>
-      <c r="AC26" s="3">
+      <c r="AD26" s="3">
         <v>90000</v>
       </c>
-      <c r="AD26" s="3">
+      <c r="AE26" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="27" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E27" s="3">
         <v>69000</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>190000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>26000</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
         <v>199000</v>
       </c>
-      <c r="H27" s="3">
+      <c r="I27" s="3">
         <v>188000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>123000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>35000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>18000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-23000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-17000</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-88000</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-73000</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>2000</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>24000</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>50000</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>8000</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>72000</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>81000</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>107000</v>
       </c>
-      <c r="W27" s="3">
+      <c r="X27" s="3">
         <v>51000</v>
       </c>
-      <c r="X27" s="3">
+      <c r="Y27" s="3">
         <v>102000</v>
       </c>
-      <c r="Y27" s="3">
+      <c r="Z27" s="3">
         <v>63000</v>
       </c>
-      <c r="Z27" s="3">
+      <c r="AA27" s="3">
         <v>102000</v>
       </c>
-      <c r="AA27" s="3">
+      <c r="AB27" s="3">
         <v>58000</v>
       </c>
-      <c r="AB27" s="3">
+      <c r="AC27" s="3">
         <v>88000</v>
       </c>
-      <c r="AC27" s="3">
+      <c r="AD27" s="3">
         <v>90000</v>
       </c>
-      <c r="AD27" s="3">
+      <c r="AE27" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="28" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -2424,8 +2482,11 @@
       <c r="AD28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -2510,8 +2571,11 @@
       <c r="AD29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2596,8 +2660,11 @@
       <c r="AD30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2682,180 +2749,189 @@
       <c r="AD31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>14000</v>
+      </c>
+      <c r="E32" s="3">
         <v>18000</v>
       </c>
-      <c r="E32" s="3">
-        <v>0</v>
-      </c>
       <c r="F32" s="3">
-        <v>22000</v>
+        <v>0</v>
       </c>
       <c r="G32" s="3">
         <v>22000</v>
       </c>
       <c r="H32" s="3">
+        <v>22000</v>
+      </c>
+      <c r="I32" s="3">
         <v>26000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>27000</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>26000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>28000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>46000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>34000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>21000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>24000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>23000</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>20000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>18000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>28000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>20000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>17000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>14000</v>
       </c>
-      <c r="W32" s="3">
+      <c r="X32" s="3">
         <v>17000</v>
       </c>
-      <c r="X32" s="3">
+      <c r="Y32" s="3">
         <v>20000</v>
-      </c>
-      <c r="Y32" s="3">
-        <v>15000</v>
       </c>
       <c r="Z32" s="3">
         <v>15000</v>
       </c>
       <c r="AA32" s="3">
+        <v>15000</v>
+      </c>
+      <c r="AB32" s="3">
         <v>16000</v>
       </c>
-      <c r="AB32" s="3">
+      <c r="AC32" s="3">
         <v>24000</v>
       </c>
-      <c r="AC32" s="3">
+      <c r="AD32" s="3">
         <v>25000</v>
       </c>
-      <c r="AD32" s="3">
+      <c r="AE32" s="3">
         <v>23000</v>
       </c>
     </row>
-    <row r="33" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E33" s="3">
         <v>69000</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>190000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>26000</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>199000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>188000</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>123000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>35000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>18000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-23000</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-17000</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-88000</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-73000</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>2000</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>24000</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>50000</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>8000</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>72000</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>81000</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>107000</v>
       </c>
-      <c r="W33" s="3">
+      <c r="X33" s="3">
         <v>51000</v>
       </c>
-      <c r="X33" s="3">
+      <c r="Y33" s="3">
         <v>102000</v>
       </c>
-      <c r="Y33" s="3">
+      <c r="Z33" s="3">
         <v>63000</v>
       </c>
-      <c r="Z33" s="3">
+      <c r="AA33" s="3">
         <v>102000</v>
       </c>
-      <c r="AA33" s="3">
+      <c r="AB33" s="3">
         <v>58000</v>
       </c>
-      <c r="AB33" s="3">
+      <c r="AC33" s="3">
         <v>88000</v>
       </c>
-      <c r="AC33" s="3">
+      <c r="AD33" s="3">
         <v>90000</v>
       </c>
-      <c r="AD33" s="3">
+      <c r="AE33" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="34" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2940,185 +3016,194 @@
       <c r="AD34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E35" s="3">
         <v>69000</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>190000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>26000</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>199000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>188000</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>123000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>35000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>18000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-23000</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-17000</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-88000</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-73000</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>2000</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>24000</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>50000</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>8000</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>72000</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>81000</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>107000</v>
       </c>
-      <c r="W35" s="3">
+      <c r="X35" s="3">
         <v>51000</v>
       </c>
-      <c r="X35" s="3">
+      <c r="Y35" s="3">
         <v>102000</v>
       </c>
-      <c r="Y35" s="3">
+      <c r="Z35" s="3">
         <v>63000</v>
       </c>
-      <c r="Z35" s="3">
+      <c r="AA35" s="3">
         <v>102000</v>
       </c>
-      <c r="AA35" s="3">
+      <c r="AB35" s="3">
         <v>58000</v>
       </c>
-      <c r="AB35" s="3">
+      <c r="AC35" s="3">
         <v>88000</v>
       </c>
-      <c r="AC35" s="3">
+      <c r="AD35" s="3">
         <v>90000</v>
       </c>
-      <c r="AD35" s="3">
+      <c r="AE35" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="37" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E38" s="2">
         <v>45016</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44926</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44834</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44742</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>44651</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>44561</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>44469</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>44377</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>44286</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>44196</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>44104</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>44012</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43921</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43830</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43738</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>43646</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>43555</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>43465</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>43373</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <v>43281</v>
       </c>
-      <c r="X38" s="2">
+      <c r="Y38" s="2">
         <v>43190</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <v>43100</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <v>43008</v>
       </c>
-      <c r="AA38" s="2">
+      <c r="AB38" s="2">
         <v>42916</v>
       </c>
-      <c r="AB38" s="2">
+      <c r="AC38" s="2">
         <v>42825</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <v>42735</v>
       </c>
-      <c r="AD38" s="2">
+      <c r="AE38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -3149,8 +3234,9 @@
       <c r="AB39" s="3"/>
       <c r="AC39" s="3"/>
       <c r="AD39" s="3"/>
-    </row>
-    <row r="40" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE39" s="3"/>
+    </row>
+    <row r="40" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -3181,94 +3267,98 @@
       <c r="AB40" s="3"/>
       <c r="AC40" s="3"/>
       <c r="AD40" s="3"/>
-    </row>
-    <row r="41" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE40" s="3"/>
+    </row>
+    <row r="41" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>504000</v>
+      </c>
+      <c r="E41" s="3">
         <v>557000</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>593000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>780000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>570000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>440000</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>334000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>366000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>405000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>350000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>366000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>279000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>190000</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>268000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>270000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>393000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>226000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>720000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>350000</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>363000</v>
       </c>
-      <c r="W41" s="3">
+      <c r="X41" s="3">
         <v>317000</v>
       </c>
-      <c r="X41" s="3">
+      <c r="Y41" s="3">
         <v>459000</v>
       </c>
-      <c r="Y41" s="3">
+      <c r="Z41" s="3">
         <v>618000</v>
       </c>
-      <c r="Z41" s="3">
+      <c r="AA41" s="3">
         <v>550000</v>
       </c>
-      <c r="AA41" s="3">
+      <c r="AB41" s="3">
         <v>446000</v>
       </c>
-      <c r="AB41" s="3">
+      <c r="AC41" s="3">
         <v>703000</v>
       </c>
-      <c r="AC41" s="3">
+      <c r="AD41" s="3">
         <v>681000</v>
       </c>
-      <c r="AD41" s="3">
+      <c r="AE41" s="3">
         <v>703000</v>
       </c>
     </row>
-    <row r="42" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -3353,352 +3443,367 @@
       <c r="AD42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>524000</v>
+      </c>
+      <c r="E43" s="3">
         <v>597000</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>847000</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>940000</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>930000</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>886000</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>703000</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>710000</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>709000</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>679000</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>710000</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>603000</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>575000</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>702000</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>708000</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>729000</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>721000</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>748000</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>716000</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>779000</v>
       </c>
-      <c r="W43" s="3">
+      <c r="X43" s="3">
         <v>718000</v>
       </c>
-      <c r="X43" s="3">
+      <c r="Y43" s="3">
         <v>742000</v>
       </c>
-      <c r="Y43" s="3">
+      <c r="Z43" s="3">
         <v>663000</v>
       </c>
-      <c r="Z43" s="3">
+      <c r="AA43" s="3">
         <v>680000</v>
       </c>
-      <c r="AA43" s="3">
+      <c r="AB43" s="3">
         <v>626000</v>
       </c>
-      <c r="AB43" s="3">
+      <c r="AC43" s="3">
         <v>588000</v>
       </c>
-      <c r="AC43" s="3">
+      <c r="AD43" s="3">
         <v>571000</v>
       </c>
-      <c r="AD43" s="3">
+      <c r="AE43" s="3">
         <v>653000</v>
       </c>
     </row>
-    <row r="44" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>756000</v>
+      </c>
+      <c r="E44" s="3">
         <v>863000</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>848000</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>780000</v>
       </c>
-      <c r="G44" s="3">
+      <c r="H44" s="3">
         <v>918000</v>
       </c>
-      <c r="H44" s="3">
+      <c r="I44" s="3">
         <v>937000</v>
       </c>
-      <c r="I44" s="3">
+      <c r="J44" s="3">
         <v>905000</v>
       </c>
-      <c r="J44" s="3">
+      <c r="K44" s="3">
         <v>841000</v>
       </c>
-      <c r="K44" s="3">
+      <c r="L44" s="3">
         <v>784000</v>
       </c>
-      <c r="L44" s="3">
+      <c r="M44" s="3">
         <v>762000</v>
       </c>
-      <c r="M44" s="3">
+      <c r="N44" s="3">
         <v>841000</v>
       </c>
-      <c r="N44" s="3">
+      <c r="O44" s="3">
         <v>673000</v>
       </c>
-      <c r="O44" s="3">
+      <c r="P44" s="3">
         <v>731000</v>
       </c>
-      <c r="P44" s="3">
+      <c r="Q44" s="3">
         <v>765000</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>782000</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>709000</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>780000</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>804000</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>828000</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>741000</v>
       </c>
-      <c r="W44" s="3">
+      <c r="X44" s="3">
         <v>735000</v>
       </c>
-      <c r="X44" s="3">
+      <c r="Y44" s="3">
         <v>752000</v>
       </c>
-      <c r="Y44" s="3">
+      <c r="Z44" s="3">
         <v>697000</v>
       </c>
-      <c r="Z44" s="3">
+      <c r="AA44" s="3">
         <v>636000</v>
       </c>
-      <c r="AA44" s="3">
+      <c r="AB44" s="3">
         <v>676000</v>
       </c>
-      <c r="AB44" s="3">
+      <c r="AC44" s="3">
         <v>652000</v>
       </c>
-      <c r="AC44" s="3">
+      <c r="AD44" s="3">
         <v>647000</v>
       </c>
-      <c r="AD44" s="3">
+      <c r="AE44" s="3">
         <v>606000</v>
       </c>
     </row>
-    <row r="45" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>381000</v>
+      </c>
+      <c r="E45" s="3">
         <v>394000</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>317000</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>299000</v>
       </c>
-      <c r="G45" s="3">
+      <c r="H45" s="3">
         <v>19000</v>
       </c>
-      <c r="H45" s="3">
+      <c r="I45" s="3">
         <v>27000</v>
       </c>
-      <c r="I45" s="3">
+      <c r="J45" s="3">
         <v>13000</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>14000</v>
       </c>
-      <c r="K45" s="3">
+      <c r="L45" s="3">
         <v>16000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>9000</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>14000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>9000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>7000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>9000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>11000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>3000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>13000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>6000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>9000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>21000</v>
       </c>
-      <c r="W45" s="3">
+      <c r="X45" s="3">
         <v>8000</v>
       </c>
-      <c r="X45" s="3">
+      <c r="Y45" s="3">
         <v>18000</v>
       </c>
-      <c r="Y45" s="3">
+      <c r="Z45" s="3">
         <v>26000</v>
       </c>
-      <c r="Z45" s="3">
+      <c r="AA45" s="3">
         <v>3000</v>
       </c>
-      <c r="AA45" s="3">
+      <c r="AB45" s="3">
         <v>8000</v>
       </c>
-      <c r="AB45" s="3">
+      <c r="AC45" s="3">
         <v>62000</v>
       </c>
-      <c r="AC45" s="3">
+      <c r="AD45" s="3">
         <v>69000</v>
       </c>
-      <c r="AD45" s="3">
+      <c r="AE45" s="3">
         <v>44000</v>
       </c>
     </row>
-    <row r="46" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>2165000</v>
+      </c>
+      <c r="E46" s="3">
         <v>2411000</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>2605000</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>2799000</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>2437000</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>2290000</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>1955000</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1931000</v>
       </c>
-      <c r="K46" s="3">
+      <c r="L46" s="3">
         <v>1914000</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>1800000</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>1931000</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>1564000</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>1503000</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>1744000</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>1771000</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>1834000</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>1740000</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2278000</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>1903000</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>1904000</v>
       </c>
-      <c r="W46" s="3">
+      <c r="X46" s="3">
         <v>1778000</v>
       </c>
-      <c r="X46" s="3">
+      <c r="Y46" s="3">
         <v>1971000</v>
       </c>
-      <c r="Y46" s="3">
+      <c r="Z46" s="3">
         <v>2004000</v>
       </c>
-      <c r="Z46" s="3">
+      <c r="AA46" s="3">
         <v>1869000</v>
       </c>
-      <c r="AA46" s="3">
+      <c r="AB46" s="3">
         <v>1756000</v>
       </c>
-      <c r="AB46" s="3">
+      <c r="AC46" s="3">
         <v>2005000</v>
       </c>
-      <c r="AC46" s="3">
+      <c r="AD46" s="3">
         <v>1968000</v>
       </c>
-      <c r="AD46" s="3">
+      <c r="AE46" s="3">
         <v>2006000</v>
       </c>
     </row>
-    <row r="47" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -3709,10 +3814,10 @@
         <v>9000</v>
       </c>
       <c r="F47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="G47" s="3">
         <v>8000</v>
-      </c>
-      <c r="G47" s="3">
-        <v>9000</v>
       </c>
       <c r="H47" s="3">
         <v>9000</v>
@@ -3721,58 +3826,58 @@
         <v>9000</v>
       </c>
       <c r="J47" s="3">
+        <v>9000</v>
+      </c>
+      <c r="K47" s="3">
         <v>10000</v>
-      </c>
-      <c r="K47" s="3">
-        <v>11000</v>
       </c>
       <c r="L47" s="3">
         <v>11000</v>
       </c>
       <c r="M47" s="3">
+        <v>11000</v>
+      </c>
+      <c r="N47" s="3">
         <v>10000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>11000</v>
       </c>
-      <c r="O47" s="3">
+      <c r="P47" s="3">
         <v>20000</v>
       </c>
-      <c r="P47" s="3">
+      <c r="Q47" s="3">
         <v>30000</v>
       </c>
-      <c r="Q47" s="3">
+      <c r="R47" s="3">
         <v>34000</v>
       </c>
-      <c r="R47" s="3">
+      <c r="S47" s="3">
         <v>31000</v>
       </c>
-      <c r="S47" s="3">
+      <c r="T47" s="3">
         <v>33000</v>
-      </c>
-      <c r="T47" s="3">
-        <v>32000</v>
       </c>
       <c r="U47" s="3">
         <v>32000</v>
       </c>
       <c r="V47" s="3">
+        <v>32000</v>
+      </c>
+      <c r="W47" s="3">
         <v>33000</v>
       </c>
-      <c r="W47" s="3">
+      <c r="X47" s="3">
         <v>34000</v>
       </c>
-      <c r="X47" s="3">
+      <c r="Y47" s="3">
         <v>38000</v>
       </c>
-      <c r="Y47" s="3" t="s">
+      <c r="Z47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z47" s="3">
+      <c r="AA47" s="3">
         <v>26000</v>
-      </c>
-      <c r="AA47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB47" s="3" t="s">
         <v>8</v>
@@ -3780,171 +3885,177 @@
       <c r="AC47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD47" s="3">
+      <c r="AD47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE47" s="3">
         <v>20000</v>
       </c>
     </row>
-    <row r="48" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>3246000</v>
+      </c>
+      <c r="E48" s="3">
         <v>3304000</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>3337000</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>3163000</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>3598000</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>3848000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>3747000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>3912000</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>3978000</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>3865000</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>3912000</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>3623000</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>3530000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>3537000</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>3887000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>3512000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>3577000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>3456000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>3465000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>3476000</v>
       </c>
-      <c r="W48" s="3">
+      <c r="X48" s="3">
         <v>3407000</v>
       </c>
-      <c r="X48" s="3">
+      <c r="Y48" s="3">
         <v>3542000</v>
       </c>
-      <c r="Y48" s="3">
+      <c r="Z48" s="3">
         <v>3324000</v>
       </c>
-      <c r="Z48" s="3">
+      <c r="AA48" s="3">
         <v>3139000</v>
       </c>
-      <c r="AA48" s="3">
+      <c r="AB48" s="3">
         <v>3014000</v>
       </c>
-      <c r="AB48" s="3">
+      <c r="AC48" s="3">
         <v>2884000</v>
       </c>
-      <c r="AC48" s="3">
+      <c r="AD48" s="3">
         <v>2849000</v>
       </c>
-      <c r="AD48" s="3">
+      <c r="AE48" s="3">
         <v>2942000</v>
       </c>
     </row>
-    <row r="49" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>92000</v>
+      </c>
+      <c r="E49" s="3">
         <v>96000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>104000</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>89000</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>96000</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>113000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>116000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>110000</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>115000</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>119000</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>110000</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>113000</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>109000</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>81000</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>82000</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>54000</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>57000</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>60000</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>62000</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>63000</v>
       </c>
-      <c r="W49" s="3">
+      <c r="X49" s="3">
         <v>87000</v>
       </c>
-      <c r="X49" s="3">
+      <c r="Y49" s="3">
         <v>94000</v>
       </c>
-      <c r="Y49" s="3" t="s">
+      <c r="Z49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Z49" s="3">
+      <c r="AA49" s="3">
         <v>39000</v>
-      </c>
-      <c r="AA49" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB49" s="3" t="s">
         <v>8</v>
@@ -3952,11 +4063,14 @@
       <c r="AC49" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD49" s="3">
+      <c r="AD49" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE49" s="3">
         <v>17000</v>
       </c>
     </row>
-    <row r="50" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -4041,8 +4155,11 @@
       <c r="AD50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -4127,94 +4244,100 @@
       <c r="AD51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>189000</v>
+      </c>
+      <c r="E52" s="3">
         <v>185000</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>178000</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>170000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>167000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>209000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>211000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>223000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>228000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>226000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>223000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>144000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>210000</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>196000</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>200000</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>192000</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>207000</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>199000</v>
-      </c>
-      <c r="U52" s="3">
-        <v>194000</v>
       </c>
       <c r="V52" s="3">
         <v>194000</v>
       </c>
       <c r="W52" s="3">
+        <v>194000</v>
+      </c>
+      <c r="X52" s="3">
         <v>161000</v>
       </c>
-      <c r="X52" s="3">
+      <c r="Y52" s="3">
         <v>163000</v>
       </c>
-      <c r="Y52" s="3">
+      <c r="Z52" s="3">
         <v>221000</v>
       </c>
-      <c r="Z52" s="3">
+      <c r="AA52" s="3">
         <v>174000</v>
       </c>
-      <c r="AA52" s="3">
+      <c r="AB52" s="3">
         <v>248000</v>
       </c>
-      <c r="AB52" s="3">
+      <c r="AC52" s="3">
         <v>229000</v>
       </c>
-      <c r="AC52" s="3">
+      <c r="AD52" s="3">
         <v>228000</v>
       </c>
-      <c r="AD52" s="3">
+      <c r="AE52" s="3">
         <v>192000</v>
       </c>
     </row>
-    <row r="53" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -4299,94 +4422,100 @@
       <c r="AD53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>5701000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6005000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6233000</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6229000</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6307000</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6469000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6038000</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6186000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6246000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6021000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6186000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>5455000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>5372000</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>5588000</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>5974000</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>5623000</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>5614000</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>6025000</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>5656000</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>5670000</v>
       </c>
-      <c r="W54" s="3">
+      <c r="X54" s="3">
         <v>5467000</v>
       </c>
-      <c r="X54" s="3">
+      <c r="Y54" s="3">
         <v>5808000</v>
       </c>
-      <c r="Y54" s="3">
+      <c r="Z54" s="3">
         <v>5549000</v>
       </c>
-      <c r="Z54" s="3">
+      <c r="AA54" s="3">
         <v>5247000</v>
       </c>
-      <c r="AA54" s="3">
+      <c r="AB54" s="3">
         <v>5018000</v>
       </c>
-      <c r="AB54" s="3">
+      <c r="AC54" s="3">
         <v>5118000</v>
       </c>
-      <c r="AC54" s="3">
+      <c r="AD54" s="3">
         <v>5045000</v>
       </c>
-      <c r="AD54" s="3">
+      <c r="AE54" s="3">
         <v>5177000</v>
       </c>
     </row>
-    <row r="55" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -4417,8 +4546,9 @@
       <c r="AB55" s="3"/>
       <c r="AC55" s="3"/>
       <c r="AD55" s="3"/>
-    </row>
-    <row r="56" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE55" s="3"/>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -4449,82 +4579,83 @@
       <c r="AB56" s="3"/>
       <c r="AC56" s="3"/>
       <c r="AD56" s="3"/>
-    </row>
-    <row r="57" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE56" s="3"/>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>695000</v>
+      </c>
+      <c r="E57" s="3">
         <v>806000</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>796000</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>1045000</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>1113000</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>1141000</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>1050000</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>1131000</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>991000</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>899000</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>1996000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>797000</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>675000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>870000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>883000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>969000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>838000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>870000</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>954000</v>
       </c>
-      <c r="V57" s="3">
+      <c r="W57" s="3">
         <v>1009000</v>
       </c>
-      <c r="W57" s="3">
+      <c r="X57" s="3">
         <v>916000</v>
       </c>
-      <c r="X57" s="3">
+      <c r="Y57" s="3">
         <v>908000</v>
       </c>
-      <c r="Y57" s="3">
+      <c r="Z57" s="3">
         <v>828000</v>
       </c>
-      <c r="Z57" s="3">
+      <c r="AA57" s="3">
         <v>858000</v>
-      </c>
-      <c r="AA57" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="AB57" s="3" t="s">
         <v>8</v>
@@ -4532,441 +4663,459 @@
       <c r="AC57" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="AD57" s="3">
+      <c r="AD57" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE57" s="3">
         <v>839000</v>
       </c>
     </row>
-    <row r="58" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>287000</v>
+      </c>
+      <c r="E58" s="3">
         <v>269000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>204000</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>189000</v>
       </c>
-      <c r="G58" s="3">
+      <c r="H58" s="3">
         <v>210000</v>
       </c>
-      <c r="H58" s="3">
+      <c r="I58" s="3">
         <v>153000</v>
       </c>
-      <c r="I58" s="3">
+      <c r="J58" s="3">
         <v>154000</v>
       </c>
-      <c r="J58" s="3">
+      <c r="K58" s="3">
         <v>156000</v>
       </c>
-      <c r="K58" s="3">
+      <c r="L58" s="3">
         <v>270000</v>
       </c>
-      <c r="L58" s="3">
+      <c r="M58" s="3">
         <v>268000</v>
       </c>
-      <c r="M58" s="3">
+      <c r="N58" s="3">
         <v>156000</v>
       </c>
-      <c r="N58" s="3">
+      <c r="O58" s="3">
         <v>294000</v>
       </c>
-      <c r="O58" s="3">
+      <c r="P58" s="3">
         <v>314000</v>
       </c>
-      <c r="P58" s="3">
+      <c r="Q58" s="3">
         <v>217000</v>
       </c>
-      <c r="Q58" s="3">
+      <c r="R58" s="3">
         <v>211000</v>
       </c>
-      <c r="R58" s="3">
+      <c r="S58" s="3">
         <v>181000</v>
       </c>
-      <c r="S58" s="3">
+      <c r="T58" s="3">
         <v>192000</v>
       </c>
-      <c r="T58" s="3">
+      <c r="U58" s="3">
         <v>641000</v>
       </c>
-      <c r="U58" s="3">
+      <c r="V58" s="3">
         <v>129000</v>
       </c>
-      <c r="V58" s="3">
+      <c r="W58" s="3">
         <v>113000</v>
       </c>
-      <c r="W58" s="3">
+      <c r="X58" s="3">
         <v>104000</v>
       </c>
-      <c r="X58" s="3">
+      <c r="Y58" s="3">
         <v>151000</v>
       </c>
-      <c r="Y58" s="3">
+      <c r="Z58" s="3">
         <v>136000</v>
       </c>
-      <c r="Z58" s="3">
+      <c r="AA58" s="3">
         <v>133000</v>
       </c>
-      <c r="AA58" s="3">
+      <c r="AB58" s="3">
         <v>129000</v>
       </c>
-      <c r="AB58" s="3">
+      <c r="AC58" s="3">
         <v>549000</v>
       </c>
-      <c r="AC58" s="3">
+      <c r="AD58" s="3">
         <v>546000</v>
       </c>
-      <c r="AD58" s="3">
+      <c r="AE58" s="3">
         <v>576000</v>
       </c>
     </row>
-    <row r="59" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>222000</v>
+      </c>
+      <c r="E59" s="3">
         <v>241000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>415000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>290000</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>34000</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>29000</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>27000</v>
-      </c>
-      <c r="J59" s="3">
-        <v>22000</v>
       </c>
       <c r="K59" s="3">
         <v>22000</v>
       </c>
       <c r="L59" s="3">
+        <v>22000</v>
+      </c>
+      <c r="M59" s="3">
         <v>30000</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>22000</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>32000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>44000</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>57000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>46000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>64000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>52000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>45000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>152000</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>51000</v>
       </c>
-      <c r="W59" s="3">
+      <c r="X59" s="3">
         <v>61000</v>
       </c>
-      <c r="X59" s="3">
+      <c r="Y59" s="3">
         <v>57000</v>
       </c>
-      <c r="Y59" s="3">
+      <c r="Z59" s="3">
         <v>176000</v>
       </c>
-      <c r="Z59" s="3">
+      <c r="AA59" s="3">
         <v>52000</v>
       </c>
-      <c r="AA59" s="3">
+      <c r="AB59" s="3">
         <v>821000</v>
       </c>
-      <c r="AB59" s="3">
+      <c r="AC59" s="3">
         <v>753000</v>
       </c>
-      <c r="AC59" s="3">
+      <c r="AD59" s="3">
         <v>807000</v>
       </c>
-      <c r="AD59" s="3">
+      <c r="AE59" s="3">
         <v>59000</v>
       </c>
     </row>
-    <row r="60" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>1204000</v>
+      </c>
+      <c r="E60" s="3">
         <v>1316000</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>1415000</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>1524000</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>1357000</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>1323000</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>1231000</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>1309000</v>
       </c>
-      <c r="K60" s="3">
+      <c r="L60" s="3">
         <v>1283000</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>1197000</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>1309000</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>1123000</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>1033000</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>1144000</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>1140000</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>1214000</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>1082000</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>1556000</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>1235000</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>1173000</v>
       </c>
-      <c r="W60" s="3">
+      <c r="X60" s="3">
         <v>1081000</v>
       </c>
-      <c r="X60" s="3">
+      <c r="Y60" s="3">
         <v>1116000</v>
       </c>
-      <c r="Y60" s="3">
+      <c r="Z60" s="3">
         <v>1140000</v>
       </c>
-      <c r="Z60" s="3">
+      <c r="AA60" s="3">
         <v>1043000</v>
       </c>
-      <c r="AA60" s="3">
+      <c r="AB60" s="3">
         <v>950000</v>
       </c>
-      <c r="AB60" s="3">
+      <c r="AC60" s="3">
         <v>1302000</v>
       </c>
-      <c r="AC60" s="3">
+      <c r="AD60" s="3">
         <v>1353000</v>
       </c>
-      <c r="AD60" s="3">
+      <c r="AE60" s="3">
         <v>1474000</v>
       </c>
     </row>
-    <row r="61" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>1393000</v>
+      </c>
+      <c r="E61" s="3">
         <v>1513000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>1630000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>1754000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>1890000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>2080000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>2097000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>2156000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>2190000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>2152000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>2156000</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>1942000</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>1853000</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>1930000</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>1975000</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>1713000</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>1762000</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>1759000</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>1778000</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>1818000</v>
       </c>
-      <c r="W61" s="3">
+      <c r="X61" s="3">
         <v>1816000</v>
       </c>
-      <c r="X61" s="3">
+      <c r="Y61" s="3">
         <v>1940000</v>
       </c>
-      <c r="Y61" s="3">
+      <c r="Z61" s="3">
         <v>1831000</v>
       </c>
-      <c r="Z61" s="3">
+      <c r="AA61" s="3">
         <v>1739000</v>
       </c>
-      <c r="AA61" s="3">
+      <c r="AB61" s="3">
         <v>1635000</v>
       </c>
-      <c r="AB61" s="3">
+      <c r="AC61" s="3">
         <v>1483000</v>
       </c>
-      <c r="AC61" s="3">
+      <c r="AD61" s="3">
         <v>1473000</v>
       </c>
-      <c r="AD61" s="3">
+      <c r="AE61" s="3">
         <v>1535000</v>
       </c>
     </row>
-    <row r="62" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>615000</v>
+      </c>
+      <c r="E62" s="3">
         <v>635000</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>650000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>593000</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>681000</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>722000</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>726000</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>751000</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>791000</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>783000</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>751000</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>758000</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>705000</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>687000</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>788000</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>748000</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>737000</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>723000</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>728000</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>732000</v>
       </c>
-      <c r="W62" s="3">
+      <c r="X62" s="3">
         <v>728000</v>
       </c>
-      <c r="X62" s="3">
+      <c r="Y62" s="3">
         <v>784000</v>
       </c>
-      <c r="Y62" s="3">
+      <c r="Z62" s="3">
         <v>757000</v>
       </c>
-      <c r="Z62" s="3">
+      <c r="AA62" s="3">
         <v>718000</v>
       </c>
-      <c r="AA62" s="3">
+      <c r="AB62" s="3">
         <v>806000</v>
       </c>
-      <c r="AB62" s="3">
+      <c r="AC62" s="3">
         <v>782000</v>
       </c>
-      <c r="AC62" s="3">
+      <c r="AD62" s="3">
         <v>777000</v>
       </c>
-      <c r="AD62" s="3">
+      <c r="AE62" s="3">
         <v>790000</v>
       </c>
     </row>
-    <row r="63" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -5051,8 +5200,11 @@
       <c r="AD63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -5137,8 +5289,11 @@
       <c r="AD64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -5223,94 +5378,100 @@
       <c r="AD65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>3212000</v>
+      </c>
+      <c r="E66" s="3">
         <v>3464000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>3695000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>3871000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>3928000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>4125000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>4054000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>4216000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>4264000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>4132000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>4216000</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3823000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3591000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3761000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3903000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>3675000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>3581000</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>4038000</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>3741000</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>3723000</v>
       </c>
-      <c r="W66" s="3">
+      <c r="X66" s="3">
         <v>3625000</v>
       </c>
-      <c r="X66" s="3">
+      <c r="Y66" s="3">
         <v>3840000</v>
       </c>
-      <c r="Y66" s="3">
+      <c r="Z66" s="3">
         <v>3728000</v>
       </c>
-      <c r="Z66" s="3">
+      <c r="AA66" s="3">
         <v>3500000</v>
       </c>
-      <c r="AA66" s="3">
+      <c r="AB66" s="3">
         <v>3391000</v>
       </c>
-      <c r="AB66" s="3">
+      <c r="AC66" s="3">
         <v>3567000</v>
       </c>
-      <c r="AC66" s="3">
+      <c r="AD66" s="3">
         <v>3603000</v>
       </c>
-      <c r="AD66" s="3">
+      <c r="AE66" s="3">
         <v>3799000</v>
       </c>
     </row>
-    <row r="67" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -5341,8 +5502,9 @@
       <c r="AB67" s="3"/>
       <c r="AC67" s="3"/>
       <c r="AD67" s="3"/>
-    </row>
-    <row r="68" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE67" s="3"/>
+    </row>
+    <row r="68" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -5427,8 +5589,11 @@
       <c r="AD68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -5513,8 +5678,11 @@
       <c r="AD69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -5599,8 +5767,11 @@
       <c r="AD70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -5685,37 +5856,40 @@
       <c r="AD71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>1992000</v>
+      </c>
+      <c r="E72" s="3">
         <v>1952000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>1885000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>1780000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>1685000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>1510000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>1299000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>1209000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>1180000</v>
-      </c>
-      <c r="L72" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="M72" s="3" t="s">
         <v>8</v>
@@ -5732,8 +5906,8 @@
       <c r="Q72" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R72" s="3">
-        <v>0</v>
+      <c r="R72" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S72" s="3">
         <v>0</v>
@@ -5771,8 +5945,11 @@
       <c r="AD72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -5857,8 +6034,11 @@
       <c r="AD73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -5943,8 +6123,11 @@
       <c r="AD74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -6029,94 +6212,100 @@
       <c r="AD75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>2489000</v>
+      </c>
+      <c r="E76" s="3">
         <v>2541000</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>2538000</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>2358000</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>2379000</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>2344000</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>1984000</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>1970000</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>1982000</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>1889000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>1970000</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>1632000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>1781000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>1827000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>2071000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>1948000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>2033000</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>1987000</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>1915000</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>1947000</v>
       </c>
-      <c r="W76" s="3">
+      <c r="X76" s="3">
         <v>1842000</v>
       </c>
-      <c r="X76" s="3">
+      <c r="Y76" s="3">
         <v>1968000</v>
       </c>
-      <c r="Y76" s="3">
+      <c r="Z76" s="3">
         <v>1821000</v>
       </c>
-      <c r="Z76" s="3">
+      <c r="AA76" s="3">
         <v>1747000</v>
       </c>
-      <c r="AA76" s="3">
+      <c r="AB76" s="3">
         <v>1627000</v>
       </c>
-      <c r="AB76" s="3">
+      <c r="AC76" s="3">
         <v>1551000</v>
       </c>
-      <c r="AC76" s="3">
+      <c r="AD76" s="3">
         <v>1442000</v>
       </c>
-      <c r="AD76" s="3">
+      <c r="AE76" s="3">
         <v>1378000</v>
       </c>
     </row>
-    <row r="77" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -6201,185 +6390,194 @@
       <c r="AD77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:30" x14ac:dyDescent="0.2">
+      <c r="AE77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:31" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:30" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:31" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>45107</v>
+      </c>
+      <c r="E80" s="2">
         <v>45016</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44926</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44834</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44742</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>44651</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>44561</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>44469</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>44377</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>44286</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>44196</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>44104</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>44012</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43921</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43830</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43738</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>43646</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>43555</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>43465</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>43373</v>
       </c>
-      <c r="W80" s="2">
+      <c r="X80" s="2">
         <v>43281</v>
       </c>
-      <c r="X80" s="2">
+      <c r="Y80" s="2">
         <v>43190</v>
       </c>
-      <c r="Y80" s="2">
+      <c r="Z80" s="2">
         <v>43100</v>
       </c>
-      <c r="Z80" s="2">
+      <c r="AA80" s="2">
         <v>43008</v>
       </c>
-      <c r="AA80" s="2">
+      <c r="AB80" s="2">
         <v>42916</v>
       </c>
-      <c r="AB80" s="2">
+      <c r="AC80" s="2">
         <v>42825</v>
       </c>
-      <c r="AC80" s="2">
+      <c r="AD80" s="2">
         <v>42735</v>
       </c>
-      <c r="AD80" s="2">
+      <c r="AE80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E81" s="3">
         <v>69000</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>190000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>26000</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>199000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>188000</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>123000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>35000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>18000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-23000</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-17000</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-88000</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-73000</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>2000</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>24000</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>50000</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>8000</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>72000</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>81000</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>107000</v>
       </c>
-      <c r="W81" s="3">
+      <c r="X81" s="3">
         <v>51000</v>
       </c>
-      <c r="X81" s="3">
+      <c r="Y81" s="3">
         <v>102000</v>
       </c>
-      <c r="Y81" s="3">
+      <c r="Z81" s="3">
         <v>63000</v>
       </c>
-      <c r="Z81" s="3">
+      <c r="AA81" s="3">
         <v>102000</v>
       </c>
-      <c r="AA81" s="3">
+      <c r="AB81" s="3">
         <v>58000</v>
       </c>
-      <c r="AB81" s="3">
+      <c r="AC81" s="3">
         <v>88000</v>
       </c>
-      <c r="AC81" s="3">
+      <c r="AD81" s="3">
         <v>90000</v>
       </c>
-      <c r="AD81" s="3">
+      <c r="AE81" s="3">
         <v>112000</v>
       </c>
     </row>
-    <row r="82" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -6410,94 +6608,98 @@
       <c r="AB82" s="3"/>
       <c r="AC82" s="3"/>
       <c r="AD82" s="3"/>
-    </row>
-    <row r="83" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE82" s="3"/>
+    </row>
+    <row r="83" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>82000</v>
+      </c>
+      <c r="E83" s="3">
         <v>83000</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>80000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>86000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>84000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>91000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>95000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>100000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>98000</v>
-      </c>
-      <c r="L83" s="3">
-        <v>99000</v>
       </c>
       <c r="M83" s="3">
         <v>99000</v>
       </c>
       <c r="N83" s="3">
+        <v>99000</v>
+      </c>
+      <c r="O83" s="3">
         <v>102000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>91000</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>97000</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>94000</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>93000</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>89000</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>88000</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>86000</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>93000</v>
       </c>
-      <c r="W83" s="3">
+      <c r="X83" s="3">
         <v>87000</v>
       </c>
-      <c r="X83" s="3">
+      <c r="Y83" s="3">
         <v>88000</v>
       </c>
-      <c r="Y83" s="3">
+      <c r="Z83" s="3">
         <v>80000</v>
       </c>
-      <c r="Z83" s="3">
+      <c r="AA83" s="3">
         <v>83000</v>
       </c>
-      <c r="AA83" s="3">
+      <c r="AB83" s="3">
         <v>76000</v>
       </c>
-      <c r="AB83" s="3">
+      <c r="AC83" s="3">
         <v>80000</v>
       </c>
-      <c r="AC83" s="3">
+      <c r="AD83" s="3">
         <v>83000</v>
       </c>
-      <c r="AD83" s="3">
+      <c r="AE83" s="3">
         <v>79000</v>
       </c>
     </row>
-    <row r="84" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -6582,8 +6784,11 @@
       <c r="AD84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -6668,8 +6873,11 @@
       <c r="AD85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -6754,8 +6962,11 @@
       <c r="AD86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -6840,8 +7051,11 @@
       <c r="AD87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -6926,94 +7140,100 @@
       <c r="AD88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>140000</v>
+      </c>
+      <c r="E89" s="3">
         <v>133000</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>85000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>377000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>261000</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>173000</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>71000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>176000</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>129000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>13000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>89000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>180000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>11000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>74000</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-5000</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>306000</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>118000</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>-53000</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>102000</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>171000</v>
       </c>
-      <c r="W89" s="3">
+      <c r="X89" s="3">
         <v>147000</v>
       </c>
-      <c r="X89" s="3">
+      <c r="Y89" s="3">
         <v>13000</v>
       </c>
-      <c r="Y89" s="3">
+      <c r="Z89" s="3">
         <v>79000</v>
       </c>
-      <c r="Z89" s="3">
+      <c r="AA89" s="3">
         <v>249000</v>
       </c>
-      <c r="AA89" s="3">
+      <c r="AB89" s="3">
         <v>116000</v>
       </c>
-      <c r="AB89" s="3">
+      <c r="AC89" s="3">
         <v>62000</v>
       </c>
-      <c r="AC89" s="3">
+      <c r="AD89" s="3">
         <v>54000</v>
       </c>
-      <c r="AD89" s="3">
+      <c r="AE89" s="3">
         <v>255000</v>
       </c>
     </row>
-    <row r="90" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -7044,94 +7264,98 @@
       <c r="AB90" s="3"/>
       <c r="AC90" s="3"/>
       <c r="AD90" s="3"/>
-    </row>
-    <row r="91" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE90" s="3"/>
+    </row>
+    <row r="91" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-62000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-83000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-58000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-134000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-93000</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-69000</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-72000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-143000</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-79000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-70000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-82000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>130000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-74000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-70000</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-112000</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>188000</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-135000</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-95000</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-106000</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>228000</v>
       </c>
-      <c r="W91" s="3">
+      <c r="X91" s="3">
         <v>-188000</v>
       </c>
-      <c r="X91" s="3">
+      <c r="Y91" s="3">
         <v>-119000</v>
       </c>
-      <c r="Y91" s="3">
+      <c r="Z91" s="3">
         <v>-88000</v>
       </c>
-      <c r="Z91" s="3">
+      <c r="AA91" s="3">
         <v>149000</v>
       </c>
-      <c r="AA91" s="3">
+      <c r="AB91" s="3">
         <v>-78000</v>
       </c>
-      <c r="AB91" s="3">
+      <c r="AC91" s="3">
         <v>-45000</v>
       </c>
-      <c r="AC91" s="3">
+      <c r="AD91" s="3">
         <v>-37000</v>
       </c>
-      <c r="AD91" s="3">
+      <c r="AE91" s="3">
         <v>-97000</v>
       </c>
     </row>
-    <row r="92" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -7216,8 +7440,11 @@
       <c r="AD92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -7302,94 +7529,100 @@
       <c r="AD93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-67000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-95000</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-62000</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-135000</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-91000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-68000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-82000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-143000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-80000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-66000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-89000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-92000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-78000</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-74000</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-273000</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-133000</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-135000</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-95000</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-109000</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-145000</v>
       </c>
-      <c r="W94" s="3">
+      <c r="X94" s="3">
         <v>-188000</v>
       </c>
-      <c r="X94" s="3">
+      <c r="Y94" s="3">
         <v>-238000</v>
       </c>
-      <c r="Y94" s="3">
+      <c r="Z94" s="3">
         <v>-93000</v>
       </c>
-      <c r="Z94" s="3">
+      <c r="AA94" s="3">
         <v>-208000</v>
       </c>
-      <c r="AA94" s="3">
+      <c r="AB94" s="3">
         <v>-86000</v>
       </c>
-      <c r="AB94" s="3">
+      <c r="AC94" s="3">
         <v>-42000</v>
       </c>
-      <c r="AC94" s="3">
+      <c r="AD94" s="3">
         <v>-37000</v>
       </c>
-      <c r="AD94" s="3">
+      <c r="AE94" s="3">
         <v>-87000</v>
       </c>
     </row>
-    <row r="95" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -7420,8 +7653,9 @@
       <c r="AB95" s="3"/>
       <c r="AC95" s="3"/>
       <c r="AD95" s="3"/>
-    </row>
-    <row r="96" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE95" s="3"/>
+    </row>
+    <row r="96" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -7506,8 +7740,11 @@
       <c r="AD96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -7592,8 +7829,11 @@
       <c r="AD97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -7678,8 +7918,11 @@
       <c r="AD98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -7764,262 +8007,274 @@
       <c r="AD99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:30" x14ac:dyDescent="0.2">
+      <c r="AE99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-130000</v>
+      </c>
+      <c r="E100" s="3">
         <v>-74000</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-243000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-28000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-4000</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6000</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-5000</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-71000</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-5000</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>5000</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>104000</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6000</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-7000</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>4000</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>147000</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>12000</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-489000</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>531000</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>2000</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>21000</v>
       </c>
-      <c r="W100" s="3">
+      <c r="X100" s="3">
         <v>-71000</v>
       </c>
-      <c r="X100" s="3">
+      <c r="Y100" s="3">
         <v>60000</v>
       </c>
-      <c r="Y100" s="3">
+      <c r="Z100" s="3">
         <v>58000</v>
       </c>
-      <c r="Z100" s="3">
+      <c r="AA100" s="3">
         <v>51000</v>
       </c>
-      <c r="AA100" s="3">
+      <c r="AB100" s="3">
         <v>-314000</v>
       </c>
-      <c r="AB100" s="3">
+      <c r="AC100" s="3">
         <v>-10000</v>
       </c>
-      <c r="AC100" s="3">
+      <c r="AD100" s="3">
         <v>-6000</v>
       </c>
-      <c r="AD100" s="3">
+      <c r="AE100" s="3">
         <v>-29000</v>
       </c>
     </row>
-    <row r="101" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>0</v>
+        <v>4000</v>
       </c>
       <c r="E101" s="3">
+        <v>0</v>
+      </c>
+      <c r="F101" s="3">
         <v>33000</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>-36000</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>7000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>-16000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>-1000</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>11000</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>-12000</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>27000</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>7000</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-4000</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-6000</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>8000</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-18000</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>12000</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-13000</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-8000</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
-      <c r="W101" s="3">
+      <c r="X101" s="3">
         <v>-30000</v>
       </c>
-      <c r="X101" s="3">
+      <c r="Y101" s="3">
         <v>6000</v>
       </c>
-      <c r="Y101" s="3">
+      <c r="Z101" s="3">
         <v>24000</v>
       </c>
-      <c r="Z101" s="3">
+      <c r="AA101" s="3">
         <v>12000</v>
       </c>
-      <c r="AA101" s="3">
+      <c r="AB101" s="3">
         <v>27000</v>
       </c>
-      <c r="AB101" s="3">
+      <c r="AC101" s="3">
         <v>12000</v>
       </c>
-      <c r="AC101" s="3">
+      <c r="AD101" s="3">
         <v>-33000</v>
       </c>
-      <c r="AD101" s="3">
+      <c r="AE101" s="3">
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="3:30" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:31" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-53000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-36000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-187000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>210000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>130000</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>106000</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-32000</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-39000</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>55000</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-60000</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>131000</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>89000</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-78000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-123000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>167000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-494000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>370000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>46000</v>
       </c>
-      <c r="W102" s="3">
+      <c r="X102" s="3">
         <v>-142000</v>
       </c>
-      <c r="X102" s="3">
+      <c r="Y102" s="3">
         <v>-159000</v>
       </c>
-      <c r="Y102" s="3">
+      <c r="Z102" s="3">
         <v>68000</v>
       </c>
-      <c r="Z102" s="3">
+      <c r="AA102" s="3">
         <v>104000</v>
       </c>
-      <c r="AA102" s="3">
+      <c r="AB102" s="3">
         <v>-257000</v>
       </c>
-      <c r="AB102" s="3">
+      <c r="AC102" s="3">
         <v>22000</v>
       </c>
-      <c r="AC102" s="3">
+      <c r="AD102" s="3">
         <v>-22000</v>
       </c>
-      <c r="AD102" s="3">
+      <c r="AE102" s="3">
         <v>161000</v>
       </c>
     </row>
